--- a/analysis.xlsx
+++ b/analysis.xlsx
@@ -8,13 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\shared\arm-instruction-time\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6247178C-A7D1-45B3-B9F5-868B4539A371}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{653E47E7-C401-490F-8C27-BCC4FC652FAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7665" yWindow="4425" windowWidth="20775" windowHeight="15375" xr2:uid="{D46DF09C-373D-4B8F-933A-76CBCC1CC5EF}"/>
+    <workbookView xWindow="6060" yWindow="1770" windowWidth="20775" windowHeight="17370" xr2:uid="{D46DF09C-373D-4B8F-933A-76CBCC1CC5EF}"/>
   </bookViews>
   <sheets>
     <sheet name="Ignoring empty loop time" sheetId="1" r:id="rId1"/>
-    <sheet name="Substracting empty loop time" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="44">
   <si>
     <t>Apple M1</t>
   </si>
@@ -164,6 +163,24 @@
   <si>
     <t>ref V1 = comparison of execution time with Neoverse V1, frequency ratio included</t>
   </si>
+  <si>
+    <t>UMULH NOP ADCS</t>
+  </si>
+  <si>
+    <t>UMULH ADD ADCS</t>
+  </si>
+  <si>
+    <t>UMULH ADDS ADCS</t>
+  </si>
+  <si>
+    <t>UMULH ADCS ADCS</t>
+  </si>
+  <si>
+    <t>UMULH ADC ADDS</t>
+  </si>
+  <si>
+    <t>UMULH ADC ADDS (dep. regs)</t>
+  </si>
 </sst>
 </file>
 
@@ -172,8 +189,8 @@
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.00\ &quot;GHz&quot;"/>
-    <numFmt numFmtId="168" formatCode="\+0%;\-0%"/>
-    <numFmt numFmtId="169" formatCode="\+0.0%;\-0.0%"/>
+    <numFmt numFmtId="166" formatCode="\+0%;\-0%"/>
+    <numFmt numFmtId="167" formatCode="\+0.0%;\-0.0%"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -372,6 +389,9 @@
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -381,10 +401,7 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -724,7 +741,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:W36"/>
+  <dimension ref="B1:W42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -751,31 +768,31 @@
       </c>
       <c r="D2" s="7"/>
       <c r="E2" s="4"/>
-      <c r="F2" s="20" t="s">
+      <c r="F2" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
       <c r="I2" s="7"/>
       <c r="J2" s="4"/>
-      <c r="K2" s="20" t="s">
+      <c r="K2" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="20"/>
-      <c r="M2" s="20"/>
+      <c r="L2" s="21"/>
+      <c r="M2" s="21"/>
       <c r="N2" s="7"/>
       <c r="O2" s="4"/>
-      <c r="P2" s="20" t="s">
+      <c r="P2" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="Q2" s="20"/>
+      <c r="Q2" s="21"/>
       <c r="R2" s="7"/>
       <c r="S2" s="6"/>
-      <c r="T2" s="20" t="s">
+      <c r="T2" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="U2" s="20"/>
-      <c r="V2" s="20"/>
+      <c r="U2" s="21"/>
+      <c r="V2" s="21"/>
       <c r="W2" s="7"/>
     </row>
     <row r="3" spans="2:23" x14ac:dyDescent="0.25">
@@ -785,30 +802,30 @@
       </c>
       <c r="D3" s="9"/>
       <c r="E3" s="8"/>
-      <c r="F3" s="22">
+      <c r="F3" s="23">
         <v>1.8</v>
       </c>
-      <c r="G3" s="22"/>
-      <c r="H3" s="22"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
       <c r="I3" s="9"/>
       <c r="J3" s="8"/>
-      <c r="K3" s="22">
+      <c r="K3" s="23">
         <v>3</v>
       </c>
-      <c r="L3" s="22"/>
-      <c r="M3" s="22"/>
+      <c r="L3" s="23"/>
+      <c r="M3" s="23"/>
       <c r="N3" s="9"/>
       <c r="O3" s="8"/>
-      <c r="P3" s="21">
+      <c r="P3" s="22">
         <v>2.6</v>
       </c>
-      <c r="Q3" s="21"/>
+      <c r="Q3" s="22"/>
       <c r="R3" s="9"/>
-      <c r="T3" s="22">
+      <c r="T3" s="23">
         <v>3.2</v>
       </c>
-      <c r="U3" s="22"/>
-      <c r="V3" s="22"/>
+      <c r="U3" s="23"/>
+      <c r="V3" s="23"/>
       <c r="W3" s="9"/>
     </row>
     <row r="4" spans="2:23" x14ac:dyDescent="0.25">
@@ -884,22 +901,22 @@
         <f>1/($F$3*F6)</f>
         <v>0.99206349206349187</v>
       </c>
-      <c r="H6" s="23">
+      <c r="H6" s="20">
         <f>(F6*$F$3 - $P6*$P$3)/($P6*$P$3)</f>
         <v>9.7692307692307718</v>
       </c>
       <c r="I6" s="9"/>
       <c r="J6" s="8"/>
       <c r="K6" s="3">
-        <v>9.2999999999999999E-2</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="L6" s="3">
         <f>1/($K$3*K6)</f>
-        <v>3.5842293906810032</v>
-      </c>
-      <c r="M6" s="23">
+        <v>3.6231884057971011</v>
+      </c>
+      <c r="M6" s="20">
         <f>(K6*$K$3 - $P6*$P$3)/($P6*$P$3)</f>
-        <v>1.9807692307692308</v>
+        <v>1.9487179487179487</v>
       </c>
       <c r="N6" s="9"/>
       <c r="O6" s="8"/>
@@ -918,7 +935,7 @@
         <f>1/($T$3*T6)</f>
         <v>6.9444444444444446</v>
       </c>
-      <c r="V6" s="23">
+      <c r="V6" s="20">
         <f>(T6*$T$3 - $P6*$P$3)/($P6*$P$3)</f>
         <v>0.53846153846153832</v>
       </c>
@@ -932,15 +949,15 @@
       <c r="D7" s="9"/>
       <c r="E7" s="8"/>
       <c r="F7" s="3">
-        <v>0.29799999999999999</v>
+        <v>0.29699999999999999</v>
       </c>
       <c r="G7" s="3">
-        <f t="shared" ref="G7:G26" si="0">1/($F$3*F7)</f>
-        <v>1.8642803877703207</v>
-      </c>
-      <c r="H7" s="23">
-        <f t="shared" ref="H7:H26" si="1">(F7*$F$3 - $P7*$P$3)/($P7*$P$3)</f>
-        <v>1.0839160839160837</v>
+        <f t="shared" ref="G7:G33" si="0">1/($F$3*F7)</f>
+        <v>1.8705574261129818</v>
+      </c>
+      <c r="H7" s="20">
+        <f t="shared" ref="H7:H33" si="1">(F7*$F$3 - $P7*$P$3)/($P7*$P$3)</f>
+        <v>1.0769230769230766</v>
       </c>
       <c r="I7" s="9"/>
       <c r="J7" s="8"/>
@@ -948,11 +965,11 @@
         <v>0.115</v>
       </c>
       <c r="L7" s="3">
-        <f t="shared" ref="L7:L26" si="2">1/($K$3*K7)</f>
+        <f t="shared" ref="L7:L33" si="2">1/($K$3*K7)</f>
         <v>2.8985507246376807</v>
       </c>
-      <c r="M7" s="23">
-        <f t="shared" ref="M7:M26" si="3">(K7*$K$3 - $P7*$P$3)/($P7*$P$3)</f>
+      <c r="M7" s="20">
+        <f t="shared" ref="M7:M33" si="3">(K7*$K$3 - $P7*$P$3)/($P7*$P$3)</f>
         <v>0.34032634032634035</v>
       </c>
       <c r="N7" s="9"/>
@@ -969,11 +986,11 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="U7" s="3">
-        <f t="shared" ref="U7:U30" si="4">1/($T$3*T7)</f>
+        <f t="shared" ref="U7:U36" si="4">1/($T$3*T7)</f>
         <v>4.4642857142857135</v>
       </c>
-      <c r="V7" s="23">
-        <f t="shared" ref="V7:V30" si="5">(T7*$T$3 - $P7*$P$3)/($P7*$P$3)</f>
+      <c r="V7" s="20">
+        <f t="shared" ref="V7:V36" si="5">(T7*$T$3 - $P7*$P$3)/($P7*$P$3)</f>
         <v>-0.1297591297591297</v>
       </c>
       <c r="W7" s="9"/>
@@ -986,15 +1003,15 @@
       <c r="D8" s="9"/>
       <c r="E8" s="8"/>
       <c r="F8" s="3">
-        <v>0.29599999999999999</v>
+        <v>0.29699999999999999</v>
       </c>
       <c r="G8" s="3">
         <f t="shared" si="0"/>
-        <v>1.8768768768768771</v>
-      </c>
-      <c r="H8" s="23">
+        <v>1.8705574261129818</v>
+      </c>
+      <c r="H8" s="20">
         <f t="shared" si="1"/>
-        <v>1.0699300699300696</v>
+        <v>1.0769230769230766</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="8"/>
@@ -1005,7 +1022,7 @@
         <f t="shared" si="2"/>
         <v>2.8985507246376807</v>
       </c>
-      <c r="M8" s="23">
+      <c r="M8" s="20">
         <f t="shared" si="3"/>
         <v>0.34032634032634035</v>
       </c>
@@ -1015,7 +1032,7 @@
         <v>9.9000000000000005E-2</v>
       </c>
       <c r="Q8" s="3">
-        <f t="shared" ref="Q8:Q30" si="6">1/($P$3*P8)</f>
+        <f t="shared" ref="Q8:Q36" si="6">1/($P$3*P8)</f>
         <v>3.8850038850038846</v>
       </c>
       <c r="R8" s="9"/>
@@ -1026,7 +1043,7 @@
         <f t="shared" si="4"/>
         <v>2.8935185185185182</v>
       </c>
-      <c r="V8" s="23">
+      <c r="V8" s="20">
         <f t="shared" si="5"/>
         <v>0.34265734265734266</v>
       </c>
@@ -1046,9 +1063,9 @@
         <f t="shared" si="0"/>
         <v>1.7636684303350969</v>
       </c>
-      <c r="H9" s="23">
+      <c r="H9" s="20">
         <f t="shared" si="1"/>
-        <v>0.65209790209790219</v>
+        <v>0.66470933646506181</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="8"/>
@@ -1059,30 +1076,30 @@
         <f t="shared" si="2"/>
         <v>2.7777777777777777</v>
       </c>
-      <c r="M9" s="23">
+      <c r="M9" s="20">
         <f t="shared" si="3"/>
-        <v>4.8951048951048896E-2</v>
+        <v>5.6958308866705734E-2</v>
       </c>
       <c r="N9" s="9"/>
       <c r="O9" s="8"/>
       <c r="P9" s="3">
-        <v>0.13200000000000001</v>
+        <v>0.13100000000000001</v>
       </c>
       <c r="Q9" s="3">
         <f t="shared" si="6"/>
-        <v>2.9137529137529139</v>
+        <v>2.935995302407516</v>
       </c>
       <c r="R9" s="9"/>
       <c r="T9" s="3">
-        <v>0.108</v>
+        <v>0.107</v>
       </c>
       <c r="U9" s="3">
         <f t="shared" si="4"/>
-        <v>2.8935185185185182</v>
-      </c>
-      <c r="V9" s="23">
+        <v>2.9205607476635511</v>
+      </c>
+      <c r="V9" s="20">
         <f t="shared" si="5"/>
-        <v>6.9930069930070312E-3</v>
+        <v>5.2847915443335986E-3</v>
       </c>
       <c r="W9" s="9"/>
     </row>
@@ -1093,50 +1110,50 @@
       </c>
       <c r="D10" s="9"/>
       <c r="E10" s="8"/>
-      <c r="F10" s="19">
-        <v>0.55800000000000005</v>
+      <c r="F10" s="3">
+        <v>0.55900000000000005</v>
       </c>
       <c r="G10" s="3">
         <f t="shared" si="0"/>
-        <v>0.99561927518916749</v>
-      </c>
-      <c r="H10" s="23">
+        <v>0.99383820314052851</v>
+      </c>
+      <c r="H10" s="20">
         <f t="shared" si="1"/>
-        <v>-1.7889087656527548E-3</v>
+        <v>-2.5773195876288017E-3</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="8"/>
-      <c r="K10" s="19">
+      <c r="K10" s="3">
         <v>0.33400000000000002</v>
       </c>
       <c r="L10" s="3">
         <f t="shared" si="2"/>
         <v>0.99800399201596801</v>
       </c>
-      <c r="M10" s="23">
+      <c r="M10" s="20">
         <f t="shared" si="3"/>
-        <v>-4.1741204531902023E-3</v>
+        <v>-6.7406819984140946E-3</v>
       </c>
       <c r="N10" s="9"/>
       <c r="O10" s="8"/>
-      <c r="P10" s="19">
-        <v>0.38700000000000001</v>
+      <c r="P10" s="3">
+        <v>0.38800000000000001</v>
       </c>
       <c r="Q10" s="3">
         <f t="shared" si="6"/>
-        <v>0.99383820314052873</v>
+        <v>0.99127676447264057</v>
       </c>
       <c r="R10" s="9"/>
-      <c r="T10" s="19">
+      <c r="T10" s="3">
         <v>0.313</v>
       </c>
       <c r="U10" s="3">
         <f t="shared" si="4"/>
         <v>0.99840255591054305</v>
       </c>
-      <c r="V10" s="23">
+      <c r="V10" s="20">
         <f t="shared" si="5"/>
-        <v>-4.57165573444637E-3</v>
+        <v>-7.137192704203107E-3</v>
       </c>
       <c r="W10" s="9"/>
     </row>
@@ -1148,28 +1165,28 @@
       <c r="D11" s="9"/>
       <c r="E11" s="8"/>
       <c r="F11" s="19">
-        <v>1.671</v>
+        <v>1.677</v>
       </c>
       <c r="G11" s="3">
         <f t="shared" si="0"/>
-        <v>0.33246891415652635</v>
-      </c>
-      <c r="H11" s="23">
+        <v>0.33127940104684289</v>
+      </c>
+      <c r="H11" s="20">
         <f t="shared" si="1"/>
-        <v>4.9940215225189322</v>
+        <v>5.0155440414507773</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="8"/>
       <c r="K11" s="19">
-        <v>1.0009999999999999</v>
+        <v>1.002</v>
       </c>
       <c r="L11" s="3">
         <f t="shared" si="2"/>
-        <v>0.33300033300033305</v>
-      </c>
-      <c r="M11" s="23">
+        <v>0.33266799733865599</v>
+      </c>
+      <c r="M11" s="20">
         <f t="shared" si="3"/>
-        <v>4.9844559585492219</v>
+        <v>4.9904344360302906</v>
       </c>
       <c r="N11" s="9"/>
       <c r="O11" s="8"/>
@@ -1188,7 +1205,7 @@
         <f t="shared" si="4"/>
         <v>2.0032051282051282</v>
       </c>
-      <c r="V11" s="23">
+      <c r="V11" s="20">
         <f t="shared" si="5"/>
         <v>-5.1813471502590493E-3</v>
       </c>
@@ -1202,28 +1219,28 @@
       <c r="D12" s="9"/>
       <c r="E12" s="8"/>
       <c r="F12" s="19">
-        <v>2.2280000000000002</v>
+        <v>2.2360000000000002</v>
       </c>
       <c r="G12" s="3">
         <f t="shared" si="0"/>
-        <v>0.24935168561739474</v>
-      </c>
-      <c r="H12" s="23">
+        <v>0.24845955078513213</v>
+      </c>
+      <c r="H12" s="20">
         <f t="shared" si="1"/>
-        <v>6.9920286966919099</v>
+        <v>7.0207253886010372</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="8"/>
       <c r="K12" s="19">
-        <v>1.335</v>
+        <v>1.3360000000000001</v>
       </c>
       <c r="L12" s="3">
         <f t="shared" si="2"/>
-        <v>0.24968789013732834</v>
-      </c>
-      <c r="M12" s="23">
+        <v>0.249500998003992</v>
+      </c>
+      <c r="M12" s="20">
         <f t="shared" si="3"/>
-        <v>6.9812674372259851</v>
+        <v>6.9872459147070538</v>
       </c>
       <c r="N12" s="9"/>
       <c r="O12" s="8"/>
@@ -1242,7 +1259,7 @@
         <f t="shared" si="4"/>
         <v>2.0032051282051282</v>
       </c>
-      <c r="V12" s="23">
+      <c r="V12" s="20">
         <f t="shared" si="5"/>
         <v>-5.1813471502590493E-3</v>
       </c>
@@ -1256,49 +1273,49 @@
       <c r="D13" s="9"/>
       <c r="E13" s="8"/>
       <c r="F13" s="3">
-        <v>5.5709999999999997</v>
+        <v>5.5890000000000004</v>
       </c>
       <c r="G13" s="3">
         <f t="shared" si="0"/>
-        <v>9.9722770697461063E-2</v>
-      </c>
-      <c r="H13" s="23">
+        <v>9.9401602353829929E-2</v>
+      </c>
+      <c r="H13" s="20">
         <f t="shared" si="1"/>
-        <v>1.5180872101150874E-3</v>
+        <v>0.11636113453770698</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="8"/>
       <c r="K13" s="3">
-        <v>3.0030000000000001</v>
+        <v>3.0049999999999999</v>
       </c>
       <c r="L13" s="3">
         <f t="shared" si="2"/>
-        <v>0.11100011100011099</v>
-      </c>
-      <c r="M13" s="23">
+        <v>0.11092623405435385</v>
+      </c>
+      <c r="M13" s="20">
         <f t="shared" si="3"/>
-        <v>-0.10023370553103095</v>
+        <v>3.7729149096710695E-4</v>
       </c>
       <c r="N13" s="9"/>
       <c r="O13" s="8"/>
       <c r="P13" s="3">
-        <v>3.851</v>
+        <v>3.4660000000000002</v>
       </c>
       <c r="Q13" s="3">
         <f t="shared" si="6"/>
-        <v>9.9874158560214116E-2</v>
+        <v>0.11096808557858757</v>
       </c>
       <c r="R13" s="9"/>
       <c r="T13" s="3">
-        <v>0.628</v>
+        <v>0.625</v>
       </c>
       <c r="U13" s="3">
         <f t="shared" si="4"/>
-        <v>0.49761146496815278</v>
-      </c>
-      <c r="V13" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="V13" s="20">
         <f t="shared" si="5"/>
-        <v>-0.79929289095739364</v>
+        <v>-0.77806382884282488</v>
       </c>
       <c r="W13" s="9"/>
     </row>
@@ -1310,28 +1327,28 @@
       <c r="D14" s="9"/>
       <c r="E14" s="8"/>
       <c r="F14" s="3">
-        <v>1.95</v>
+        <v>1.9570000000000001</v>
       </c>
       <c r="G14" s="3">
         <f t="shared" si="0"/>
-        <v>0.28490028490028491</v>
-      </c>
-      <c r="H14" s="23">
+        <v>0.28388122409583827</v>
+      </c>
+      <c r="H14" s="20">
         <f t="shared" si="1"/>
-        <v>5.99481865284974</v>
+        <v>6.0199282582702276</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="8"/>
       <c r="K14" s="3">
-        <v>1.1679999999999999</v>
+        <v>1.169</v>
       </c>
       <c r="L14" s="3">
         <f t="shared" si="2"/>
-        <v>0.28538812785388129</v>
-      </c>
-      <c r="M14" s="23">
+        <v>0.28514399771884802</v>
+      </c>
+      <c r="M14" s="20">
         <f t="shared" si="3"/>
-        <v>5.9828616978876026</v>
+        <v>5.9888401753686731</v>
       </c>
       <c r="N14" s="9"/>
       <c r="O14" s="8"/>
@@ -1350,7 +1367,7 @@
         <f t="shared" si="4"/>
         <v>2.0032051282051282</v>
       </c>
-      <c r="V14" s="23">
+      <c r="V14" s="20">
         <f t="shared" si="5"/>
         <v>-5.1813471502590493E-3</v>
       </c>
@@ -1364,15 +1381,15 @@
       <c r="D15" s="9"/>
       <c r="E15" s="8"/>
       <c r="F15" s="3">
-        <v>0.97499999999999998</v>
+        <v>0.97799999999999998</v>
       </c>
       <c r="G15" s="3">
         <f t="shared" si="0"/>
-        <v>0.56980056980056981</v>
-      </c>
-      <c r="H15" s="23">
+        <v>0.56805271529197909</v>
+      </c>
+      <c r="H15" s="20">
         <f t="shared" si="1"/>
-        <v>1.2959183673469388</v>
+        <v>1.3029827315541602</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="8"/>
@@ -1383,7 +1400,7 @@
         <f t="shared" si="2"/>
         <v>0.57077625570776258</v>
       </c>
-      <c r="M15" s="23">
+      <c r="M15" s="20">
         <f t="shared" si="3"/>
         <v>1.2919937205651491</v>
       </c>
@@ -1398,15 +1415,15 @@
       </c>
       <c r="R15" s="9"/>
       <c r="T15" s="3">
-        <v>0.156</v>
+        <v>0.157</v>
       </c>
       <c r="U15" s="3">
         <f t="shared" si="4"/>
-        <v>2.0032051282051282</v>
-      </c>
-      <c r="V15" s="23">
+        <v>1.9904458598726111</v>
+      </c>
+      <c r="V15" s="20">
         <f t="shared" si="5"/>
-        <v>-0.34693877551020402</v>
+        <v>-0.34275248560962834</v>
       </c>
       <c r="W15" s="9"/>
     </row>
@@ -1418,15 +1435,15 @@
       <c r="D16" s="9"/>
       <c r="E16" s="8"/>
       <c r="F16" s="3">
-        <v>0.83599999999999997</v>
+        <v>0.83899999999999997</v>
       </c>
       <c r="G16" s="3">
         <f t="shared" si="0"/>
-        <v>0.66454013822434876</v>
-      </c>
-      <c r="H16" s="23">
+        <v>0.6621639517944643</v>
+      </c>
+      <c r="H16" s="20">
         <f t="shared" si="1"/>
-        <v>4.5120879120879112</v>
+        <v>4.5318681318681318</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="8"/>
@@ -1437,7 +1454,7 @@
         <f t="shared" si="2"/>
         <v>0.66533599467731197</v>
       </c>
-      <c r="M16" s="23">
+      <c r="M16" s="20">
         <f t="shared" si="3"/>
         <v>4.5054945054945055</v>
       </c>
@@ -1452,15 +1469,15 @@
       </c>
       <c r="R16" s="9"/>
       <c r="T16" s="3">
-        <v>0.105</v>
+        <v>0.104</v>
       </c>
       <c r="U16" s="3">
         <f t="shared" si="4"/>
-        <v>2.9761904761904758</v>
-      </c>
-      <c r="V16" s="23">
+        <v>3.0048076923076925</v>
+      </c>
+      <c r="V16" s="20">
         <f t="shared" si="5"/>
-        <v>0.23076923076923075</v>
+        <v>0.21904761904761891</v>
       </c>
       <c r="W16" s="9"/>
     </row>
@@ -1472,15 +1489,15 @@
       <c r="D17" s="9"/>
       <c r="E17" s="8"/>
       <c r="F17" s="3">
-        <v>0.83599999999999997</v>
+        <v>0.83799999999999997</v>
       </c>
       <c r="G17" s="3">
         <f t="shared" si="0"/>
-        <v>0.66454013822434876</v>
-      </c>
-      <c r="H17" s="23">
+        <v>0.66295412357464867</v>
+      </c>
+      <c r="H17" s="20">
         <f t="shared" si="1"/>
-        <v>4.5120879120879112</v>
+        <v>4.5252747252747243</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="8"/>
@@ -1491,7 +1508,7 @@
         <f t="shared" si="2"/>
         <v>0.66533599467731197</v>
       </c>
-      <c r="M17" s="23">
+      <c r="M17" s="20">
         <f t="shared" si="3"/>
         <v>4.5054945054945055</v>
       </c>
@@ -1506,15 +1523,15 @@
       </c>
       <c r="R17" s="9"/>
       <c r="T17" s="3">
-        <v>0.104</v>
+        <v>0.105</v>
       </c>
       <c r="U17" s="3">
         <f t="shared" si="4"/>
-        <v>3.0048076923076925</v>
-      </c>
-      <c r="V17" s="23">
+        <v>2.9761904761904758</v>
+      </c>
+      <c r="V17" s="20">
         <f t="shared" si="5"/>
-        <v>0.21904761904761891</v>
+        <v>0.23076923076923075</v>
       </c>
       <c r="W17" s="9"/>
     </row>
@@ -1526,15 +1543,15 @@
       <c r="D18" s="9"/>
       <c r="E18" s="8"/>
       <c r="F18" s="3">
-        <v>0.83599999999999997</v>
+        <v>0.83799999999999997</v>
       </c>
       <c r="G18" s="3">
         <f t="shared" si="0"/>
-        <v>0.66454013822434876</v>
-      </c>
-      <c r="H18" s="23">
+        <v>0.66295412357464867</v>
+      </c>
+      <c r="H18" s="20">
         <f t="shared" si="1"/>
-        <v>4.6191187453323375</v>
+        <v>4.6325616131441372</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="8"/>
@@ -1545,7 +1562,7 @@
         <f t="shared" si="2"/>
         <v>0.66533599467731197</v>
       </c>
-      <c r="M18" s="23">
+      <c r="M18" s="20">
         <f t="shared" si="3"/>
         <v>4.6123973114264381</v>
       </c>
@@ -1566,7 +1583,7 @@
         <f t="shared" si="4"/>
         <v>3.0048076923076925</v>
       </c>
-      <c r="V18" s="23">
+      <c r="V18" s="20">
         <f t="shared" si="5"/>
         <v>0.24271844660194178</v>
       </c>
@@ -1580,15 +1597,15 @@
       <c r="D19" s="9"/>
       <c r="E19" s="8"/>
       <c r="F19" s="19">
-        <v>0.83599999999999997</v>
+        <v>0.83899999999999997</v>
       </c>
       <c r="G19" s="3">
         <f t="shared" si="0"/>
-        <v>0.66454013822434876</v>
-      </c>
-      <c r="H19" s="23">
+        <v>0.6621639517944643</v>
+      </c>
+      <c r="H19" s="20">
         <f t="shared" si="1"/>
-        <v>1.9529042386185238</v>
+        <v>1.963500784929356</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="8"/>
@@ -1599,7 +1616,7 @@
         <f t="shared" si="2"/>
         <v>0.66533599467731197</v>
       </c>
-      <c r="M19" s="23">
+      <c r="M19" s="20">
         <f t="shared" si="3"/>
         <v>1.9493720565149135</v>
       </c>
@@ -1620,7 +1637,7 @@
         <f t="shared" si="4"/>
         <v>2.0032051282051282</v>
       </c>
-      <c r="V19" s="23">
+      <c r="V19" s="20">
         <f t="shared" si="5"/>
         <v>-2.0408163265306159E-2</v>
       </c>
@@ -1634,15 +1651,15 @@
       <c r="D20" s="9"/>
       <c r="E20" s="8"/>
       <c r="F20" s="3">
-        <v>0.83599999999999997</v>
+        <v>0.83799999999999997</v>
       </c>
       <c r="G20" s="3">
         <f t="shared" si="0"/>
-        <v>0.66454013822434876</v>
-      </c>
-      <c r="H20" s="23">
+        <v>0.66295412357464867</v>
+      </c>
+      <c r="H20" s="20">
         <f t="shared" si="1"/>
-        <v>1.9680473372781062</v>
+        <v>1.9751479289940825</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="8"/>
@@ -1653,7 +1670,7 @@
         <f t="shared" si="2"/>
         <v>0.66533599467731197</v>
       </c>
-      <c r="M20" s="23">
+      <c r="M20" s="20">
         <f t="shared" si="3"/>
         <v>1.9644970414201186</v>
       </c>
@@ -1674,7 +1691,7 @@
         <f t="shared" si="4"/>
         <v>2.0032051282051282</v>
       </c>
-      <c r="V20" s="23">
+      <c r="V20" s="20">
         <f t="shared" si="5"/>
         <v>-1.5384615384615332E-2</v>
       </c>
@@ -1688,28 +1705,28 @@
       <c r="D21" s="9"/>
       <c r="E21" s="8"/>
       <c r="F21" s="3">
-        <v>1.1140000000000001</v>
+        <v>1.1180000000000001</v>
       </c>
       <c r="G21" s="3">
         <f t="shared" si="0"/>
-        <v>0.49870337123478947</v>
-      </c>
-      <c r="H21" s="23">
+        <v>0.49691910157026425</v>
+      </c>
+      <c r="H21" s="20">
         <f t="shared" si="1"/>
-        <v>4.8872577803875519</v>
+        <v>4.9083969465648867</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="8"/>
       <c r="K21" s="3">
-        <v>0.66700000000000004</v>
+        <v>0.66800000000000004</v>
       </c>
       <c r="L21" s="3">
         <f t="shared" si="2"/>
-        <v>0.49975012493753113</v>
-      </c>
-      <c r="M21" s="23">
+        <v>0.49900199600798401</v>
+      </c>
+      <c r="M21" s="20">
         <f t="shared" si="3"/>
-        <v>4.8749266001174405</v>
+        <v>4.8837345860246621</v>
       </c>
       <c r="N21" s="9"/>
       <c r="O21" s="8"/>
@@ -1728,7 +1745,7 @@
         <f t="shared" si="4"/>
         <v>2.9761904761904758</v>
       </c>
-      <c r="V21" s="23">
+      <c r="V21" s="20">
         <f t="shared" si="5"/>
         <v>-1.3505578391074554E-2</v>
       </c>
@@ -1742,28 +1759,28 @@
       <c r="D22" s="9"/>
       <c r="E22" s="8"/>
       <c r="F22" s="3">
-        <v>1.1140000000000001</v>
+        <v>1.1180000000000001</v>
       </c>
       <c r="G22" s="3">
         <f t="shared" si="0"/>
-        <v>0.49870337123478947</v>
-      </c>
-      <c r="H22" s="23">
+        <v>0.49691910157026425</v>
+      </c>
+      <c r="H22" s="20">
         <f t="shared" si="1"/>
-        <v>4.8872577803875519</v>
+        <v>4.9083969465648867</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="8"/>
       <c r="K22" s="3">
-        <v>0.66700000000000004</v>
+        <v>0.66800000000000004</v>
       </c>
       <c r="L22" s="3">
         <f t="shared" si="2"/>
-        <v>0.49975012493753113</v>
-      </c>
-      <c r="M22" s="23">
+        <v>0.49900199600798401</v>
+      </c>
+      <c r="M22" s="20">
         <f t="shared" si="3"/>
-        <v>4.8749266001174405</v>
+        <v>4.8837345860246621</v>
       </c>
       <c r="N22" s="9"/>
       <c r="O22" s="8"/>
@@ -1776,15 +1793,15 @@
       </c>
       <c r="R22" s="9"/>
       <c r="T22" s="3">
-        <v>0.104</v>
+        <v>0.105</v>
       </c>
       <c r="U22" s="3">
         <f t="shared" si="4"/>
-        <v>3.0048076923076925</v>
-      </c>
-      <c r="V22" s="23">
+        <v>2.9761904761904758</v>
+      </c>
+      <c r="V22" s="20">
         <f t="shared" si="5"/>
-        <v>-2.2900763358778709E-2</v>
+        <v>-1.3505578391074554E-2</v>
       </c>
       <c r="W22" s="9"/>
     </row>
@@ -1796,28 +1813,28 @@
       <c r="D23" s="9"/>
       <c r="E23" s="8"/>
       <c r="F23" s="3">
-        <v>1.1140000000000001</v>
+        <v>1.1180000000000001</v>
       </c>
       <c r="G23" s="3">
         <f t="shared" si="0"/>
-        <v>0.49870337123478947</v>
-      </c>
-      <c r="H23" s="23">
+        <v>0.49691910157026425</v>
+      </c>
+      <c r="H23" s="20">
         <f t="shared" si="1"/>
-        <v>4.2824025289778724</v>
+        <v>4.3013698630136998</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="8"/>
       <c r="K23" s="3">
-        <v>0.66700000000000004</v>
+        <v>0.66800000000000004</v>
       </c>
       <c r="L23" s="3">
         <f t="shared" si="2"/>
-        <v>0.49975012493753113</v>
-      </c>
-      <c r="M23" s="23">
+        <v>0.49900199600798401</v>
+      </c>
+      <c r="M23" s="20">
         <f t="shared" si="3"/>
-        <v>4.2713382507903068</v>
+        <v>4.2792413066385668</v>
       </c>
       <c r="N23" s="9"/>
       <c r="O23" s="8"/>
@@ -1836,7 +1853,7 @@
         <f t="shared" si="4"/>
         <v>3.0048076923076925</v>
       </c>
-      <c r="V23" s="23">
+      <c r="V23" s="20">
         <f t="shared" si="5"/>
         <v>-0.12328767123287673</v>
       </c>
@@ -1850,28 +1867,28 @@
       <c r="D24" s="9"/>
       <c r="E24" s="8"/>
       <c r="F24" s="19">
-        <v>1.1140000000000001</v>
+        <v>1.1180000000000001</v>
       </c>
       <c r="G24" s="3">
         <f t="shared" si="0"/>
-        <v>0.49870337123478947</v>
-      </c>
-      <c r="H24" s="23">
+        <v>0.49691910157026425</v>
+      </c>
+      <c r="H24" s="20">
         <f t="shared" si="1"/>
-        <v>1.2683257918552038</v>
+        <v>1.2764705882352942</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="8"/>
       <c r="K24" s="19">
-        <v>0.66700000000000004</v>
+        <v>0.66800000000000004</v>
       </c>
       <c r="L24" s="3">
         <f t="shared" si="2"/>
-        <v>0.49975012493753113</v>
-      </c>
-      <c r="M24" s="23">
+        <v>0.49900199600798401</v>
+      </c>
+      <c r="M24" s="20">
         <f t="shared" si="3"/>
-        <v>1.2635746606334843</v>
+        <v>1.2669683257918549</v>
       </c>
       <c r="N24" s="9"/>
       <c r="O24" s="8"/>
@@ -1884,15 +1901,15 @@
       </c>
       <c r="R24" s="9"/>
       <c r="T24" s="19">
-        <v>0.157</v>
+        <v>0.156</v>
       </c>
       <c r="U24" s="3">
         <f t="shared" si="4"/>
-        <v>1.9904458598726111</v>
-      </c>
-      <c r="V24" s="23">
+        <v>2.0032051282051282</v>
+      </c>
+      <c r="V24" s="20">
         <f t="shared" si="5"/>
-        <v>-0.4316742081447964</v>
+        <v>-0.43529411764705889</v>
       </c>
       <c r="W24" s="9"/>
     </row>
@@ -1904,28 +1921,28 @@
       <c r="D25" s="9"/>
       <c r="E25" s="8"/>
       <c r="F25" s="3">
-        <v>1.1140000000000001</v>
+        <v>1.119</v>
       </c>
       <c r="G25" s="3">
         <f t="shared" si="0"/>
-        <v>0.49870337123478947</v>
-      </c>
-      <c r="H25" s="23">
+        <v>0.49647502730612647</v>
+      </c>
+      <c r="H25" s="20">
         <f t="shared" si="1"/>
-        <v>1.2750170183798504</v>
+        <v>1.2852280462899932</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="8"/>
       <c r="K25" s="3">
-        <v>0.66700000000000004</v>
+        <v>0.66800000000000004</v>
       </c>
       <c r="L25" s="3">
         <f t="shared" si="2"/>
-        <v>0.49975012493753113</v>
-      </c>
-      <c r="M25" s="23">
+        <v>0.49900199600798401</v>
+      </c>
+      <c r="M25" s="20">
         <f t="shared" si="3"/>
-        <v>1.2702518720217837</v>
+        <v>1.2736555479918308</v>
       </c>
       <c r="N25" s="9"/>
       <c r="O25" s="8"/>
@@ -1944,7 +1961,7 @@
         <f t="shared" si="4"/>
         <v>2.0032051282051282</v>
       </c>
-      <c r="V25" s="23">
+      <c r="V25" s="20">
         <f t="shared" si="5"/>
         <v>-0.4336283185840708</v>
       </c>
@@ -1953,266 +1970,602 @@
     <row r="26" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B26" s="8"/>
       <c r="C26" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="D26" s="9"/>
       <c r="E26" s="8"/>
       <c r="F26" s="3">
-        <v>0.97499999999999998</v>
+        <v>0.746</v>
       </c>
       <c r="G26" s="3">
         <f t="shared" si="0"/>
-        <v>0.56980056980056981</v>
-      </c>
-      <c r="H26" s="23">
+        <v>0.74471254095918971</v>
+      </c>
+      <c r="H26" s="20">
         <f t="shared" si="1"/>
-        <v>4.4878048780487791</v>
+        <v>1.3056318681318679</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="8"/>
       <c r="K26" s="3">
-        <v>0.58399999999999996</v>
+        <v>0.44500000000000001</v>
       </c>
       <c r="L26" s="3">
-        <f t="shared" si="2"/>
-        <v>0.57077625570776258</v>
-      </c>
-      <c r="M26" s="23">
-        <f t="shared" si="3"/>
-        <v>4.4784240150093799</v>
+        <f t="shared" ref="L26:L32" si="7">1/($K$3*K26)</f>
+        <v>0.74906367041198507</v>
+      </c>
+      <c r="M26" s="20">
+        <f t="shared" ref="M26:M32" si="8">(K26*$K$3 - $P26*$P$3)/($P26*$P$3)</f>
+        <v>1.2922390109890107</v>
       </c>
       <c r="N26" s="9"/>
       <c r="O26" s="8"/>
       <c r="P26" s="3">
-        <v>0.123</v>
+        <v>0.224</v>
       </c>
       <c r="Q26" s="3">
         <f t="shared" si="6"/>
-        <v>3.1269543464665412</v>
+        <v>1.7170329670329669</v>
       </c>
       <c r="R26" s="9"/>
       <c r="T26" s="3">
         <v>0.105</v>
       </c>
       <c r="U26" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="U26:U36" si="9">1/($T$3*T26)</f>
         <v>2.9761904761904758</v>
       </c>
-      <c r="V26" s="23">
-        <f t="shared" si="5"/>
-        <v>5.0656660412757945E-2</v>
+      <c r="V26" s="20">
+        <f t="shared" ref="V26:V36" si="10">(T26*$T$3 - $P26*$P$3)/($P26*$P$3)</f>
+        <v>-0.42307692307692307</v>
       </c>
       <c r="W26" s="9"/>
     </row>
     <row r="27" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B27" s="8"/>
       <c r="C27" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="D27" s="9"/>
       <c r="E27" s="8"/>
+      <c r="F27" s="3">
+        <v>0.745</v>
+      </c>
+      <c r="G27" s="3">
+        <f t="shared" si="0"/>
+        <v>0.74571215510812827</v>
+      </c>
+      <c r="H27" s="20">
+        <f t="shared" si="1"/>
+        <v>1.4560439560439558</v>
+      </c>
       <c r="I27" s="9"/>
       <c r="J27" s="8"/>
+      <c r="K27" s="3">
+        <v>0.44500000000000001</v>
+      </c>
+      <c r="L27" s="3">
+        <f t="shared" si="7"/>
+        <v>0.74906367041198507</v>
+      </c>
+      <c r="M27" s="20">
+        <f t="shared" si="8"/>
+        <v>1.4450549450549448</v>
+      </c>
       <c r="N27" s="9"/>
       <c r="O27" s="8"/>
       <c r="P27" s="3">
-        <v>0.38500000000000001</v>
+        <v>0.21</v>
       </c>
       <c r="Q27" s="3">
         <f t="shared" si="6"/>
-        <v>0.99900099900099892</v>
+        <v>1.8315018315018314</v>
       </c>
       <c r="R27" s="9"/>
       <c r="T27" s="3">
-        <v>0.313</v>
+        <v>0.105</v>
       </c>
       <c r="U27" s="3">
-        <f t="shared" si="4"/>
-        <v>0.99840255591054305</v>
-      </c>
-      <c r="V27" s="23">
-        <f t="shared" si="5"/>
-        <v>5.9940059940053337E-4</v>
+        <f t="shared" si="9"/>
+        <v>2.9761904761904758</v>
+      </c>
+      <c r="V27" s="20">
+        <f t="shared" si="10"/>
+        <v>-0.38461538461538464</v>
       </c>
       <c r="W27" s="9"/>
     </row>
     <row r="28" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B28" s="8"/>
       <c r="C28" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="D28" s="9"/>
       <c r="E28" s="8"/>
+      <c r="F28" s="3">
+        <v>0.745</v>
+      </c>
+      <c r="G28" s="3">
+        <f t="shared" si="0"/>
+        <v>0.74571215510812827</v>
+      </c>
+      <c r="H28" s="20">
+        <f t="shared" si="1"/>
+        <v>2.5817307692307687</v>
+      </c>
       <c r="I28" s="9"/>
       <c r="J28" s="8"/>
+      <c r="K28" s="3">
+        <v>0.44500000000000001</v>
+      </c>
+      <c r="L28" s="3">
+        <f t="shared" si="7"/>
+        <v>0.74906367041198507</v>
+      </c>
+      <c r="M28" s="20">
+        <f t="shared" si="8"/>
+        <v>2.5657051282051277</v>
+      </c>
       <c r="N28" s="9"/>
       <c r="O28" s="8"/>
       <c r="P28" s="3">
-        <v>0.38500000000000001</v>
+        <v>0.14399999999999999</v>
       </c>
       <c r="Q28" s="3">
         <f t="shared" si="6"/>
-        <v>0.99900099900099892</v>
+        <v>2.6709401709401708</v>
       </c>
       <c r="R28" s="9"/>
       <c r="T28" s="3">
-        <v>0.313</v>
+        <v>0.11700000000000001</v>
       </c>
       <c r="U28" s="3">
-        <f t="shared" si="4"/>
-        <v>0.99840255591054305</v>
-      </c>
-      <c r="V28" s="23">
-        <f t="shared" si="5"/>
-        <v>5.9940059940053337E-4</v>
+        <f t="shared" si="9"/>
+        <v>2.6709401709401703</v>
+      </c>
+      <c r="V28" s="20">
+        <f t="shared" si="10"/>
+        <v>1.4826696375870145E-16</v>
       </c>
       <c r="W28" s="9"/>
     </row>
     <row r="29" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B29" s="8"/>
       <c r="C29" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="D29" s="9"/>
       <c r="E29" s="8"/>
+      <c r="F29" s="3">
+        <v>0.745</v>
+      </c>
+      <c r="G29" s="3">
+        <f t="shared" si="0"/>
+        <v>0.74571215510812827</v>
+      </c>
+      <c r="H29" s="20">
+        <f t="shared" si="1"/>
+        <v>0.4287236309396974</v>
+      </c>
       <c r="I29" s="9"/>
       <c r="J29" s="8"/>
+      <c r="K29" s="3">
+        <v>0.44500000000000001</v>
+      </c>
+      <c r="L29" s="3">
+        <f t="shared" si="7"/>
+        <v>0.74906367041198507</v>
+      </c>
+      <c r="M29" s="20">
+        <f t="shared" si="8"/>
+        <v>0.4223311314724057</v>
+      </c>
       <c r="N29" s="9"/>
       <c r="O29" s="8"/>
       <c r="P29" s="3">
-        <v>0.38500000000000001</v>
+        <v>0.36099999999999999</v>
       </c>
       <c r="Q29" s="3">
         <f t="shared" si="6"/>
-        <v>0.99900099900099892</v>
+        <v>1.0654165778819518</v>
       </c>
       <c r="R29" s="9"/>
       <c r="T29" s="3">
-        <v>0.313</v>
+        <v>0.21</v>
       </c>
       <c r="U29" s="3">
-        <f t="shared" si="4"/>
-        <v>0.99840255591054305</v>
-      </c>
-      <c r="V29" s="23">
-        <f t="shared" si="5"/>
-        <v>5.9940059940053337E-4</v>
+        <f t="shared" si="9"/>
+        <v>1.4880952380952379</v>
+      </c>
+      <c r="V29" s="20">
+        <f t="shared" si="10"/>
+        <v>-0.28404005966332829</v>
       </c>
       <c r="W29" s="9"/>
     </row>
     <row r="30" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B30" s="8"/>
       <c r="C30" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="D30" s="9"/>
       <c r="E30" s="8"/>
+      <c r="F30" s="3">
+        <v>0.745</v>
+      </c>
+      <c r="G30" s="3">
+        <f t="shared" si="0"/>
+        <v>0.74571215510812827</v>
+      </c>
+      <c r="H30" s="20">
+        <f t="shared" si="1"/>
+        <v>3.5643294758339001</v>
+      </c>
       <c r="I30" s="9"/>
       <c r="J30" s="8"/>
+      <c r="K30" s="3">
+        <v>0.44500000000000001</v>
+      </c>
+      <c r="L30" s="3">
+        <f t="shared" si="7"/>
+        <v>0.74906367041198507</v>
+      </c>
+      <c r="M30" s="20">
+        <f t="shared" si="8"/>
+        <v>3.5439074200136145</v>
+      </c>
       <c r="N30" s="9"/>
       <c r="O30" s="8"/>
       <c r="P30" s="3">
-        <v>0.38500000000000001</v>
+        <v>0.113</v>
       </c>
       <c r="Q30" s="3">
         <f t="shared" si="6"/>
-        <v>0.99900099900099892</v>
+        <v>3.4036759700476513</v>
       </c>
       <c r="R30" s="9"/>
       <c r="T30" s="3">
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="U30" s="3">
+        <f t="shared" si="9"/>
+        <v>3.1887755102040813</v>
+      </c>
+      <c r="V30" s="20">
+        <f t="shared" si="10"/>
+        <v>6.739278420694364E-2</v>
+      </c>
+      <c r="W30" s="9"/>
+    </row>
+    <row r="31" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B31" s="8"/>
+      <c r="C31" t="s">
+        <v>43</v>
+      </c>
+      <c r="D31" s="9"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="3">
+        <v>0.745</v>
+      </c>
+      <c r="G31" s="3">
+        <f t="shared" si="0"/>
+        <v>0.74571215510812827</v>
+      </c>
+      <c r="H31" s="20">
+        <f t="shared" si="1"/>
+        <v>0.53047249486418602</v>
+      </c>
+      <c r="I31" s="9"/>
+      <c r="J31" s="8"/>
+      <c r="K31" s="3">
+        <v>0.44500000000000001</v>
+      </c>
+      <c r="L31" s="3">
+        <f t="shared" si="7"/>
+        <v>0.74906367041198507</v>
+      </c>
+      <c r="M31" s="20">
+        <f t="shared" si="8"/>
+        <v>0.52362474320931274</v>
+      </c>
+      <c r="N31" s="9"/>
+      <c r="O31" s="8"/>
+      <c r="P31" s="3">
+        <v>0.33700000000000002</v>
+      </c>
+      <c r="Q31" s="3">
+        <f t="shared" si="6"/>
+        <v>1.1412919424788859</v>
+      </c>
+      <c r="R31" s="9"/>
+      <c r="T31" s="3">
+        <v>0.21</v>
+      </c>
+      <c r="U31" s="3">
+        <f t="shared" si="9"/>
+        <v>1.4880952380952379</v>
+      </c>
+      <c r="V31" s="20">
+        <f t="shared" si="10"/>
+        <v>-0.23305181465418856</v>
+      </c>
+      <c r="W31" s="9"/>
+    </row>
+    <row r="32" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B32" s="8"/>
+      <c r="C32" t="s">
+        <v>15</v>
+      </c>
+      <c r="D32" s="9"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="3">
+        <v>0.97799999999999998</v>
+      </c>
+      <c r="G32" s="3">
+        <f t="shared" si="0"/>
+        <v>0.56805271529197909</v>
+      </c>
+      <c r="H32" s="20">
+        <f t="shared" si="1"/>
+        <v>4.5046904315196992</v>
+      </c>
+      <c r="I32" s="9"/>
+      <c r="J32" s="8"/>
+      <c r="K32" s="3">
+        <v>0.58399999999999996</v>
+      </c>
+      <c r="L32" s="3">
+        <f t="shared" si="7"/>
+        <v>0.57077625570776258</v>
+      </c>
+      <c r="M32" s="20">
+        <f t="shared" si="8"/>
+        <v>4.4784240150093799</v>
+      </c>
+      <c r="N32" s="9"/>
+      <c r="O32" s="8"/>
+      <c r="P32" s="3">
+        <v>0.123</v>
+      </c>
+      <c r="Q32" s="3">
+        <f t="shared" si="6"/>
+        <v>3.1269543464665412</v>
+      </c>
+      <c r="R32" s="9"/>
+      <c r="T32" s="3">
+        <v>0.104</v>
+      </c>
+      <c r="U32" s="3">
+        <f t="shared" si="9"/>
+        <v>3.0048076923076925</v>
+      </c>
+      <c r="V32" s="20">
+        <f t="shared" si="10"/>
+        <v>4.0650406504064901E-2</v>
+      </c>
+      <c r="W32" s="9"/>
+    </row>
+    <row r="33" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B33" s="8"/>
+      <c r="C33" t="s">
+        <v>16</v>
+      </c>
+      <c r="D33" s="9"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="20"/>
+      <c r="I33" s="9"/>
+      <c r="J33" s="8"/>
+      <c r="K33" s="3"/>
+      <c r="L33" s="3"/>
+      <c r="M33" s="20"/>
+      <c r="N33" s="9"/>
+      <c r="O33" s="8"/>
+      <c r="P33" s="3">
+        <v>0.38500000000000001</v>
+      </c>
+      <c r="Q33" s="3">
+        <f t="shared" si="6"/>
+        <v>0.99900099900099892</v>
+      </c>
+      <c r="R33" s="9"/>
+      <c r="T33" s="3">
         <v>0.313</v>
       </c>
-      <c r="U30" s="3">
-        <f t="shared" si="4"/>
+      <c r="U33" s="3">
+        <f t="shared" si="9"/>
         <v>0.99840255591054305</v>
       </c>
-      <c r="V30" s="23">
-        <f t="shared" si="5"/>
+      <c r="V33" s="20">
+        <f t="shared" si="10"/>
         <v>5.9940059940053337E-4</v>
       </c>
-      <c r="W30" s="9"/>
-    </row>
-    <row r="31" spans="2:23" ht="3.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="10"/>
-      <c r="C31" s="11"/>
-      <c r="D31" s="13"/>
-      <c r="E31" s="10"/>
-      <c r="F31" s="12"/>
-      <c r="G31" s="12"/>
-      <c r="H31" s="12"/>
-      <c r="I31" s="13"/>
-      <c r="J31" s="10"/>
-      <c r="K31" s="12"/>
-      <c r="L31" s="12"/>
-      <c r="M31" s="12"/>
-      <c r="N31" s="13"/>
-      <c r="O31" s="10"/>
-      <c r="P31" s="12"/>
-      <c r="Q31" s="12"/>
-      <c r="R31" s="13"/>
-      <c r="S31" s="12"/>
-      <c r="T31" s="12"/>
-      <c r="U31" s="12"/>
-      <c r="V31" s="12"/>
-      <c r="W31" s="13"/>
-    </row>
-    <row r="33" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C33" s="1" t="s">
+      <c r="W33" s="9"/>
+    </row>
+    <row r="34" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B34" s="8"/>
+      <c r="C34" t="s">
+        <v>17</v>
+      </c>
+      <c r="D34" s="9"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="3"/>
+      <c r="I34" s="9"/>
+      <c r="J34" s="8"/>
+      <c r="K34" s="3"/>
+      <c r="N34" s="9"/>
+      <c r="O34" s="8"/>
+      <c r="P34" s="3">
+        <v>0.38500000000000001</v>
+      </c>
+      <c r="Q34" s="3">
+        <f t="shared" si="6"/>
+        <v>0.99900099900099892</v>
+      </c>
+      <c r="R34" s="9"/>
+      <c r="T34" s="3">
+        <v>0.313</v>
+      </c>
+      <c r="U34" s="3">
+        <f t="shared" si="9"/>
+        <v>0.99840255591054305</v>
+      </c>
+      <c r="V34" s="20">
+        <f t="shared" si="10"/>
+        <v>5.9940059940053337E-4</v>
+      </c>
+      <c r="W34" s="9"/>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B35" s="8"/>
+      <c r="C35" t="s">
+        <v>32</v>
+      </c>
+      <c r="D35" s="9"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="3"/>
+      <c r="I35" s="9"/>
+      <c r="J35" s="8"/>
+      <c r="K35" s="3"/>
+      <c r="N35" s="9"/>
+      <c r="O35" s="8"/>
+      <c r="P35" s="3">
+        <v>0.38500000000000001</v>
+      </c>
+      <c r="Q35" s="3">
+        <f t="shared" si="6"/>
+        <v>0.99900099900099892</v>
+      </c>
+      <c r="R35" s="9"/>
+      <c r="T35" s="3">
+        <v>0.313</v>
+      </c>
+      <c r="U35" s="3">
+        <f t="shared" si="9"/>
+        <v>0.99840255591054305</v>
+      </c>
+      <c r="V35" s="20">
+        <f t="shared" si="10"/>
+        <v>5.9940059940053337E-4</v>
+      </c>
+      <c r="W35" s="9"/>
+    </row>
+    <row r="36" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B36" s="8"/>
+      <c r="C36" t="s">
+        <v>18</v>
+      </c>
+      <c r="D36" s="9"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="3"/>
+      <c r="I36" s="9"/>
+      <c r="J36" s="8"/>
+      <c r="K36" s="3"/>
+      <c r="N36" s="9"/>
+      <c r="O36" s="8"/>
+      <c r="P36" s="3">
+        <v>0.38500000000000001</v>
+      </c>
+      <c r="Q36" s="3">
+        <f t="shared" si="6"/>
+        <v>0.99900099900099892</v>
+      </c>
+      <c r="R36" s="9"/>
+      <c r="T36" s="3">
+        <v>0.314</v>
+      </c>
+      <c r="U36" s="3">
+        <f t="shared" si="9"/>
+        <v>0.99522292993630557</v>
+      </c>
+      <c r="V36" s="20">
+        <f t="shared" si="10"/>
+        <v>3.7962037962038214E-3</v>
+      </c>
+      <c r="W36" s="9"/>
+    </row>
+    <row r="37" spans="2:23" ht="3.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="10"/>
+      <c r="C37" s="11"/>
+      <c r="D37" s="13"/>
+      <c r="E37" s="10"/>
+      <c r="F37" s="12"/>
+      <c r="G37" s="12"/>
+      <c r="H37" s="12"/>
+      <c r="I37" s="13"/>
+      <c r="J37" s="10"/>
+      <c r="K37" s="12"/>
+      <c r="L37" s="12"/>
+      <c r="M37" s="12"/>
+      <c r="N37" s="13"/>
+      <c r="O37" s="10"/>
+      <c r="P37" s="12"/>
+      <c r="Q37" s="12"/>
+      <c r="R37" s="13"/>
+      <c r="S37" s="12"/>
+      <c r="T37" s="12"/>
+      <c r="U37" s="12"/>
+      <c r="V37" s="12"/>
+      <c r="W37" s="13"/>
+    </row>
+    <row r="39" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="C39" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F33" s="24">
+      <c r="F39" s="24">
         <f>(F12-F11)/F11</f>
         <v>0.33333333333333343</v>
       </c>
-      <c r="K33" s="24">
+      <c r="K39" s="24">
         <f>(K12-K11)/K11</f>
-        <v>0.3336663336663338</v>
-      </c>
-      <c r="P33" s="24">
+        <v>0.33333333333333343</v>
+      </c>
+      <c r="P39" s="24">
         <f>(P12-P11)/P11</f>
         <v>0</v>
       </c>
-      <c r="T33" s="24">
+      <c r="T39" s="24">
         <f>(T12-T11)/T11</f>
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C34" s="1" t="s">
+    <row r="40" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="C40" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F34" s="24">
+      <c r="F40" s="24">
         <f>(F24-F19)/F19</f>
-        <v>0.3325358851674643</v>
-      </c>
-      <c r="K34" s="24">
+        <v>0.33253873659118016</v>
+      </c>
+      <c r="K40" s="24">
         <f>(K24-K19)/K19</f>
-        <v>0.33133732534930149</v>
-      </c>
-      <c r="P34" s="24">
+        <v>0.33333333333333343</v>
+      </c>
+      <c r="P40" s="24">
         <f>(P24-P19)/P19</f>
         <v>0.73469387755102045</v>
       </c>
-      <c r="T34" s="24">
+      <c r="T40" s="24">
         <f>(T24-T19)/T19</f>
-        <v>6.4102564102564161E-3</v>
-      </c>
-    </row>
-    <row r="36" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C36" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="C42" s="1" t="s">
         <v>37</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="T2:V2"/>
+    <mergeCell ref="T3:V3"/>
     <mergeCell ref="P2:Q2"/>
     <mergeCell ref="P3:Q3"/>
     <mergeCell ref="F2:H2"/>
     <mergeCell ref="F3:H3"/>
     <mergeCell ref="K2:M2"/>
     <mergeCell ref="K3:M3"/>
-    <mergeCell ref="T2:V2"/>
-    <mergeCell ref="T3:V3"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="94" orientation="landscape" r:id="rId1"/>
@@ -2220,1178 +2573,4 @@
     <oddHeader>&amp;A</oddHeader>
   </headerFooter>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA51FF9E-BC97-478D-A594-1BA474941EFA}">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="B1:T31"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="2" width="1.140625" customWidth="1"/>
-    <col min="3" max="3" width="29.85546875" style="1" customWidth="1"/>
-    <col min="4" max="5" width="1.140625" customWidth="1"/>
-    <col min="6" max="7" width="8.7109375" customWidth="1"/>
-    <col min="8" max="9" width="1.140625" customWidth="1"/>
-    <col min="10" max="11" width="8.7109375" customWidth="1"/>
-    <col min="12" max="13" width="1.140625" customWidth="1"/>
-    <col min="14" max="15" width="8.7109375" customWidth="1"/>
-    <col min="16" max="17" width="1.140625" customWidth="1"/>
-    <col min="18" max="19" width="8.7109375" customWidth="1"/>
-    <col min="20" max="20" width="1.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:20" ht="3.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B2" s="4"/>
-      <c r="C2" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" s="7"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="G2" s="20"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="K2" s="20"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="O2" s="20"/>
-      <c r="P2" s="7"/>
-      <c r="Q2" s="6"/>
-      <c r="R2" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="S2" s="20"/>
-      <c r="T2" s="7"/>
-    </row>
-    <row r="3" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B3" s="8"/>
-      <c r="C3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" s="9"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="21">
-        <v>1.8</v>
-      </c>
-      <c r="G3" s="21"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="21">
-        <v>3</v>
-      </c>
-      <c r="K3" s="21"/>
-      <c r="L3" s="9"/>
-      <c r="M3" s="8"/>
-      <c r="N3" s="21">
-        <v>2.6</v>
-      </c>
-      <c r="O3" s="21"/>
-      <c r="P3" s="9"/>
-      <c r="R3" s="21">
-        <v>3.2</v>
-      </c>
-      <c r="S3" s="21"/>
-      <c r="T3" s="9"/>
-    </row>
-    <row r="4" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B4" s="14"/>
-      <c r="C4" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="D4" s="16"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="G4" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="H4" s="16"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="K4" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="L4" s="16"/>
-      <c r="M4" s="14"/>
-      <c r="N4" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="O4" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="P4" s="16"/>
-      <c r="Q4" s="18"/>
-      <c r="R4" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="S4" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="T4" s="16"/>
-    </row>
-    <row r="5" spans="2:20" ht="3.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="8"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="8"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="8"/>
-      <c r="L5" s="9"/>
-      <c r="M5" s="8"/>
-      <c r="P5" s="9"/>
-      <c r="T5" s="9"/>
-    </row>
-    <row r="6" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B6" s="8"/>
-      <c r="C6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" s="9"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="3">
-        <v>0.52200000000000002</v>
-      </c>
-      <c r="G6" s="3">
-        <f>1/($F$3*F6)</f>
-        <v>1.0642826734780757</v>
-      </c>
-      <c r="H6" s="9"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="3">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="K6" s="3">
-        <f>1/($J$3*J6)</f>
-        <v>4.7619047619047619</v>
-      </c>
-      <c r="L6" s="9"/>
-      <c r="M6" s="8"/>
-      <c r="N6" s="3">
-        <v>2.4E-2</v>
-      </c>
-      <c r="O6" s="3">
-        <f>1/($N$3*N6)</f>
-        <v>16.025641025641026</v>
-      </c>
-      <c r="P6" s="9"/>
-      <c r="R6" s="3">
-        <v>3.3000000000000002E-2</v>
-      </c>
-      <c r="S6" s="3">
-        <f>1/($R$3*R6)</f>
-        <v>9.4696969696969688</v>
-      </c>
-      <c r="T6" s="9"/>
-    </row>
-    <row r="7" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B7" s="8"/>
-      <c r="C7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" s="9"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="3">
-        <v>0.26100000000000001</v>
-      </c>
-      <c r="G7" s="3">
-        <f t="shared" ref="G7:G26" si="0">1/($F$3*F7)</f>
-        <v>2.1285653469561514</v>
-      </c>
-      <c r="H7" s="9"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="3">
-        <v>9.4E-2</v>
-      </c>
-      <c r="K7" s="3">
-        <f t="shared" ref="K7:K26" si="1">1/($J$3*J7)</f>
-        <v>3.5460992907801416</v>
-      </c>
-      <c r="L7" s="9"/>
-      <c r="M7" s="8"/>
-      <c r="N7" s="3">
-        <v>8.6999999999999994E-2</v>
-      </c>
-      <c r="O7" s="3">
-        <f>1/($N$3*N7)</f>
-        <v>4.4208664898320071</v>
-      </c>
-      <c r="P7" s="9"/>
-      <c r="R7" s="3">
-        <v>0.06</v>
-      </c>
-      <c r="S7" s="3">
-        <f t="shared" ref="S7:S30" si="2">1/($R$3*R7)</f>
-        <v>5.208333333333333</v>
-      </c>
-      <c r="T7" s="9"/>
-    </row>
-    <row r="8" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B8" s="8"/>
-      <c r="C8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="9"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="3">
-        <v>0.26100000000000001</v>
-      </c>
-      <c r="G8" s="3">
-        <f t="shared" si="0"/>
-        <v>2.1285653469561514</v>
-      </c>
-      <c r="H8" s="9"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="3">
-        <v>9.4E-2</v>
-      </c>
-      <c r="K8" s="3">
-        <f t="shared" si="1"/>
-        <v>3.5460992907801416</v>
-      </c>
-      <c r="L8" s="9"/>
-      <c r="M8" s="8"/>
-      <c r="N8" s="3">
-        <v>8.6999999999999994E-2</v>
-      </c>
-      <c r="O8" s="3">
-        <f t="shared" ref="O8:O30" si="3">1/($N$3*N8)</f>
-        <v>4.4208664898320071</v>
-      </c>
-      <c r="P8" s="9"/>
-      <c r="R8" s="3">
-        <v>9.8000000000000004E-2</v>
-      </c>
-      <c r="S8" s="3">
-        <f t="shared" si="2"/>
-        <v>3.1887755102040813</v>
-      </c>
-      <c r="T8" s="9"/>
-    </row>
-    <row r="9" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B9" s="8"/>
-      <c r="C9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" s="9"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="3">
-        <v>0.27900000000000003</v>
-      </c>
-      <c r="G9" s="3">
-        <f t="shared" si="0"/>
-        <v>1.991238550378335</v>
-      </c>
-      <c r="H9" s="9"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="3">
-        <v>9.9000000000000005E-2</v>
-      </c>
-      <c r="K9" s="3">
-        <f t="shared" si="1"/>
-        <v>3.3670033670033663</v>
-      </c>
-      <c r="L9" s="9"/>
-      <c r="M9" s="8"/>
-      <c r="N9" s="3">
-        <v>0.11899999999999999</v>
-      </c>
-      <c r="O9" s="3">
-        <f t="shared" si="3"/>
-        <v>3.2320620555914674</v>
-      </c>
-      <c r="P9" s="9"/>
-      <c r="R9" s="3">
-        <v>9.8000000000000004E-2</v>
-      </c>
-      <c r="S9" s="3">
-        <f t="shared" si="2"/>
-        <v>3.1887755102040813</v>
-      </c>
-      <c r="T9" s="9"/>
-    </row>
-    <row r="10" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B10" s="8"/>
-      <c r="C10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" s="9"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="3">
-        <v>0.52200000000000002</v>
-      </c>
-      <c r="G10" s="3">
-        <f t="shared" si="0"/>
-        <v>1.0642826734780757</v>
-      </c>
-      <c r="H10" s="9"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="3">
-        <v>0.313</v>
-      </c>
-      <c r="K10" s="3">
-        <f t="shared" si="1"/>
-        <v>1.0649627263045793</v>
-      </c>
-      <c r="L10" s="9"/>
-      <c r="M10" s="8"/>
-      <c r="N10" s="3">
-        <v>0.376</v>
-      </c>
-      <c r="O10" s="3">
-        <f t="shared" si="3"/>
-        <v>1.0229132569558101</v>
-      </c>
-      <c r="P10" s="9"/>
-      <c r="R10" s="3">
-        <v>0.30299999999999999</v>
-      </c>
-      <c r="S10" s="3">
-        <f t="shared" si="2"/>
-        <v>1.0313531353135312</v>
-      </c>
-      <c r="T10" s="9"/>
-    </row>
-    <row r="11" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B11" s="8"/>
-      <c r="C11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" s="9"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="3">
-        <v>1.6359999999999999</v>
-      </c>
-      <c r="G11" s="3">
-        <f t="shared" si="0"/>
-        <v>0.33958163542515624</v>
-      </c>
-      <c r="H11" s="9"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="3">
-        <v>0.98</v>
-      </c>
-      <c r="K11" s="3">
-        <f t="shared" si="1"/>
-        <v>0.3401360544217687</v>
-      </c>
-      <c r="L11" s="9"/>
-      <c r="M11" s="8"/>
-      <c r="N11" s="3">
-        <v>0.18</v>
-      </c>
-      <c r="O11" s="3">
-        <f t="shared" si="3"/>
-        <v>2.1367521367521367</v>
-      </c>
-      <c r="P11" s="9"/>
-      <c r="R11" s="3">
-        <v>0.14699999999999999</v>
-      </c>
-      <c r="S11" s="3">
-        <f t="shared" si="2"/>
-        <v>2.1258503401360547</v>
-      </c>
-      <c r="T11" s="9"/>
-    </row>
-    <row r="12" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B12" s="8"/>
-      <c r="C12" t="s">
-        <v>10</v>
-      </c>
-      <c r="D12" s="9"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="3">
-        <v>2.194</v>
-      </c>
-      <c r="G12" s="3">
-        <f t="shared" si="0"/>
-        <v>0.25321584118302443</v>
-      </c>
-      <c r="H12" s="9"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="3">
-        <v>1.3140000000000001</v>
-      </c>
-      <c r="K12" s="3">
-        <f t="shared" si="1"/>
-        <v>0.25367833587011668</v>
-      </c>
-      <c r="L12" s="9"/>
-      <c r="M12" s="8"/>
-      <c r="N12" s="3">
-        <v>0.18099999999999999</v>
-      </c>
-      <c r="O12" s="3">
-        <f t="shared" si="3"/>
-        <v>2.1249468763280919</v>
-      </c>
-      <c r="P12" s="9"/>
-      <c r="R12" s="3">
-        <v>0.14599999999999999</v>
-      </c>
-      <c r="S12" s="3">
-        <f t="shared" si="2"/>
-        <v>2.1404109589041096</v>
-      </c>
-      <c r="T12" s="9"/>
-    </row>
-    <row r="13" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B13" s="8"/>
-      <c r="C13" t="s">
-        <v>23</v>
-      </c>
-      <c r="D13" s="9"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="3">
-        <v>5.5359999999999996</v>
-      </c>
-      <c r="G13" s="3">
-        <f t="shared" si="0"/>
-        <v>0.10035324341682723</v>
-      </c>
-      <c r="H13" s="9"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="3">
-        <v>2.9820000000000002</v>
-      </c>
-      <c r="K13" s="3">
-        <f t="shared" si="1"/>
-        <v>0.11178180192264697</v>
-      </c>
-      <c r="L13" s="9"/>
-      <c r="M13" s="8"/>
-      <c r="N13" s="3">
-        <v>3.839</v>
-      </c>
-      <c r="O13" s="3">
-        <f t="shared" si="3"/>
-        <v>0.1001863466046847</v>
-      </c>
-      <c r="P13" s="9"/>
-      <c r="R13" s="3">
-        <v>0.61599999999999999</v>
-      </c>
-      <c r="S13" s="3">
-        <f t="shared" si="2"/>
-        <v>0.50730519480519476</v>
-      </c>
-      <c r="T13" s="9"/>
-    </row>
-    <row r="14" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B14" s="8"/>
-      <c r="C14" t="s">
-        <v>11</v>
-      </c>
-      <c r="D14" s="9"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="3">
-        <v>1.915</v>
-      </c>
-      <c r="G14" s="3">
-        <f t="shared" si="0"/>
-        <v>0.2901073397156948</v>
-      </c>
-      <c r="H14" s="9"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="3">
-        <v>1.147</v>
-      </c>
-      <c r="K14" s="3">
-        <f t="shared" si="1"/>
-        <v>0.29061319383900031</v>
-      </c>
-      <c r="L14" s="9"/>
-      <c r="M14" s="8"/>
-      <c r="N14" s="3">
-        <v>0.18099999999999999</v>
-      </c>
-      <c r="O14" s="3">
-        <f t="shared" si="3"/>
-        <v>2.1249468763280919</v>
-      </c>
-      <c r="P14" s="9"/>
-      <c r="R14" s="3">
-        <v>0.14699999999999999</v>
-      </c>
-      <c r="S14" s="3">
-        <f t="shared" si="2"/>
-        <v>2.1258503401360547</v>
-      </c>
-      <c r="T14" s="9"/>
-    </row>
-    <row r="15" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B15" s="8"/>
-      <c r="C15" t="s">
-        <v>12</v>
-      </c>
-      <c r="D15" s="9"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="3">
-        <v>0.94</v>
-      </c>
-      <c r="G15" s="3">
-        <f t="shared" si="0"/>
-        <v>0.59101654846335694</v>
-      </c>
-      <c r="H15" s="9"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="3">
-        <v>0.56299999999999994</v>
-      </c>
-      <c r="K15" s="3">
-        <f t="shared" si="1"/>
-        <v>0.59206631142687982</v>
-      </c>
-      <c r="L15" s="9"/>
-      <c r="M15" s="8"/>
-      <c r="N15" s="3">
-        <v>0.28199999999999997</v>
-      </c>
-      <c r="O15" s="3">
-        <f t="shared" si="3"/>
-        <v>1.3638843426077469</v>
-      </c>
-      <c r="P15" s="9"/>
-      <c r="R15" s="3">
-        <v>0.14699999999999999</v>
-      </c>
-      <c r="S15" s="3">
-        <f t="shared" si="2"/>
-        <v>2.1258503401360547</v>
-      </c>
-      <c r="T15" s="9"/>
-    </row>
-    <row r="16" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B16" s="8"/>
-      <c r="C16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" s="9"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="3">
-        <v>0.80100000000000005</v>
-      </c>
-      <c r="G16" s="3">
-        <f t="shared" si="0"/>
-        <v>0.69357747260368974</v>
-      </c>
-      <c r="H16" s="9"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="3">
-        <v>0.48</v>
-      </c>
-      <c r="K16" s="3">
-        <f t="shared" si="1"/>
-        <v>0.69444444444444442</v>
-      </c>
-      <c r="L16" s="9"/>
-      <c r="M16" s="8"/>
-      <c r="N16" s="3">
-        <v>9.2999999999999999E-2</v>
-      </c>
-      <c r="O16" s="3">
-        <f t="shared" si="3"/>
-        <v>4.1356492969396195</v>
-      </c>
-      <c r="P16" s="9"/>
-      <c r="R16" s="3">
-        <v>9.5000000000000001E-2</v>
-      </c>
-      <c r="S16" s="3">
-        <f t="shared" si="2"/>
-        <v>3.2894736842105257</v>
-      </c>
-      <c r="T16" s="9"/>
-    </row>
-    <row r="17" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B17" s="8"/>
-      <c r="C17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" s="9"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="3">
-        <v>0.80100000000000005</v>
-      </c>
-      <c r="G17" s="3">
-        <f t="shared" si="0"/>
-        <v>0.69357747260368974</v>
-      </c>
-      <c r="H17" s="9"/>
-      <c r="I17" s="8"/>
-      <c r="J17" s="3">
-        <v>0.48</v>
-      </c>
-      <c r="K17" s="3">
-        <f t="shared" si="1"/>
-        <v>0.69444444444444442</v>
-      </c>
-      <c r="L17" s="9"/>
-      <c r="M17" s="8"/>
-      <c r="N17" s="3">
-        <v>9.2999999999999999E-2</v>
-      </c>
-      <c r="O17" s="3">
-        <f t="shared" si="3"/>
-        <v>4.1356492969396195</v>
-      </c>
-      <c r="P17" s="9"/>
-      <c r="R17" s="3">
-        <v>9.5000000000000001E-2</v>
-      </c>
-      <c r="S17" s="3">
-        <f t="shared" si="2"/>
-        <v>3.2894736842105257</v>
-      </c>
-      <c r="T17" s="9"/>
-    </row>
-    <row r="18" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B18" s="8"/>
-      <c r="C18" t="s">
-        <v>26</v>
-      </c>
-      <c r="D18" s="9"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="3">
-        <v>0.80100000000000005</v>
-      </c>
-      <c r="G18" s="3">
-        <f t="shared" si="0"/>
-        <v>0.69357747260368974</v>
-      </c>
-      <c r="H18" s="9"/>
-      <c r="I18" s="8"/>
-      <c r="J18" s="3">
-        <v>0.48</v>
-      </c>
-      <c r="K18" s="3">
-        <f t="shared" si="1"/>
-        <v>0.69444444444444442</v>
-      </c>
-      <c r="L18" s="9"/>
-      <c r="M18" s="8"/>
-      <c r="N18" s="3">
-        <v>9.0999999999999998E-2</v>
-      </c>
-      <c r="O18" s="3">
-        <f t="shared" si="3"/>
-        <v>4.2265426880811496</v>
-      </c>
-      <c r="P18" s="9"/>
-      <c r="R18" s="3">
-        <v>9.5000000000000001E-2</v>
-      </c>
-      <c r="S18" s="3">
-        <f t="shared" si="2"/>
-        <v>3.2894736842105257</v>
-      </c>
-      <c r="T18" s="9"/>
-    </row>
-    <row r="19" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B19" s="8"/>
-      <c r="C19" t="s">
-        <v>13</v>
-      </c>
-      <c r="D19" s="9"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="3">
-        <v>0.80100000000000005</v>
-      </c>
-      <c r="G19" s="3">
-        <f t="shared" si="0"/>
-        <v>0.69357747260368974</v>
-      </c>
-      <c r="H19" s="9"/>
-      <c r="I19" s="8"/>
-      <c r="J19" s="3">
-        <v>0.48</v>
-      </c>
-      <c r="K19" s="3">
-        <f t="shared" si="1"/>
-        <v>0.69444444444444442</v>
-      </c>
-      <c r="L19" s="9"/>
-      <c r="M19" s="8"/>
-      <c r="N19" s="3">
-        <v>0.184</v>
-      </c>
-      <c r="O19" s="3">
-        <f t="shared" si="3"/>
-        <v>2.0903010033444818</v>
-      </c>
-      <c r="P19" s="9"/>
-      <c r="R19" s="3">
-        <v>0.14699999999999999</v>
-      </c>
-      <c r="S19" s="3">
-        <f t="shared" si="2"/>
-        <v>2.1258503401360547</v>
-      </c>
-      <c r="T19" s="9"/>
-    </row>
-    <row r="20" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B20" s="8"/>
-      <c r="C20" t="s">
-        <v>27</v>
-      </c>
-      <c r="D20" s="9"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="3">
-        <v>0.80100000000000005</v>
-      </c>
-      <c r="G20" s="3">
-        <f t="shared" si="0"/>
-        <v>0.69357747260368974</v>
-      </c>
-      <c r="H20" s="9"/>
-      <c r="I20" s="8"/>
-      <c r="J20" s="3">
-        <v>0.48</v>
-      </c>
-      <c r="K20" s="3">
-        <f t="shared" si="1"/>
-        <v>0.69444444444444442</v>
-      </c>
-      <c r="L20" s="9"/>
-      <c r="M20" s="8"/>
-      <c r="N20" s="3">
-        <v>0.183</v>
-      </c>
-      <c r="O20" s="3">
-        <f t="shared" si="3"/>
-        <v>2.1017234131988229</v>
-      </c>
-      <c r="P20" s="9"/>
-      <c r="R20" s="3">
-        <v>0.14699999999999999</v>
-      </c>
-      <c r="S20" s="3">
-        <f t="shared" si="2"/>
-        <v>2.1258503401360547</v>
-      </c>
-      <c r="T20" s="9"/>
-    </row>
-    <row r="21" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B21" s="8"/>
-      <c r="C21" t="s">
-        <v>28</v>
-      </c>
-      <c r="D21" s="9"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="3">
-        <v>1.079</v>
-      </c>
-      <c r="G21" s="3">
-        <f t="shared" si="0"/>
-        <v>0.5148800329523221</v>
-      </c>
-      <c r="H21" s="9"/>
-      <c r="I21" s="8"/>
-      <c r="J21" s="3">
-        <v>0.64700000000000002</v>
-      </c>
-      <c r="K21" s="3">
-        <f t="shared" si="1"/>
-        <v>0.51519835136527559</v>
-      </c>
-      <c r="L21" s="9"/>
-      <c r="M21" s="8"/>
-      <c r="N21" s="3">
-        <v>0.11899999999999999</v>
-      </c>
-      <c r="O21" s="3">
-        <f t="shared" si="3"/>
-        <v>3.2320620555914674</v>
-      </c>
-      <c r="P21" s="9"/>
-      <c r="R21" s="3">
-        <v>9.5000000000000001E-2</v>
-      </c>
-      <c r="S21" s="3">
-        <f t="shared" si="2"/>
-        <v>3.2894736842105257</v>
-      </c>
-      <c r="T21" s="9"/>
-    </row>
-    <row r="22" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B22" s="8"/>
-      <c r="C22" t="s">
-        <v>29</v>
-      </c>
-      <c r="D22" s="9"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="3">
-        <v>1.079</v>
-      </c>
-      <c r="G22" s="3">
-        <f t="shared" si="0"/>
-        <v>0.5148800329523221</v>
-      </c>
-      <c r="H22" s="9"/>
-      <c r="I22" s="8"/>
-      <c r="J22" s="3">
-        <v>0.64700000000000002</v>
-      </c>
-      <c r="K22" s="3">
-        <f t="shared" si="1"/>
-        <v>0.51519835136527559</v>
-      </c>
-      <c r="L22" s="9"/>
-      <c r="M22" s="8"/>
-      <c r="N22" s="3">
-        <v>0.11899999999999999</v>
-      </c>
-      <c r="O22" s="3">
-        <f t="shared" si="3"/>
-        <v>3.2320620555914674</v>
-      </c>
-      <c r="P22" s="9"/>
-      <c r="R22" s="3">
-        <v>9.5000000000000001E-2</v>
-      </c>
-      <c r="S22" s="3">
-        <f t="shared" si="2"/>
-        <v>3.2894736842105257</v>
-      </c>
-      <c r="T22" s="9"/>
-    </row>
-    <row r="23" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B23" s="8"/>
-      <c r="C23" t="s">
-        <v>30</v>
-      </c>
-      <c r="D23" s="9"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="3">
-        <v>1.079</v>
-      </c>
-      <c r="G23" s="3">
-        <f t="shared" si="0"/>
-        <v>0.5148800329523221</v>
-      </c>
-      <c r="H23" s="9"/>
-      <c r="I23" s="8"/>
-      <c r="J23" s="3">
-        <v>0.64700000000000002</v>
-      </c>
-      <c r="K23" s="3">
-        <f t="shared" si="1"/>
-        <v>0.51519835136527559</v>
-      </c>
-      <c r="L23" s="9"/>
-      <c r="M23" s="8"/>
-      <c r="N23" s="3">
-        <v>0.13300000000000001</v>
-      </c>
-      <c r="O23" s="3">
-        <f t="shared" si="3"/>
-        <v>2.8918449971081546</v>
-      </c>
-      <c r="P23" s="9"/>
-      <c r="R23" s="3">
-        <v>9.5000000000000001E-2</v>
-      </c>
-      <c r="S23" s="3">
-        <f t="shared" si="2"/>
-        <v>3.2894736842105257</v>
-      </c>
-      <c r="T23" s="9"/>
-    </row>
-    <row r="24" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B24" s="8"/>
-      <c r="C24" t="s">
-        <v>14</v>
-      </c>
-      <c r="D24" s="9"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="3">
-        <v>1.079</v>
-      </c>
-      <c r="G24" s="3">
-        <f t="shared" si="0"/>
-        <v>0.5148800329523221</v>
-      </c>
-      <c r="H24" s="9"/>
-      <c r="I24" s="8"/>
-      <c r="J24" s="3">
-        <v>0.64700000000000002</v>
-      </c>
-      <c r="K24" s="3">
-        <f t="shared" si="1"/>
-        <v>0.51519835136527559</v>
-      </c>
-      <c r="L24" s="9"/>
-      <c r="M24" s="8"/>
-      <c r="N24" s="3">
-        <v>0.32800000000000001</v>
-      </c>
-      <c r="O24" s="3">
-        <f t="shared" si="3"/>
-        <v>1.1726078799249529</v>
-      </c>
-      <c r="P24" s="9"/>
-      <c r="R24" s="3">
-        <v>0.14699999999999999</v>
-      </c>
-      <c r="S24" s="3">
-        <f t="shared" si="2"/>
-        <v>2.1258503401360547</v>
-      </c>
-      <c r="T24" s="9"/>
-    </row>
-    <row r="25" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B25" s="8"/>
-      <c r="C25" t="s">
-        <v>31</v>
-      </c>
-      <c r="D25" s="9"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="3">
-        <v>1.079</v>
-      </c>
-      <c r="G25" s="3">
-        <f t="shared" si="0"/>
-        <v>0.5148800329523221</v>
-      </c>
-      <c r="H25" s="9"/>
-      <c r="I25" s="8"/>
-      <c r="J25" s="3">
-        <v>0.64700000000000002</v>
-      </c>
-      <c r="K25" s="3">
-        <f t="shared" si="1"/>
-        <v>0.51519835136527559</v>
-      </c>
-      <c r="L25" s="9"/>
-      <c r="M25" s="8"/>
-      <c r="N25" s="3">
-        <v>0.32700000000000001</v>
-      </c>
-      <c r="O25" s="3">
-        <f t="shared" si="3"/>
-        <v>1.1761938367442955</v>
-      </c>
-      <c r="P25" s="9"/>
-      <c r="R25" s="3">
-        <v>0.14699999999999999</v>
-      </c>
-      <c r="S25" s="3">
-        <f t="shared" si="2"/>
-        <v>2.1258503401360547</v>
-      </c>
-      <c r="T25" s="9"/>
-    </row>
-    <row r="26" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B26" s="8"/>
-      <c r="C26" t="s">
-        <v>15</v>
-      </c>
-      <c r="D26" s="9"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="3">
-        <v>0.94</v>
-      </c>
-      <c r="G26" s="3">
-        <f t="shared" si="0"/>
-        <v>0.59101654846335694</v>
-      </c>
-      <c r="H26" s="9"/>
-      <c r="I26" s="8"/>
-      <c r="J26" s="3">
-        <v>0.56299999999999994</v>
-      </c>
-      <c r="K26" s="3">
-        <f t="shared" si="1"/>
-        <v>0.59206631142687982</v>
-      </c>
-      <c r="L26" s="9"/>
-      <c r="M26" s="8"/>
-      <c r="N26" s="3">
-        <v>0.111</v>
-      </c>
-      <c r="O26" s="3">
-        <f t="shared" si="3"/>
-        <v>3.4650034650034649</v>
-      </c>
-      <c r="P26" s="9"/>
-      <c r="R26" s="3">
-        <v>9.5000000000000001E-2</v>
-      </c>
-      <c r="S26" s="3">
-        <f t="shared" si="2"/>
-        <v>3.2894736842105257</v>
-      </c>
-      <c r="T26" s="9"/>
-    </row>
-    <row r="27" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B27" s="8"/>
-      <c r="C27" t="s">
-        <v>16</v>
-      </c>
-      <c r="D27" s="9"/>
-      <c r="E27" s="8"/>
-      <c r="H27" s="9"/>
-      <c r="I27" s="8"/>
-      <c r="J27" s="3"/>
-      <c r="L27" s="9"/>
-      <c r="M27" s="8"/>
-      <c r="N27" s="3">
-        <v>0.373</v>
-      </c>
-      <c r="O27" s="3">
-        <f t="shared" si="3"/>
-        <v>1.0311404413281089</v>
-      </c>
-      <c r="P27" s="9"/>
-      <c r="R27" s="3">
-        <v>0.30299999999999999</v>
-      </c>
-      <c r="S27" s="3">
-        <f t="shared" si="2"/>
-        <v>1.0313531353135312</v>
-      </c>
-      <c r="T27" s="9"/>
-    </row>
-    <row r="28" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B28" s="8"/>
-      <c r="C28" t="s">
-        <v>17</v>
-      </c>
-      <c r="D28" s="9"/>
-      <c r="E28" s="8"/>
-      <c r="H28" s="9"/>
-      <c r="I28" s="8"/>
-      <c r="J28" s="3"/>
-      <c r="L28" s="9"/>
-      <c r="M28" s="8"/>
-      <c r="N28" s="3">
-        <v>0.373</v>
-      </c>
-      <c r="O28" s="3">
-        <f t="shared" si="3"/>
-        <v>1.0311404413281089</v>
-      </c>
-      <c r="P28" s="9"/>
-      <c r="R28" s="3">
-        <v>0.30299999999999999</v>
-      </c>
-      <c r="S28" s="3">
-        <f t="shared" si="2"/>
-        <v>1.0313531353135312</v>
-      </c>
-      <c r="T28" s="9"/>
-    </row>
-    <row r="29" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B29" s="8"/>
-      <c r="C29" t="s">
-        <v>32</v>
-      </c>
-      <c r="D29" s="9"/>
-      <c r="E29" s="8"/>
-      <c r="H29" s="9"/>
-      <c r="I29" s="8"/>
-      <c r="J29" s="3"/>
-      <c r="L29" s="9"/>
-      <c r="M29" s="8"/>
-      <c r="N29" s="3">
-        <v>0.373</v>
-      </c>
-      <c r="O29" s="3">
-        <f t="shared" si="3"/>
-        <v>1.0311404413281089</v>
-      </c>
-      <c r="P29" s="9"/>
-      <c r="R29" s="3">
-        <v>0.30299999999999999</v>
-      </c>
-      <c r="S29" s="3">
-        <f t="shared" si="2"/>
-        <v>1.0313531353135312</v>
-      </c>
-      <c r="T29" s="9"/>
-    </row>
-    <row r="30" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B30" s="8"/>
-      <c r="C30" t="s">
-        <v>18</v>
-      </c>
-      <c r="D30" s="9"/>
-      <c r="E30" s="8"/>
-      <c r="H30" s="9"/>
-      <c r="I30" s="8"/>
-      <c r="J30" s="3"/>
-      <c r="L30" s="9"/>
-      <c r="M30" s="8"/>
-      <c r="N30" s="3">
-        <v>0.373</v>
-      </c>
-      <c r="O30" s="3">
-        <f t="shared" si="3"/>
-        <v>1.0311404413281089</v>
-      </c>
-      <c r="P30" s="9"/>
-      <c r="R30" s="3">
-        <v>0.30299999999999999</v>
-      </c>
-      <c r="S30" s="3">
-        <f t="shared" si="2"/>
-        <v>1.0313531353135312</v>
-      </c>
-      <c r="T30" s="9"/>
-    </row>
-    <row r="31" spans="2:20" ht="3.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="10"/>
-      <c r="C31" s="11"/>
-      <c r="D31" s="13"/>
-      <c r="E31" s="10"/>
-      <c r="F31" s="12"/>
-      <c r="G31" s="12"/>
-      <c r="H31" s="13"/>
-      <c r="I31" s="10"/>
-      <c r="J31" s="12"/>
-      <c r="K31" s="12"/>
-      <c r="L31" s="13"/>
-      <c r="M31" s="10"/>
-      <c r="N31" s="12"/>
-      <c r="O31" s="12"/>
-      <c r="P31" s="13"/>
-      <c r="Q31" s="12"/>
-      <c r="R31" s="12"/>
-      <c r="S31" s="12"/>
-      <c r="T31" s="13"/>
-    </row>
-  </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="R2:S2"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="R3:S3"/>
-  </mergeCells>
-  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
-  <headerFooter>
-    <oddHeader>&amp;A</oddHeader>
-  </headerFooter>
-</worksheet>
 </file>
--- a/analysis.xlsx
+++ b/analysis.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\shared\arm-instruction-time\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{653E47E7-C401-490F-8C27-BCC4FC652FAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{614B5DD6-3FBA-43C8-A0EB-76129FADF1BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6060" yWindow="1770" windowWidth="20775" windowHeight="17370" xr2:uid="{D46DF09C-373D-4B8F-933A-76CBCC1CC5EF}"/>
+    <workbookView xWindow="16770" yWindow="2790" windowWidth="22575" windowHeight="18735" xr2:uid="{D46DF09C-373D-4B8F-933A-76CBCC1CC5EF}"/>
   </bookViews>
   <sheets>
     <sheet name="Ignoring empty loop time" sheetId="1" r:id="rId1"/>
@@ -392,17 +392,17 @@
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="167" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -768,31 +768,31 @@
       </c>
       <c r="D2" s="7"/>
       <c r="E2" s="4"/>
-      <c r="F2" s="21" t="s">
+      <c r="F2" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
       <c r="I2" s="7"/>
       <c r="J2" s="4"/>
-      <c r="K2" s="21" t="s">
+      <c r="K2" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="21"/>
-      <c r="M2" s="21"/>
+      <c r="L2" s="22"/>
+      <c r="M2" s="22"/>
       <c r="N2" s="7"/>
       <c r="O2" s="4"/>
-      <c r="P2" s="21" t="s">
+      <c r="P2" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="Q2" s="21"/>
+      <c r="Q2" s="22"/>
       <c r="R2" s="7"/>
       <c r="S2" s="6"/>
-      <c r="T2" s="21" t="s">
+      <c r="T2" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="U2" s="21"/>
-      <c r="V2" s="21"/>
+      <c r="U2" s="22"/>
+      <c r="V2" s="22"/>
       <c r="W2" s="7"/>
     </row>
     <row r="3" spans="2:23" x14ac:dyDescent="0.25">
@@ -816,10 +816,10 @@
       <c r="M3" s="23"/>
       <c r="N3" s="9"/>
       <c r="O3" s="8"/>
-      <c r="P3" s="22">
+      <c r="P3" s="24">
         <v>2.6</v>
       </c>
-      <c r="Q3" s="22"/>
+      <c r="Q3" s="24"/>
       <c r="R3" s="9"/>
       <c r="T3" s="23">
         <v>3.2</v>
@@ -952,11 +952,11 @@
         <v>0.29699999999999999</v>
       </c>
       <c r="G7" s="3">
-        <f t="shared" ref="G7:G33" si="0">1/($F$3*F7)</f>
+        <f t="shared" ref="G7:G32" si="0">1/($F$3*F7)</f>
         <v>1.8705574261129818</v>
       </c>
       <c r="H7" s="20">
-        <f t="shared" ref="H7:H33" si="1">(F7*$F$3 - $P7*$P$3)/($P7*$P$3)</f>
+        <f t="shared" ref="H7:H32" si="1">(F7*$F$3 - $P7*$P$3)/($P7*$P$3)</f>
         <v>1.0769230769230766</v>
       </c>
       <c r="I7" s="9"/>
@@ -965,11 +965,11 @@
         <v>0.115</v>
       </c>
       <c r="L7" s="3">
-        <f t="shared" ref="L7:L33" si="2">1/($K$3*K7)</f>
+        <f t="shared" ref="L7:L25" si="2">1/($K$3*K7)</f>
         <v>2.8985507246376807</v>
       </c>
       <c r="M7" s="20">
-        <f t="shared" ref="M7:M33" si="3">(K7*$K$3 - $P7*$P$3)/($P7*$P$3)</f>
+        <f t="shared" ref="M7:M25" si="3">(K7*$K$3 - $P7*$P$3)/($P7*$P$3)</f>
         <v>0.34032634032634035</v>
       </c>
       <c r="N7" s="9"/>
@@ -986,11 +986,11 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="U7" s="3">
-        <f t="shared" ref="U7:U36" si="4">1/($T$3*T7)</f>
+        <f t="shared" ref="U7:U25" si="4">1/($T$3*T7)</f>
         <v>4.4642857142857135</v>
       </c>
       <c r="V7" s="20">
-        <f t="shared" ref="V7:V36" si="5">(T7*$T$3 - $P7*$P$3)/($P7*$P$3)</f>
+        <f t="shared" ref="V7:V25" si="5">(T7*$T$3 - $P7*$P$3)/($P7*$P$3)</f>
         <v>-0.1297591297591297</v>
       </c>
       <c r="W7" s="9"/>
@@ -1273,37 +1273,37 @@
       <c r="D13" s="9"/>
       <c r="E13" s="8"/>
       <c r="F13" s="3">
-        <v>5.5890000000000004</v>
+        <v>3.3530000000000002</v>
       </c>
       <c r="G13" s="3">
         <f t="shared" si="0"/>
-        <v>9.9401602353829929E-2</v>
+        <v>0.16568910097093814</v>
       </c>
       <c r="H13" s="20">
         <f t="shared" si="1"/>
-        <v>0.11636113453770698</v>
+        <v>4.4602736078287308E-3</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="8"/>
       <c r="K13" s="3">
-        <v>3.0049999999999999</v>
+        <v>2.0049999999999999</v>
       </c>
       <c r="L13" s="3">
         <f t="shared" si="2"/>
-        <v>0.11092623405435385</v>
+        <v>0.16625103906899419</v>
       </c>
       <c r="M13" s="20">
         <f t="shared" si="3"/>
-        <v>3.7729149096710695E-4</v>
+        <v>1.0651399660485462E-3</v>
       </c>
       <c r="N13" s="9"/>
       <c r="O13" s="8"/>
       <c r="P13" s="3">
-        <v>3.4660000000000002</v>
+        <v>2.3109999999999999</v>
       </c>
       <c r="Q13" s="3">
         <f t="shared" si="6"/>
-        <v>0.11096808557858757</v>
+        <v>0.16642811969510368</v>
       </c>
       <c r="R13" s="9"/>
       <c r="T13" s="3">
@@ -1315,7 +1315,7 @@
       </c>
       <c r="V13" s="20">
         <f t="shared" si="5"/>
-        <v>-0.77806382884282488</v>
+        <v>-0.66714376060979264</v>
       </c>
       <c r="W13" s="9"/>
     </row>
@@ -2513,19 +2513,19 @@
       <c r="C39" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F39" s="24">
+      <c r="F39" s="21">
         <f>(F12-F11)/F11</f>
         <v>0.33333333333333343</v>
       </c>
-      <c r="K39" s="24">
+      <c r="K39" s="21">
         <f>(K12-K11)/K11</f>
         <v>0.33333333333333343</v>
       </c>
-      <c r="P39" s="24">
+      <c r="P39" s="21">
         <f>(P12-P11)/P11</f>
         <v>0</v>
       </c>
-      <c r="T39" s="24">
+      <c r="T39" s="21">
         <f>(T12-T11)/T11</f>
         <v>0</v>
       </c>
@@ -2534,19 +2534,19 @@
       <c r="C40" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F40" s="24">
+      <c r="F40" s="21">
         <f>(F24-F19)/F19</f>
         <v>0.33253873659118016</v>
       </c>
-      <c r="K40" s="24">
+      <c r="K40" s="21">
         <f>(K24-K19)/K19</f>
         <v>0.33333333333333343</v>
       </c>
-      <c r="P40" s="24">
+      <c r="P40" s="21">
         <f>(P24-P19)/P19</f>
         <v>0.73469387755102045</v>
       </c>
-      <c r="T40" s="24">
+      <c r="T40" s="21">
         <f>(T24-T19)/T19</f>
         <v>0</v>
       </c>

--- a/analysis.xlsx
+++ b/analysis.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\shared\arm-instruction-time\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{614B5DD6-3FBA-43C8-A0EB-76129FADF1BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06A64B06-80A8-42D8-A7DF-A5BAE16A0DE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16770" yWindow="2790" windowWidth="22575" windowHeight="18735" xr2:uid="{D46DF09C-373D-4B8F-933A-76CBCC1CC5EF}"/>
+    <workbookView xWindow="9750" yWindow="2115" windowWidth="22575" windowHeight="18735" xr2:uid="{D46DF09C-373D-4B8F-933A-76CBCC1CC5EF}"/>
   </bookViews>
   <sheets>
     <sheet name="Ignoring empty loop time" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="45">
   <si>
     <t>Apple M1</t>
   </si>
@@ -180,6 +180,9 @@
   </si>
   <si>
     <t>UMULH ADC ADDS (dep. regs)</t>
+  </si>
+  <si>
+    <t>Neoverse V2</t>
   </si>
 </sst>
 </file>
@@ -741,9 +744,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:W42"/>
+  <dimension ref="B1:AB42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="T3" sqref="T3:V3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -757,11 +762,13 @@
     <col min="16" max="17" width="8.7109375" customWidth="1"/>
     <col min="18" max="19" width="1.140625" customWidth="1"/>
     <col min="20" max="22" width="8.7109375" customWidth="1"/>
-    <col min="23" max="23" width="1.140625" customWidth="1"/>
+    <col min="23" max="24" width="1.140625" customWidth="1"/>
+    <col min="25" max="27" width="8.7109375" customWidth="1"/>
+    <col min="28" max="28" width="1.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:23" ht="3.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:28" ht="3.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="4"/>
       <c r="C2" s="5" t="s">
         <v>19</v>
@@ -787,15 +794,22 @@
       </c>
       <c r="Q2" s="22"/>
       <c r="R2" s="7"/>
-      <c r="S2" s="6"/>
+      <c r="S2" s="4"/>
       <c r="T2" s="22" t="s">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="U2" s="22"/>
       <c r="V2" s="22"/>
       <c r="W2" s="7"/>
-    </row>
-    <row r="3" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="X2" s="6"/>
+      <c r="Y2" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z2" s="22"/>
+      <c r="AA2" s="22"/>
+      <c r="AB2" s="7"/>
+    </row>
+    <row r="3" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B3" s="8"/>
       <c r="C3" s="2" t="s">
         <v>21</v>
@@ -821,14 +835,21 @@
       </c>
       <c r="Q3" s="24"/>
       <c r="R3" s="9"/>
+      <c r="S3" s="8"/>
       <c r="T3" s="23">
-        <v>3.2</v>
+        <v>3.4470000000000001</v>
       </c>
       <c r="U3" s="23"/>
       <c r="V3" s="23"/>
       <c r="W3" s="9"/>
-    </row>
-    <row r="4" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="Y3" s="23">
+        <v>3.2</v>
+      </c>
+      <c r="Z3" s="23"/>
+      <c r="AA3" s="23"/>
+      <c r="AB3" s="9"/>
+    </row>
+    <row r="4" spans="2:28" ht="30" x14ac:dyDescent="0.25">
       <c r="B4" s="14"/>
       <c r="C4" s="15" t="s">
         <v>35</v>
@@ -864,7 +885,7 @@
         <v>22</v>
       </c>
       <c r="R4" s="16"/>
-      <c r="S4" s="18"/>
+      <c r="S4" s="14"/>
       <c r="T4" s="17" t="s">
         <v>20</v>
       </c>
@@ -875,8 +896,19 @@
         <v>36</v>
       </c>
       <c r="W4" s="16"/>
-    </row>
-    <row r="5" spans="2:23" ht="3.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X4" s="18"/>
+      <c r="Y4" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z4" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA4" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB4" s="16"/>
+    </row>
+    <row r="5" spans="2:28" ht="3.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="8"/>
       <c r="D5" s="9"/>
       <c r="E5" s="8"/>
@@ -885,9 +917,11 @@
       <c r="N5" s="9"/>
       <c r="O5" s="8"/>
       <c r="R5" s="9"/>
+      <c r="S5" s="8"/>
       <c r="W5" s="9"/>
-    </row>
-    <row r="6" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="AB5" s="9"/>
+    </row>
+    <row r="6" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B6" s="8"/>
       <c r="C6" t="s">
         <v>4</v>
@@ -928,20 +962,33 @@
         <v>10.683760683760683</v>
       </c>
       <c r="R6" s="9"/>
+      <c r="S6" s="8"/>
       <c r="T6" s="3">
-        <v>4.4999999999999998E-2</v>
+        <v>2.9000000000000001E-2</v>
       </c>
       <c r="U6" s="3">
         <f>1/($T$3*T6)</f>
-        <v>6.9444444444444446</v>
+        <v>10.003701369506716</v>
       </c>
       <c r="V6" s="20">
         <f>(T6*$T$3 - $P6*$P$3)/($P6*$P$3)</f>
+        <v>6.7980769230769303E-2</v>
+      </c>
+      <c r="W6" s="9"/>
+      <c r="Y6" s="3">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="Z6" s="3">
+        <f>1/($Y$3*Y6)</f>
+        <v>6.9444444444444446</v>
+      </c>
+      <c r="AA6" s="20">
+        <f>(Y6*$Y$3 - $P6*$P$3)/($P6*$P$3)</f>
         <v>0.53846153846153832</v>
       </c>
-      <c r="W6" s="9"/>
-    </row>
-    <row r="7" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="AB6" s="9"/>
+    </row>
+    <row r="7" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B7" s="8"/>
       <c r="C7" t="s">
         <v>5</v>
@@ -982,20 +1029,33 @@
         <v>3.8850038850038846</v>
       </c>
       <c r="R7" s="9"/>
+      <c r="S7" s="8"/>
       <c r="T7" s="3">
+        <v>0.08</v>
+      </c>
+      <c r="U7" s="3">
+        <f t="shared" ref="U7:U32" si="4">1/($T$3*T7)</f>
+        <v>3.6263417464461849</v>
+      </c>
+      <c r="V7" s="20">
+        <f t="shared" ref="V7:V32" si="5">(T7*$T$3 - $P7*$P$3)/($P7*$P$3)</f>
+        <v>7.1328671328671281E-2</v>
+      </c>
+      <c r="W7" s="9"/>
+      <c r="Y7" s="3">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="U7" s="3">
-        <f t="shared" ref="U7:U25" si="4">1/($T$3*T7)</f>
+      <c r="Z7" s="3">
+        <f t="shared" ref="Z7:Z25" si="6">1/($Y$3*Y7)</f>
         <v>4.4642857142857135</v>
       </c>
-      <c r="V7" s="20">
-        <f t="shared" ref="V7:V25" si="5">(T7*$T$3 - $P7*$P$3)/($P7*$P$3)</f>
+      <c r="AA7" s="20">
+        <f t="shared" ref="AA7:AA25" si="7">(Y7*$Y$3 - $P7*$P$3)/($P7*$P$3)</f>
         <v>-0.1297591297591297</v>
       </c>
-      <c r="W7" s="9"/>
-    </row>
-    <row r="8" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="AB7" s="9"/>
+    </row>
+    <row r="8" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B8" s="8"/>
       <c r="C8" t="s">
         <v>6</v>
@@ -1032,24 +1092,37 @@
         <v>9.9000000000000005E-2</v>
       </c>
       <c r="Q8" s="3">
-        <f t="shared" ref="Q8:Q36" si="6">1/($P$3*P8)</f>
+        <f t="shared" ref="Q8:Q36" si="8">1/($P$3*P8)</f>
         <v>3.8850038850038846</v>
       </c>
       <c r="R8" s="9"/>
+      <c r="S8" s="8"/>
       <c r="T8" s="3">
-        <v>0.108</v>
+        <v>8.3000000000000004E-2</v>
       </c>
       <c r="U8" s="3">
         <f t="shared" si="4"/>
-        <v>2.8935185185185182</v>
+        <v>3.4952691532011424</v>
       </c>
       <c r="V8" s="20">
         <f t="shared" si="5"/>
+        <v>0.1115034965034964</v>
+      </c>
+      <c r="W8" s="9"/>
+      <c r="Y8" s="3">
+        <v>0.108</v>
+      </c>
+      <c r="Z8" s="3">
+        <f t="shared" si="6"/>
+        <v>2.8935185185185182</v>
+      </c>
+      <c r="AA8" s="20">
+        <f t="shared" si="7"/>
         <v>0.34265734265734266</v>
       </c>
-      <c r="W8" s="9"/>
-    </row>
-    <row r="9" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="AB8" s="9"/>
+    </row>
+    <row r="9" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B9" s="8"/>
       <c r="C9" t="s">
         <v>7</v>
@@ -1086,24 +1159,37 @@
         <v>0.13100000000000001</v>
       </c>
       <c r="Q9" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2.935995302407516</v>
       </c>
       <c r="R9" s="9"/>
+      <c r="S9" s="8"/>
       <c r="T9" s="3">
-        <v>0.107</v>
+        <v>0.124</v>
       </c>
       <c r="U9" s="3">
         <f t="shared" si="4"/>
-        <v>2.9205607476635511</v>
+        <v>2.3395753202878611</v>
       </c>
       <c r="V9" s="20">
         <f t="shared" si="5"/>
+        <v>0.25492660011743984</v>
+      </c>
+      <c r="W9" s="9"/>
+      <c r="Y9" s="3">
+        <v>0.107</v>
+      </c>
+      <c r="Z9" s="3">
+        <f t="shared" si="6"/>
+        <v>2.9205607476635511</v>
+      </c>
+      <c r="AA9" s="20">
+        <f t="shared" si="7"/>
         <v>5.2847915443335986E-3</v>
       </c>
-      <c r="W9" s="9"/>
-    </row>
-    <row r="10" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="AB9" s="9"/>
+    </row>
+    <row r="10" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B10" s="8"/>
       <c r="C10" t="s">
         <v>8</v>
@@ -1140,24 +1226,37 @@
         <v>0.38800000000000001</v>
       </c>
       <c r="Q10" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.99127676447264057</v>
       </c>
       <c r="R10" s="9"/>
+      <c r="S10" s="8"/>
       <c r="T10" s="3">
-        <v>0.313</v>
+        <v>0.309</v>
       </c>
       <c r="U10" s="3">
         <f t="shared" si="4"/>
+        <v>0.93885870458153653</v>
+      </c>
+      <c r="V10" s="20">
+        <f>(T10*$T$3 - $P10*$P$3)/($P10*$P$3)</f>
+        <v>5.583168120539244E-2</v>
+      </c>
+      <c r="W10" s="9"/>
+      <c r="Y10" s="3">
+        <v>0.313</v>
+      </c>
+      <c r="Z10" s="3">
+        <f t="shared" si="6"/>
         <v>0.99840255591054305</v>
       </c>
-      <c r="V10" s="20">
-        <f t="shared" si="5"/>
+      <c r="AA10" s="20">
+        <f t="shared" si="7"/>
         <v>-7.137192704203107E-3</v>
       </c>
-      <c r="W10" s="9"/>
-    </row>
-    <row r="11" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="AB10" s="9"/>
+    </row>
+    <row r="11" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B11" s="8"/>
       <c r="C11" t="s">
         <v>9</v>
@@ -1194,24 +1293,37 @@
         <v>0.193</v>
       </c>
       <c r="Q11" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.9928258270227182</v>
       </c>
       <c r="R11" s="9"/>
+      <c r="S11" s="8"/>
       <c r="T11" s="19">
-        <v>0.156</v>
+        <v>0.152</v>
       </c>
       <c r="U11" s="3">
         <f t="shared" si="4"/>
-        <v>2.0032051282051282</v>
+        <v>1.9086009191822029</v>
       </c>
       <c r="V11" s="20">
         <f t="shared" si="5"/>
+        <v>4.4129135113590956E-2</v>
+      </c>
+      <c r="W11" s="9"/>
+      <c r="Y11" s="19">
+        <v>0.156</v>
+      </c>
+      <c r="Z11" s="3">
+        <f t="shared" si="6"/>
+        <v>2.0032051282051282</v>
+      </c>
+      <c r="AA11" s="20">
+        <f t="shared" si="7"/>
         <v>-5.1813471502590493E-3</v>
       </c>
-      <c r="W11" s="9"/>
-    </row>
-    <row r="12" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="AB11" s="9"/>
+    </row>
+    <row r="12" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B12" s="8"/>
       <c r="C12" t="s">
         <v>10</v>
@@ -1248,24 +1360,37 @@
         <v>0.193</v>
       </c>
       <c r="Q12" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.9928258270227182</v>
       </c>
       <c r="R12" s="9"/>
+      <c r="S12" s="8"/>
       <c r="T12" s="19">
-        <v>0.156</v>
+        <v>0.152</v>
       </c>
       <c r="U12" s="3">
         <f t="shared" si="4"/>
-        <v>2.0032051282051282</v>
+        <v>1.9086009191822029</v>
       </c>
       <c r="V12" s="20">
         <f t="shared" si="5"/>
+        <v>4.4129135113590956E-2</v>
+      </c>
+      <c r="W12" s="9"/>
+      <c r="Y12" s="19">
+        <v>0.156</v>
+      </c>
+      <c r="Z12" s="3">
+        <f t="shared" si="6"/>
+        <v>2.0032051282051282</v>
+      </c>
+      <c r="AA12" s="20">
+        <f t="shared" si="7"/>
         <v>-5.1813471502590493E-3</v>
       </c>
-      <c r="W12" s="9"/>
-    </row>
-    <row r="13" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="AB12" s="9"/>
+    </row>
+    <row r="13" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B13" s="8"/>
       <c r="C13" t="s">
         <v>23</v>
@@ -1302,24 +1427,37 @@
         <v>2.3109999999999999</v>
       </c>
       <c r="Q13" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.16642811969510368</v>
       </c>
       <c r="R13" s="9"/>
+      <c r="S13" s="8"/>
       <c r="T13" s="3">
-        <v>0.625</v>
+        <v>1.8240000000000001</v>
       </c>
       <c r="U13" s="3">
         <f t="shared" si="4"/>
-        <v>0.5</v>
+        <v>0.15905007659851689</v>
       </c>
       <c r="V13" s="20">
         <f t="shared" si="5"/>
+        <v>4.6388176946376869E-2</v>
+      </c>
+      <c r="W13" s="9"/>
+      <c r="Y13" s="3">
+        <v>0.625</v>
+      </c>
+      <c r="Z13" s="3">
+        <f t="shared" si="6"/>
+        <v>0.5</v>
+      </c>
+      <c r="AA13" s="20">
+        <f t="shared" si="7"/>
         <v>-0.66714376060979264</v>
       </c>
-      <c r="W13" s="9"/>
-    </row>
-    <row r="14" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="AB13" s="9"/>
+    </row>
+    <row r="14" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B14" s="8"/>
       <c r="C14" t="s">
         <v>11</v>
@@ -1356,24 +1494,37 @@
         <v>0.193</v>
       </c>
       <c r="Q14" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.9928258270227182</v>
       </c>
       <c r="R14" s="9"/>
+      <c r="S14" s="8"/>
       <c r="T14" s="3">
-        <v>0.156</v>
+        <v>0.152</v>
       </c>
       <c r="U14" s="3">
         <f t="shared" si="4"/>
-        <v>2.0032051282051282</v>
+        <v>1.9086009191822029</v>
       </c>
       <c r="V14" s="20">
         <f t="shared" si="5"/>
+        <v>4.4129135113590956E-2</v>
+      </c>
+      <c r="W14" s="9"/>
+      <c r="Y14" s="3">
+        <v>0.156</v>
+      </c>
+      <c r="Z14" s="3">
+        <f t="shared" si="6"/>
+        <v>2.0032051282051282</v>
+      </c>
+      <c r="AA14" s="20">
+        <f t="shared" si="7"/>
         <v>-5.1813471502590493E-3</v>
       </c>
-      <c r="W14" s="9"/>
-    </row>
-    <row r="15" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="AB14" s="9"/>
+    </row>
+    <row r="15" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B15" s="8"/>
       <c r="C15" t="s">
         <v>12</v>
@@ -1410,24 +1561,37 @@
         <v>0.29399999999999998</v>
       </c>
       <c r="Q15" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.3082155939298796</v>
       </c>
       <c r="R15" s="9"/>
+      <c r="S15" s="8"/>
       <c r="T15" s="3">
-        <v>0.157</v>
+        <v>0.23799999999999999</v>
       </c>
       <c r="U15" s="3">
         <f t="shared" si="4"/>
-        <v>1.9904458598726111</v>
+        <v>1.2189384021667851</v>
       </c>
       <c r="V15" s="20">
         <f t="shared" si="5"/>
+        <v>7.3241758241758215E-2</v>
+      </c>
+      <c r="W15" s="9"/>
+      <c r="Y15" s="3">
+        <v>0.157</v>
+      </c>
+      <c r="Z15" s="3">
+        <f t="shared" si="6"/>
+        <v>1.9904458598726111</v>
+      </c>
+      <c r="AA15" s="20">
+        <f t="shared" si="7"/>
         <v>-0.34275248560962834</v>
       </c>
-      <c r="W15" s="9"/>
-    </row>
-    <row r="16" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="AB15" s="9"/>
+    </row>
+    <row r="16" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B16" s="8"/>
       <c r="C16" t="s">
         <v>24</v>
@@ -1464,24 +1628,37 @@
         <v>0.105</v>
       </c>
       <c r="Q16" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>3.6630036630036629</v>
       </c>
       <c r="R16" s="9"/>
+      <c r="S16" s="8"/>
       <c r="T16" s="3">
-        <v>0.104</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="U16" s="3">
         <f t="shared" si="4"/>
-        <v>3.0048076923076925</v>
+        <v>3.0537614706915241</v>
       </c>
       <c r="V16" s="20">
         <f t="shared" si="5"/>
+        <v>0.19950549450549443</v>
+      </c>
+      <c r="W16" s="9"/>
+      <c r="Y16" s="3">
+        <v>0.104</v>
+      </c>
+      <c r="Z16" s="3">
+        <f t="shared" si="6"/>
+        <v>3.0048076923076925</v>
+      </c>
+      <c r="AA16" s="20">
+        <f t="shared" si="7"/>
         <v>0.21904761904761891</v>
       </c>
-      <c r="W16" s="9"/>
-    </row>
-    <row r="17" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="AB16" s="9"/>
+    </row>
+    <row r="17" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B17" s="8"/>
       <c r="C17" t="s">
         <v>25</v>
@@ -1518,24 +1695,37 @@
         <v>0.105</v>
       </c>
       <c r="Q17" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>3.6630036630036629</v>
       </c>
       <c r="R17" s="9"/>
+      <c r="S17" s="8"/>
       <c r="T17" s="3">
-        <v>0.105</v>
+        <v>0.10199999999999999</v>
       </c>
       <c r="U17" s="3">
         <f t="shared" si="4"/>
-        <v>2.9761904761904758</v>
+        <v>2.8441896050558317</v>
       </c>
       <c r="V17" s="20">
         <f t="shared" si="5"/>
+        <v>0.28789010989010966</v>
+      </c>
+      <c r="W17" s="9"/>
+      <c r="Y17" s="3">
+        <v>0.105</v>
+      </c>
+      <c r="Z17" s="3">
+        <f t="shared" si="6"/>
+        <v>2.9761904761904758</v>
+      </c>
+      <c r="AA17" s="20">
+        <f t="shared" si="7"/>
         <v>0.23076923076923075</v>
       </c>
-      <c r="W17" s="9"/>
-    </row>
-    <row r="18" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="AB17" s="9"/>
+    </row>
+    <row r="18" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B18" s="8"/>
       <c r="C18" t="s">
         <v>26</v>
@@ -1572,24 +1762,37 @@
         <v>0.10299999999999999</v>
       </c>
       <c r="Q18" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>3.734129947722181</v>
       </c>
       <c r="R18" s="9"/>
+      <c r="S18" s="8"/>
       <c r="T18" s="3">
-        <v>0.104</v>
+        <v>9.9000000000000005E-2</v>
       </c>
       <c r="U18" s="3">
         <f t="shared" si="4"/>
-        <v>3.0048076923076925</v>
+        <v>2.9303771688454017</v>
       </c>
       <c r="V18" s="20">
         <f t="shared" si="5"/>
+        <v>0.27428304705003753</v>
+      </c>
+      <c r="W18" s="9"/>
+      <c r="Y18" s="3">
+        <v>0.104</v>
+      </c>
+      <c r="Z18" s="3">
+        <f t="shared" si="6"/>
+        <v>3.0048076923076925</v>
+      </c>
+      <c r="AA18" s="20">
+        <f t="shared" si="7"/>
         <v>0.24271844660194178</v>
       </c>
-      <c r="W18" s="9"/>
-    </row>
-    <row r="19" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="AB18" s="9"/>
+    </row>
+    <row r="19" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B19" s="8"/>
       <c r="C19" t="s">
         <v>13</v>
@@ -1626,24 +1829,37 @@
         <v>0.19600000000000001</v>
       </c>
       <c r="Q19" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.9623233908948192</v>
       </c>
       <c r="R19" s="9"/>
+      <c r="S19" s="8"/>
       <c r="T19" s="19">
-        <v>0.156</v>
+        <v>0.188</v>
       </c>
       <c r="U19" s="3">
         <f t="shared" si="4"/>
-        <v>2.0032051282051282</v>
+        <v>1.5431241474239084</v>
       </c>
       <c r="V19" s="20">
         <f t="shared" si="5"/>
+        <v>0.27165620094191523</v>
+      </c>
+      <c r="W19" s="9"/>
+      <c r="Y19" s="19">
+        <v>0.156</v>
+      </c>
+      <c r="Z19" s="3">
+        <f t="shared" si="6"/>
+        <v>2.0032051282051282</v>
+      </c>
+      <c r="AA19" s="20">
+        <f t="shared" si="7"/>
         <v>-2.0408163265306159E-2</v>
       </c>
-      <c r="W19" s="9"/>
-    </row>
-    <row r="20" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="AB19" s="9"/>
+    </row>
+    <row r="20" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B20" s="8"/>
       <c r="C20" t="s">
         <v>27</v>
@@ -1680,24 +1896,37 @@
         <v>0.19500000000000001</v>
       </c>
       <c r="Q20" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.9723865877712032</v>
       </c>
       <c r="R20" s="9"/>
+      <c r="S20" s="8"/>
       <c r="T20" s="3">
         <v>0.156</v>
       </c>
       <c r="U20" s="3">
         <f t="shared" si="4"/>
-        <v>2.0032051282051282</v>
+        <v>1.8596624340749668</v>
       </c>
       <c r="V20" s="20">
         <f t="shared" si="5"/>
+        <v>6.0615384615384578E-2</v>
+      </c>
+      <c r="W20" s="9"/>
+      <c r="Y20" s="3">
+        <v>0.156</v>
+      </c>
+      <c r="Z20" s="3">
+        <f t="shared" si="6"/>
+        <v>2.0032051282051282</v>
+      </c>
+      <c r="AA20" s="20">
+        <f t="shared" si="7"/>
         <v>-1.5384615384615332E-2</v>
       </c>
-      <c r="W20" s="9"/>
-    </row>
-    <row r="21" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="AB20" s="9"/>
+    </row>
+    <row r="21" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B21" s="8"/>
       <c r="C21" t="s">
         <v>28</v>
@@ -1734,24 +1963,37 @@
         <v>0.13100000000000001</v>
       </c>
       <c r="Q21" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2.935995302407516</v>
       </c>
       <c r="R21" s="9"/>
+      <c r="S21" s="8"/>
       <c r="T21" s="3">
-        <v>0.105</v>
+        <v>0.106</v>
       </c>
       <c r="U21" s="3">
         <f t="shared" si="4"/>
-        <v>2.9761904761904758</v>
+        <v>2.7368616954310832</v>
       </c>
       <c r="V21" s="20">
         <f t="shared" si="5"/>
+        <v>7.275983558426298E-2</v>
+      </c>
+      <c r="W21" s="9"/>
+      <c r="Y21" s="3">
+        <v>0.105</v>
+      </c>
+      <c r="Z21" s="3">
+        <f t="shared" si="6"/>
+        <v>2.9761904761904758</v>
+      </c>
+      <c r="AA21" s="20">
+        <f t="shared" si="7"/>
         <v>-1.3505578391074554E-2</v>
       </c>
-      <c r="W21" s="9"/>
-    </row>
-    <row r="22" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="AB21" s="9"/>
+    </row>
+    <row r="22" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B22" s="8"/>
       <c r="C22" t="s">
         <v>29</v>
@@ -1788,24 +2030,37 @@
         <v>0.13100000000000001</v>
       </c>
       <c r="Q22" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2.935995302407516</v>
       </c>
       <c r="R22" s="9"/>
+      <c r="S22" s="8"/>
       <c r="T22" s="3">
-        <v>0.105</v>
+        <v>0.113</v>
       </c>
       <c r="U22" s="3">
         <f t="shared" si="4"/>
-        <v>2.9761904761904758</v>
+        <v>2.5673215904043789</v>
       </c>
       <c r="V22" s="20">
         <f t="shared" si="5"/>
+        <v>0.14360246623605397</v>
+      </c>
+      <c r="W22" s="9"/>
+      <c r="Y22" s="3">
+        <v>0.105</v>
+      </c>
+      <c r="Z22" s="3">
+        <f t="shared" si="6"/>
+        <v>2.9761904761904758</v>
+      </c>
+      <c r="AA22" s="20">
+        <f t="shared" si="7"/>
         <v>-1.3505578391074554E-2</v>
       </c>
-      <c r="W22" s="9"/>
-    </row>
-    <row r="23" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="AB22" s="9"/>
+    </row>
+    <row r="23" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>30</v>
@@ -1842,24 +2097,37 @@
         <v>0.14599999999999999</v>
       </c>
       <c r="Q23" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2.6343519494204428</v>
       </c>
       <c r="R23" s="9"/>
+      <c r="S23" s="8"/>
       <c r="T23" s="3">
-        <v>0.104</v>
+        <v>0.11899999999999999</v>
       </c>
       <c r="U23" s="3">
         <f t="shared" si="4"/>
-        <v>3.0048076923076925</v>
+        <v>2.4378768043335701</v>
       </c>
       <c r="V23" s="20">
         <f t="shared" si="5"/>
+        <v>8.0592729188619552E-2</v>
+      </c>
+      <c r="W23" s="9"/>
+      <c r="Y23" s="3">
+        <v>0.104</v>
+      </c>
+      <c r="Z23" s="3">
+        <f t="shared" si="6"/>
+        <v>3.0048076923076925</v>
+      </c>
+      <c r="AA23" s="20">
+        <f t="shared" si="7"/>
         <v>-0.12328767123287673</v>
       </c>
-      <c r="W23" s="9"/>
-    </row>
-    <row r="24" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="AB23" s="9"/>
+    </row>
+    <row r="24" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B24" s="8"/>
       <c r="C24" t="s">
         <v>14</v>
@@ -1896,24 +2164,37 @@
         <v>0.34</v>
       </c>
       <c r="Q24" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.1312217194570133</v>
       </c>
       <c r="R24" s="9"/>
+      <c r="S24" s="8"/>
       <c r="T24" s="19">
-        <v>0.156</v>
+        <v>0.27</v>
       </c>
       <c r="U24" s="3">
         <f t="shared" si="4"/>
-        <v>2.0032051282051282</v>
+        <v>1.0744716285766474</v>
       </c>
       <c r="V24" s="20">
         <f t="shared" si="5"/>
+        <v>5.2816742081447966E-2</v>
+      </c>
+      <c r="W24" s="9"/>
+      <c r="Y24" s="19">
+        <v>0.156</v>
+      </c>
+      <c r="Z24" s="3">
+        <f t="shared" si="6"/>
+        <v>2.0032051282051282</v>
+      </c>
+      <c r="AA24" s="20">
+        <f t="shared" si="7"/>
         <v>-0.43529411764705889</v>
       </c>
-      <c r="W24" s="9"/>
-    </row>
-    <row r="25" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="AB24" s="9"/>
+    </row>
+    <row r="25" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B25" s="8"/>
       <c r="C25" t="s">
         <v>31</v>
@@ -1950,24 +2231,37 @@
         <v>0.33900000000000002</v>
       </c>
       <c r="Q25" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.1345586566825503</v>
       </c>
       <c r="R25" s="9"/>
+      <c r="S25" s="8"/>
       <c r="T25" s="3">
-        <v>0.156</v>
+        <v>0.26800000000000002</v>
       </c>
       <c r="U25" s="3">
         <f t="shared" si="4"/>
-        <v>2.0032051282051282</v>
+        <v>1.0824900735660252</v>
       </c>
       <c r="V25" s="20">
         <f t="shared" si="5"/>
+        <v>4.8100748808713394E-2</v>
+      </c>
+      <c r="W25" s="9"/>
+      <c r="Y25" s="3">
+        <v>0.156</v>
+      </c>
+      <c r="Z25" s="3">
+        <f t="shared" si="6"/>
+        <v>2.0032051282051282</v>
+      </c>
+      <c r="AA25" s="20">
+        <f t="shared" si="7"/>
         <v>-0.4336283185840708</v>
       </c>
-      <c r="W25" s="9"/>
-    </row>
-    <row r="26" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="AB25" s="9"/>
+    </row>
+    <row r="26" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B26" s="8"/>
       <c r="C26" t="s">
         <v>38</v>
@@ -1991,11 +2285,11 @@
         <v>0.44500000000000001</v>
       </c>
       <c r="L26" s="3">
-        <f t="shared" ref="L26:L32" si="7">1/($K$3*K26)</f>
+        <f t="shared" ref="L26:L32" si="9">1/($K$3*K26)</f>
         <v>0.74906367041198507</v>
       </c>
       <c r="M26" s="20">
-        <f t="shared" ref="M26:M32" si="8">(K26*$K$3 - $P26*$P$3)/($P26*$P$3)</f>
+        <f t="shared" ref="M26:M32" si="10">(K26*$K$3 - $P26*$P$3)/($P26*$P$3)</f>
         <v>1.2922390109890107</v>
       </c>
       <c r="N26" s="9"/>
@@ -2004,24 +2298,37 @@
         <v>0.224</v>
       </c>
       <c r="Q26" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.7170329670329669</v>
       </c>
       <c r="R26" s="9"/>
+      <c r="S26" s="8"/>
       <c r="T26" s="3">
+        <v>0.17899999999999999</v>
+      </c>
+      <c r="U26" s="3">
+        <f t="shared" si="4"/>
+        <v>1.6207113950597474</v>
+      </c>
+      <c r="V26" s="20">
+        <f t="shared" si="5"/>
+        <v>5.943166208791209E-2</v>
+      </c>
+      <c r="W26" s="9"/>
+      <c r="Y26" s="3">
         <v>0.105</v>
       </c>
-      <c r="U26" s="3">
-        <f t="shared" ref="U26:U36" si="9">1/($T$3*T26)</f>
+      <c r="Z26" s="3">
+        <f t="shared" ref="Z26:Z36" si="11">1/($Y$3*Y26)</f>
         <v>2.9761904761904758</v>
       </c>
-      <c r="V26" s="20">
-        <f t="shared" ref="V26:V36" si="10">(T26*$T$3 - $P26*$P$3)/($P26*$P$3)</f>
+      <c r="AA26" s="20">
+        <f t="shared" ref="AA26:AA36" si="12">(Y26*$Y$3 - $P26*$P$3)/($P26*$P$3)</f>
         <v>-0.42307692307692307</v>
       </c>
-      <c r="W26" s="9"/>
-    </row>
-    <row r="27" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="AB26" s="9"/>
+    </row>
+    <row r="27" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B27" s="8"/>
       <c r="C27" t="s">
         <v>39</v>
@@ -2045,11 +2352,11 @@
         <v>0.44500000000000001</v>
       </c>
       <c r="L27" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.74906367041198507</v>
       </c>
       <c r="M27" s="20">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1.4450549450549448</v>
       </c>
       <c r="N27" s="9"/>
@@ -2058,24 +2365,37 @@
         <v>0.21</v>
       </c>
       <c r="Q27" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.8315018315018314</v>
       </c>
       <c r="R27" s="9"/>
+      <c r="S27" s="8"/>
       <c r="T27" s="3">
+        <v>0.17899999999999999</v>
+      </c>
+      <c r="U27" s="3">
+        <f t="shared" si="4"/>
+        <v>1.6207113950597474</v>
+      </c>
+      <c r="V27" s="20">
+        <f t="shared" si="5"/>
+        <v>0.13006043956043953</v>
+      </c>
+      <c r="W27" s="9"/>
+      <c r="Y27" s="3">
         <v>0.105</v>
       </c>
-      <c r="U27" s="3">
-        <f t="shared" si="9"/>
+      <c r="Z27" s="3">
+        <f t="shared" si="11"/>
         <v>2.9761904761904758</v>
       </c>
-      <c r="V27" s="20">
-        <f t="shared" si="10"/>
+      <c r="AA27" s="20">
+        <f t="shared" si="12"/>
         <v>-0.38461538461538464</v>
       </c>
-      <c r="W27" s="9"/>
-    </row>
-    <row r="28" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="AB27" s="9"/>
+    </row>
+    <row r="28" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B28" s="8"/>
       <c r="C28" t="s">
         <v>40</v>
@@ -2099,11 +2419,11 @@
         <v>0.44500000000000001</v>
       </c>
       <c r="L28" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.74906367041198507</v>
       </c>
       <c r="M28" s="20">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>2.5657051282051277</v>
       </c>
       <c r="N28" s="9"/>
@@ -2112,24 +2432,37 @@
         <v>0.14399999999999999</v>
       </c>
       <c r="Q28" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2.6709401709401708</v>
       </c>
       <c r="R28" s="9"/>
+      <c r="S28" s="8"/>
       <c r="T28" s="3">
+        <v>0.129</v>
+      </c>
+      <c r="U28" s="3">
+        <f t="shared" si="4"/>
+        <v>2.2488941063232155</v>
+      </c>
+      <c r="V28" s="20">
+        <f t="shared" si="5"/>
+        <v>0.18766826923076929</v>
+      </c>
+      <c r="W28" s="9"/>
+      <c r="Y28" s="3">
         <v>0.11700000000000001</v>
       </c>
-      <c r="U28" s="3">
-        <f t="shared" si="9"/>
+      <c r="Z28" s="3">
+        <f t="shared" si="11"/>
         <v>2.6709401709401703</v>
       </c>
-      <c r="V28" s="20">
-        <f t="shared" si="10"/>
+      <c r="AA28" s="20">
+        <f t="shared" si="12"/>
         <v>1.4826696375870145E-16</v>
       </c>
-      <c r="W28" s="9"/>
-    </row>
-    <row r="29" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="AB28" s="9"/>
+    </row>
+    <row r="29" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B29" s="8"/>
       <c r="C29" t="s">
         <v>41</v>
@@ -2153,11 +2486,11 @@
         <v>0.44500000000000001</v>
       </c>
       <c r="L29" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.74906367041198507</v>
       </c>
       <c r="M29" s="20">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.4223311314724057</v>
       </c>
       <c r="N29" s="9"/>
@@ -2166,24 +2499,37 @@
         <v>0.36099999999999999</v>
       </c>
       <c r="Q29" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.0654165778819518</v>
       </c>
       <c r="R29" s="9"/>
+      <c r="S29" s="8"/>
       <c r="T29" s="3">
+        <v>0.28899999999999998</v>
+      </c>
+      <c r="U29" s="3">
+        <f t="shared" si="4"/>
+        <v>1.0038316253138229</v>
+      </c>
+      <c r="V29" s="20">
+        <f t="shared" si="5"/>
+        <v>6.1349882804176373E-2</v>
+      </c>
+      <c r="W29" s="9"/>
+      <c r="Y29" s="3">
         <v>0.21</v>
       </c>
-      <c r="U29" s="3">
-        <f t="shared" si="9"/>
+      <c r="Z29" s="3">
+        <f t="shared" si="11"/>
         <v>1.4880952380952379</v>
       </c>
-      <c r="V29" s="20">
-        <f t="shared" si="10"/>
+      <c r="AA29" s="20">
+        <f t="shared" si="12"/>
         <v>-0.28404005966332829</v>
       </c>
-      <c r="W29" s="9"/>
-    </row>
-    <row r="30" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="AB29" s="9"/>
+    </row>
+    <row r="30" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B30" s="8"/>
       <c r="C30" t="s">
         <v>42</v>
@@ -2207,11 +2553,11 @@
         <v>0.44500000000000001</v>
       </c>
       <c r="L30" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.74906367041198507</v>
       </c>
       <c r="M30" s="20">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>3.5439074200136145</v>
       </c>
       <c r="N30" s="9"/>
@@ -2220,24 +2566,37 @@
         <v>0.113</v>
       </c>
       <c r="Q30" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>3.4036759700476513</v>
       </c>
       <c r="R30" s="9"/>
+      <c r="S30" s="8"/>
       <c r="T30" s="3">
+        <v>0.10100000000000001</v>
+      </c>
+      <c r="U30" s="3">
+        <f t="shared" si="4"/>
+        <v>2.8723498981751958</v>
+      </c>
+      <c r="V30" s="20">
+        <f t="shared" si="5"/>
+        <v>0.18497957794417982</v>
+      </c>
+      <c r="W30" s="9"/>
+      <c r="Y30" s="3">
         <v>9.8000000000000004E-2</v>
       </c>
-      <c r="U30" s="3">
-        <f t="shared" si="9"/>
+      <c r="Z30" s="3">
+        <f t="shared" si="11"/>
         <v>3.1887755102040813</v>
       </c>
-      <c r="V30" s="20">
-        <f t="shared" si="10"/>
+      <c r="AA30" s="20">
+        <f t="shared" si="12"/>
         <v>6.739278420694364E-2</v>
       </c>
-      <c r="W30" s="9"/>
-    </row>
-    <row r="31" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="AB30" s="9"/>
+    </row>
+    <row r="31" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B31" s="8"/>
       <c r="C31" t="s">
         <v>43</v>
@@ -2261,11 +2620,11 @@
         <v>0.44500000000000001</v>
       </c>
       <c r="L31" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.74906367041198507</v>
       </c>
       <c r="M31" s="20">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.52362474320931274</v>
       </c>
       <c r="N31" s="9"/>
@@ -2274,24 +2633,37 @@
         <v>0.33700000000000002</v>
       </c>
       <c r="Q31" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.1412919424788859</v>
       </c>
       <c r="R31" s="9"/>
+      <c r="S31" s="8"/>
       <c r="T31" s="3">
+        <v>0.25600000000000001</v>
+      </c>
+      <c r="U31" s="3">
+        <f t="shared" si="4"/>
+        <v>1.1332317957644329</v>
+      </c>
+      <c r="V31" s="20">
+        <f t="shared" si="5"/>
+        <v>7.1125313855283081E-3</v>
+      </c>
+      <c r="W31" s="9"/>
+      <c r="Y31" s="3">
         <v>0.21</v>
       </c>
-      <c r="U31" s="3">
-        <f t="shared" si="9"/>
+      <c r="Z31" s="3">
+        <f t="shared" si="11"/>
         <v>1.4880952380952379</v>
       </c>
-      <c r="V31" s="20">
-        <f t="shared" si="10"/>
+      <c r="AA31" s="20">
+        <f t="shared" si="12"/>
         <v>-0.23305181465418856</v>
       </c>
-      <c r="W31" s="9"/>
-    </row>
-    <row r="32" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="AB31" s="9"/>
+    </row>
+    <row r="32" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B32" s="8"/>
       <c r="C32" t="s">
         <v>15</v>
@@ -2315,11 +2687,11 @@
         <v>0.58399999999999996</v>
       </c>
       <c r="L32" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.57077625570776258</v>
       </c>
       <c r="M32" s="20">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>4.4784240150093799</v>
       </c>
       <c r="N32" s="9"/>
@@ -2328,24 +2700,37 @@
         <v>0.123</v>
       </c>
       <c r="Q32" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>3.1269543464665412</v>
       </c>
       <c r="R32" s="9"/>
+      <c r="S32" s="8"/>
       <c r="T32" s="3">
+        <v>0.106</v>
+      </c>
+      <c r="U32" s="3">
+        <f t="shared" si="4"/>
+        <v>2.7368616954310832</v>
+      </c>
+      <c r="V32" s="20">
+        <f t="shared" si="5"/>
+        <v>0.14253283302063774</v>
+      </c>
+      <c r="W32" s="9"/>
+      <c r="Y32" s="3">
         <v>0.104</v>
       </c>
-      <c r="U32" s="3">
-        <f t="shared" si="9"/>
+      <c r="Z32" s="3">
+        <f t="shared" si="11"/>
         <v>3.0048076923076925</v>
       </c>
-      <c r="V32" s="20">
-        <f t="shared" si="10"/>
+      <c r="AA32" s="20">
+        <f t="shared" si="12"/>
         <v>4.0650406504064901E-2</v>
       </c>
-      <c r="W32" s="9"/>
-    </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="AB32" s="9"/>
+    </row>
+    <row r="33" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B33" s="8"/>
       <c r="C33" t="s">
         <v>16</v>
@@ -2366,24 +2751,29 @@
         <v>0.38500000000000001</v>
       </c>
       <c r="Q33" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.99900099900099892</v>
       </c>
       <c r="R33" s="9"/>
-      <c r="T33" s="3">
+      <c r="S33" s="8"/>
+      <c r="T33" s="3"/>
+      <c r="U33" s="3"/>
+      <c r="V33" s="20"/>
+      <c r="W33" s="9"/>
+      <c r="Y33" s="3">
         <v>0.313</v>
       </c>
-      <c r="U33" s="3">
-        <f t="shared" si="9"/>
+      <c r="Z33" s="3">
+        <f t="shared" si="11"/>
         <v>0.99840255591054305</v>
       </c>
-      <c r="V33" s="20">
-        <f t="shared" si="10"/>
+      <c r="AA33" s="20">
+        <f t="shared" si="12"/>
         <v>5.9940059940053337E-4</v>
       </c>
-      <c r="W33" s="9"/>
-    </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="AB33" s="9"/>
+    </row>
+    <row r="34" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B34" s="8"/>
       <c r="C34" t="s">
         <v>17</v>
@@ -2400,24 +2790,27 @@
         <v>0.38500000000000001</v>
       </c>
       <c r="Q34" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.99900099900099892</v>
       </c>
       <c r="R34" s="9"/>
-      <c r="T34" s="3">
+      <c r="S34" s="8"/>
+      <c r="T34" s="3"/>
+      <c r="W34" s="9"/>
+      <c r="Y34" s="3">
         <v>0.313</v>
       </c>
-      <c r="U34" s="3">
-        <f t="shared" si="9"/>
+      <c r="Z34" s="3">
+        <f t="shared" si="11"/>
         <v>0.99840255591054305</v>
       </c>
-      <c r="V34" s="20">
-        <f t="shared" si="10"/>
+      <c r="AA34" s="20">
+        <f t="shared" si="12"/>
         <v>5.9940059940053337E-4</v>
       </c>
-      <c r="W34" s="9"/>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="AB34" s="9"/>
+    </row>
+    <row r="35" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B35" s="8"/>
       <c r="C35" t="s">
         <v>32</v>
@@ -2434,24 +2827,27 @@
         <v>0.38500000000000001</v>
       </c>
       <c r="Q35" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.99900099900099892</v>
       </c>
       <c r="R35" s="9"/>
-      <c r="T35" s="3">
+      <c r="S35" s="8"/>
+      <c r="T35" s="3"/>
+      <c r="W35" s="9"/>
+      <c r="Y35" s="3">
         <v>0.313</v>
       </c>
-      <c r="U35" s="3">
-        <f t="shared" si="9"/>
+      <c r="Z35" s="3">
+        <f t="shared" si="11"/>
         <v>0.99840255591054305</v>
       </c>
-      <c r="V35" s="20">
-        <f t="shared" si="10"/>
+      <c r="AA35" s="20">
+        <f t="shared" si="12"/>
         <v>5.9940059940053337E-4</v>
       </c>
-      <c r="W35" s="9"/>
-    </row>
-    <row r="36" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="AB35" s="9"/>
+    </row>
+    <row r="36" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B36" s="8"/>
       <c r="C36" t="s">
         <v>18</v>
@@ -2468,24 +2864,27 @@
         <v>0.38500000000000001</v>
       </c>
       <c r="Q36" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.99900099900099892</v>
       </c>
       <c r="R36" s="9"/>
-      <c r="T36" s="3">
+      <c r="S36" s="8"/>
+      <c r="T36" s="3"/>
+      <c r="W36" s="9"/>
+      <c r="Y36" s="3">
         <v>0.314</v>
       </c>
-      <c r="U36" s="3">
-        <f t="shared" si="9"/>
+      <c r="Z36" s="3">
+        <f t="shared" si="11"/>
         <v>0.99522292993630557</v>
       </c>
-      <c r="V36" s="20">
-        <f t="shared" si="10"/>
+      <c r="AA36" s="20">
+        <f t="shared" si="12"/>
         <v>3.7962037962038214E-3</v>
       </c>
-      <c r="W36" s="9"/>
-    </row>
-    <row r="37" spans="2:23" ht="3.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AB36" s="9"/>
+    </row>
+    <row r="37" spans="2:28" ht="3.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="10"/>
       <c r="C37" s="11"/>
       <c r="D37" s="13"/>
@@ -2503,13 +2902,18 @@
       <c r="P37" s="12"/>
       <c r="Q37" s="12"/>
       <c r="R37" s="13"/>
-      <c r="S37" s="12"/>
+      <c r="S37" s="10"/>
       <c r="T37" s="12"/>
       <c r="U37" s="12"/>
       <c r="V37" s="12"/>
       <c r="W37" s="13"/>
-    </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="X37" s="12"/>
+      <c r="Y37" s="12"/>
+      <c r="Z37" s="12"/>
+      <c r="AA37" s="12"/>
+      <c r="AB37" s="13"/>
+    </row>
+    <row r="39" spans="2:28" x14ac:dyDescent="0.25">
       <c r="C39" s="1" t="s">
         <v>33</v>
       </c>
@@ -2529,8 +2933,12 @@
         <f>(T12-T11)/T11</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="Y39" s="21">
+        <f>(Y12-Y11)/Y11</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="2:28" x14ac:dyDescent="0.25">
       <c r="C40" s="1" t="s">
         <v>34</v>
       </c>
@@ -2548,27 +2956,33 @@
       </c>
       <c r="T40" s="21">
         <f>(T24-T19)/T19</f>
+        <v>0.43617021276595752</v>
+      </c>
+      <c r="Y40" s="21">
+        <f>(Y24-Y19)/Y19</f>
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:28" x14ac:dyDescent="0.25">
       <c r="C42" s="1" t="s">
         <v>37</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="T2:V2"/>
-    <mergeCell ref="T3:V3"/>
+  <mergeCells count="10">
+    <mergeCell ref="Y2:AA2"/>
+    <mergeCell ref="Y3:AA3"/>
     <mergeCell ref="P2:Q2"/>
     <mergeCell ref="P3:Q3"/>
     <mergeCell ref="F2:H2"/>
     <mergeCell ref="F3:H3"/>
     <mergeCell ref="K2:M2"/>
     <mergeCell ref="K3:M3"/>
+    <mergeCell ref="T2:V2"/>
+    <mergeCell ref="T3:V3"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="94" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="78" orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;A</oddHeader>
   </headerFooter>

--- a/analysis.xlsx
+++ b/analysis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\shared\arm-instruction-time\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06A64B06-80A8-42D8-A7DF-A5BAE16A0DE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{469CC024-B06A-45F8-A300-C54E226002D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9750" yWindow="2115" windowWidth="22575" windowHeight="18735" xr2:uid="{D46DF09C-373D-4B8F-933A-76CBCC1CC5EF}"/>
+    <workbookView xWindow="8745" yWindow="2220" windowWidth="22575" windowHeight="18735" xr2:uid="{D46DF09C-373D-4B8F-933A-76CBCC1CC5EF}"/>
   </bookViews>
   <sheets>
     <sheet name="Ignoring empty loop time" sheetId="1" r:id="rId1"/>
@@ -747,7 +747,7 @@
   <dimension ref="B1:AB42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T3" sqref="T3:V3"/>
+      <selection activeCell="U11" sqref="U11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -837,7 +837,7 @@
       <c r="R3" s="9"/>
       <c r="S3" s="8"/>
       <c r="T3" s="23">
-        <v>3.4470000000000001</v>
+        <v>3.3</v>
       </c>
       <c r="U3" s="23"/>
       <c r="V3" s="23"/>
@@ -968,11 +968,11 @@
       </c>
       <c r="U6" s="3">
         <f>1/($T$3*T6)</f>
-        <v>10.003701369506716</v>
+        <v>10.449320794148381</v>
       </c>
       <c r="V6" s="20">
         <f>(T6*$T$3 - $P6*$P$3)/($P6*$P$3)</f>
-        <v>6.7980769230769303E-2</v>
+        <v>2.2435897435897335E-2</v>
       </c>
       <c r="W6" s="9"/>
       <c r="Y6" s="3">
@@ -1035,11 +1035,11 @@
       </c>
       <c r="U7" s="3">
         <f t="shared" ref="U7:U32" si="4">1/($T$3*T7)</f>
-        <v>3.6263417464461849</v>
+        <v>3.7878787878787876</v>
       </c>
       <c r="V7" s="20">
         <f t="shared" ref="V7:V32" si="5">(T7*$T$3 - $P7*$P$3)/($P7*$P$3)</f>
-        <v>7.1328671328671281E-2</v>
+        <v>2.5641025641025619E-2</v>
       </c>
       <c r="W7" s="9"/>
       <c r="Y7" s="3">
@@ -1102,11 +1102,11 @@
       </c>
       <c r="U8" s="3">
         <f t="shared" si="4"/>
-        <v>3.4952691532011424</v>
+        <v>3.6509675063891933</v>
       </c>
       <c r="V8" s="20">
         <f t="shared" si="5"/>
-        <v>0.1115034965034964</v>
+        <v>6.4102564102563944E-2</v>
       </c>
       <c r="W8" s="9"/>
       <c r="Y8" s="3">
@@ -1169,11 +1169,11 @@
       </c>
       <c r="U9" s="3">
         <f t="shared" si="4"/>
-        <v>2.3395753202878611</v>
+        <v>2.443792766373412</v>
       </c>
       <c r="V9" s="20">
         <f t="shared" si="5"/>
-        <v>0.25492660011743984</v>
+        <v>0.20140927774515541</v>
       </c>
       <c r="W9" s="9"/>
       <c r="Y9" s="3">
@@ -1236,11 +1236,11 @@
       </c>
       <c r="U10" s="3">
         <f t="shared" si="4"/>
-        <v>0.93885870458153653</v>
+        <v>0.98068059233107796</v>
       </c>
       <c r="V10" s="20">
         <f>(T10*$T$3 - $P10*$P$3)/($P10*$P$3)</f>
-        <v>5.583168120539244E-2</v>
+        <v>1.0804916732751474E-2</v>
       </c>
       <c r="W10" s="9"/>
       <c r="Y10" s="3">
@@ -1303,11 +1303,11 @@
       </c>
       <c r="U11" s="3">
         <f t="shared" si="4"/>
-        <v>1.9086009191822029</v>
+        <v>1.9936204146730465</v>
       </c>
       <c r="V11" s="20">
         <f t="shared" si="5"/>
-        <v>4.4129135113590956E-2</v>
+        <v>-3.9856516540472098E-4</v>
       </c>
       <c r="W11" s="9"/>
       <c r="Y11" s="19">
@@ -1370,11 +1370,11 @@
       </c>
       <c r="U12" s="3">
         <f t="shared" si="4"/>
-        <v>1.9086009191822029</v>
+        <v>1.9936204146730465</v>
       </c>
       <c r="V12" s="20">
         <f t="shared" si="5"/>
-        <v>4.4129135113590956E-2</v>
+        <v>-3.9856516540472098E-4</v>
       </c>
       <c r="W12" s="9"/>
       <c r="Y12" s="19">
@@ -1437,11 +1437,11 @@
       </c>
       <c r="U13" s="3">
         <f t="shared" si="4"/>
-        <v>0.15905007659851689</v>
+        <v>0.16613503455608719</v>
       </c>
       <c r="V13" s="20">
         <f t="shared" si="5"/>
-        <v>4.6388176946376869E-2</v>
+        <v>1.7641380687679785E-3</v>
       </c>
       <c r="W13" s="9"/>
       <c r="Y13" s="3">
@@ -1504,11 +1504,11 @@
       </c>
       <c r="U14" s="3">
         <f t="shared" si="4"/>
-        <v>1.9086009191822029</v>
+        <v>1.9936204146730465</v>
       </c>
       <c r="V14" s="20">
         <f t="shared" si="5"/>
-        <v>4.4129135113590956E-2</v>
+        <v>-3.9856516540472098E-4</v>
       </c>
       <c r="W14" s="9"/>
       <c r="Y14" s="3">
@@ -1571,11 +1571,11 @@
       </c>
       <c r="U15" s="3">
         <f t="shared" si="4"/>
-        <v>1.2189384021667851</v>
+        <v>1.2732365673542145</v>
       </c>
       <c r="V15" s="20">
         <f t="shared" si="5"/>
-        <v>7.3241758241758215E-2</v>
+        <v>2.7472527472527354E-2</v>
       </c>
       <c r="W15" s="9"/>
       <c r="Y15" s="3">
@@ -1638,11 +1638,11 @@
       </c>
       <c r="U16" s="3">
         <f t="shared" si="4"/>
-        <v>3.0537614706915241</v>
+        <v>3.1897926634768741</v>
       </c>
       <c r="V16" s="20">
         <f t="shared" si="5"/>
-        <v>0.19950549450549443</v>
+        <v>0.14835164835164827</v>
       </c>
       <c r="W16" s="9"/>
       <c r="Y16" s="3">
@@ -1705,11 +1705,11 @@
       </c>
       <c r="U17" s="3">
         <f t="shared" si="4"/>
-        <v>2.8441896050558317</v>
+        <v>2.9708853238265007</v>
       </c>
       <c r="V17" s="20">
         <f t="shared" si="5"/>
-        <v>0.28789010989010966</v>
+        <v>0.23296703296703272</v>
       </c>
       <c r="W17" s="9"/>
       <c r="Y17" s="3">
@@ -1772,11 +1772,11 @@
       </c>
       <c r="U18" s="3">
         <f t="shared" si="4"/>
-        <v>2.9303771688454017</v>
+        <v>3.0609121518212428</v>
       </c>
       <c r="V18" s="20">
         <f t="shared" si="5"/>
-        <v>0.27428304705003753</v>
+        <v>0.21994025392083649</v>
       </c>
       <c r="W18" s="9"/>
       <c r="Y18" s="3">
@@ -1839,11 +1839,11 @@
       </c>
       <c r="U19" s="3">
         <f t="shared" si="4"/>
-        <v>1.5431241474239084</v>
+        <v>1.6118633139909737</v>
       </c>
       <c r="V19" s="20">
         <f t="shared" si="5"/>
-        <v>0.27165620094191523</v>
+        <v>0.21742543171114578</v>
       </c>
       <c r="W19" s="9"/>
       <c r="Y19" s="19">
@@ -1906,11 +1906,11 @@
       </c>
       <c r="U20" s="3">
         <f t="shared" si="4"/>
-        <v>1.8596624340749668</v>
+        <v>1.9425019425019427</v>
       </c>
       <c r="V20" s="20">
         <f t="shared" si="5"/>
-        <v>6.0615384615384578E-2</v>
+        <v>1.5384615384615222E-2</v>
       </c>
       <c r="W20" s="9"/>
       <c r="Y20" s="3">
@@ -1973,11 +1973,11 @@
       </c>
       <c r="U21" s="3">
         <f t="shared" si="4"/>
-        <v>2.7368616954310832</v>
+        <v>2.8587764436821046</v>
       </c>
       <c r="V21" s="20">
         <f t="shared" si="5"/>
-        <v>7.275983558426298E-2</v>
+        <v>2.7011156782148944E-2</v>
       </c>
       <c r="W21" s="9"/>
       <c r="Y21" s="3">
@@ -2040,11 +2040,11 @@
       </c>
       <c r="U22" s="3">
         <f t="shared" si="4"/>
-        <v>2.5673215904043789</v>
+        <v>2.6816840976133012</v>
       </c>
       <c r="V22" s="20">
         <f t="shared" si="5"/>
-        <v>0.14360246623605397</v>
+        <v>9.4832648267762748E-2</v>
       </c>
       <c r="W22" s="9"/>
       <c r="Y22" s="3">
@@ -2107,11 +2107,11 @@
       </c>
       <c r="U23" s="3">
         <f t="shared" si="4"/>
-        <v>2.4378768043335701</v>
+        <v>2.5464731347084291</v>
       </c>
       <c r="V23" s="20">
         <f t="shared" si="5"/>
-        <v>8.0592729188619552E-2</v>
+        <v>3.4510010537407654E-2</v>
       </c>
       <c r="W23" s="9"/>
       <c r="Y23" s="3">
@@ -2174,11 +2174,11 @@
       </c>
       <c r="U24" s="3">
         <f t="shared" si="4"/>
-        <v>1.0744716285766474</v>
+        <v>1.122334455667789</v>
       </c>
       <c r="V24" s="20">
         <f t="shared" si="5"/>
-        <v>5.2816742081447966E-2</v>
+        <v>7.9185520361989749E-3</v>
       </c>
       <c r="W24" s="9"/>
       <c r="Y24" s="19">
@@ -2241,11 +2241,11 @@
       </c>
       <c r="U25" s="3">
         <f t="shared" si="4"/>
-        <v>1.0824900735660252</v>
+        <v>1.1307100859339665</v>
       </c>
       <c r="V25" s="20">
         <f t="shared" si="5"/>
-        <v>4.8100748808713394E-2</v>
+        <v>3.4036759700475281E-3</v>
       </c>
       <c r="W25" s="9"/>
       <c r="Y25" s="3">
@@ -2308,11 +2308,11 @@
       </c>
       <c r="U26" s="3">
         <f t="shared" si="4"/>
-        <v>1.6207113950597474</v>
+        <v>1.692906720839682</v>
       </c>
       <c r="V26" s="20">
         <f t="shared" si="5"/>
-        <v>5.943166208791209E-2</v>
+        <v>1.425137362637339E-2</v>
       </c>
       <c r="W26" s="9"/>
       <c r="Y26" s="3">
@@ -2375,11 +2375,11 @@
       </c>
       <c r="U27" s="3">
         <f t="shared" si="4"/>
-        <v>1.6207113950597474</v>
+        <v>1.692906720839682</v>
       </c>
       <c r="V27" s="20">
         <f t="shared" si="5"/>
-        <v>0.13006043956043953</v>
+        <v>8.1868131868131591E-2</v>
       </c>
       <c r="W27" s="9"/>
       <c r="Y27" s="3">
@@ -2442,11 +2442,11 @@
       </c>
       <c r="U28" s="3">
         <f t="shared" si="4"/>
-        <v>2.2488941063232155</v>
+        <v>2.3490721165139772</v>
       </c>
       <c r="V28" s="20">
         <f t="shared" si="5"/>
-        <v>0.18766826923076929</v>
+        <v>0.13701923076923064</v>
       </c>
       <c r="W28" s="9"/>
       <c r="Y28" s="3">
@@ -2509,11 +2509,11 @@
       </c>
       <c r="U29" s="3">
         <f t="shared" si="4"/>
-        <v>1.0038316253138229</v>
+        <v>1.0485477613505296</v>
       </c>
       <c r="V29" s="20">
         <f t="shared" si="5"/>
-        <v>6.1349882804176373E-2</v>
+        <v>1.6087790326017357E-2</v>
       </c>
       <c r="W29" s="9"/>
       <c r="Y29" s="3">
@@ -2576,11 +2576,11 @@
       </c>
       <c r="U30" s="3">
         <f t="shared" si="4"/>
-        <v>2.8723498981751958</v>
+        <v>3.0003000300030003</v>
       </c>
       <c r="V30" s="20">
         <f t="shared" si="5"/>
-        <v>0.18497957794417982</v>
+        <v>0.13444520081688216</v>
       </c>
       <c r="W30" s="9"/>
       <c r="Y30" s="3">
@@ -2643,11 +2643,11 @@
       </c>
       <c r="U31" s="3">
         <f t="shared" si="4"/>
-        <v>1.1332317957644329</v>
+        <v>1.1837121212121213</v>
       </c>
       <c r="V31" s="20">
         <f t="shared" si="5"/>
-        <v>7.1125313855283081E-3</v>
+        <v>-3.5836566993837131E-2</v>
       </c>
       <c r="W31" s="9"/>
       <c r="Y31" s="3">
@@ -2710,11 +2710,11 @@
       </c>
       <c r="U32" s="3">
         <f t="shared" si="4"/>
-        <v>2.7368616954310832</v>
+        <v>2.8587764436821046</v>
       </c>
       <c r="V32" s="20">
         <f t="shared" si="5"/>
-        <v>0.14253283302063774</v>
+        <v>9.3808630393995979E-2</v>
       </c>
       <c r="W32" s="9"/>
       <c r="Y32" s="3">

--- a/analysis.xlsx
+++ b/analysis.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\shared\arm-instruction-time\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thierry/Devel/arm-instruction-time/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{469CC024-B06A-45F8-A300-C54E226002D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6406F677-0B02-1841-A6BB-163769D744F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8745" yWindow="2220" windowWidth="22575" windowHeight="18735" xr2:uid="{D46DF09C-373D-4B8F-933A-76CBCC1CC5EF}"/>
+    <workbookView xWindow="11040" yWindow="3040" windowWidth="29000" windowHeight="18740" xr2:uid="{D46DF09C-373D-4B8F-933A-76CBCC1CC5EF}"/>
   </bookViews>
   <sheets>
     <sheet name="Ignoring empty loop time" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="46">
   <si>
     <t>Apple M1</t>
   </si>
@@ -183,6 +183,9 @@
   </si>
   <si>
     <t>Neoverse V2</t>
+  </si>
+  <si>
+    <t>Apple M3</t>
   </si>
 </sst>
 </file>
@@ -744,31 +747,33 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:AB42"/>
+  <dimension ref="B1:AG42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U11" sqref="U11"/>
+      <selection activeCell="AD4" sqref="AD4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="1.140625" customWidth="1"/>
-    <col min="3" max="3" width="29.85546875" style="1" customWidth="1"/>
-    <col min="4" max="5" width="1.140625" customWidth="1"/>
-    <col min="6" max="8" width="8.7109375" customWidth="1"/>
-    <col min="9" max="10" width="1.140625" customWidth="1"/>
-    <col min="11" max="13" width="8.7109375" customWidth="1"/>
-    <col min="14" max="15" width="1.140625" customWidth="1"/>
-    <col min="16" max="17" width="8.7109375" customWidth="1"/>
-    <col min="18" max="19" width="1.140625" customWidth="1"/>
-    <col min="20" max="22" width="8.7109375" customWidth="1"/>
-    <col min="23" max="24" width="1.140625" customWidth="1"/>
-    <col min="25" max="27" width="8.7109375" customWidth="1"/>
-    <col min="28" max="28" width="1.140625" customWidth="1"/>
+    <col min="1" max="2" width="1.1640625" customWidth="1"/>
+    <col min="3" max="3" width="29.83203125" style="1" customWidth="1"/>
+    <col min="4" max="5" width="1.1640625" customWidth="1"/>
+    <col min="6" max="8" width="8.6640625" customWidth="1"/>
+    <col min="9" max="10" width="1.1640625" customWidth="1"/>
+    <col min="11" max="13" width="8.6640625" customWidth="1"/>
+    <col min="14" max="15" width="1.1640625" customWidth="1"/>
+    <col min="16" max="17" width="8.6640625" customWidth="1"/>
+    <col min="18" max="19" width="1.1640625" customWidth="1"/>
+    <col min="20" max="22" width="8.6640625" customWidth="1"/>
+    <col min="23" max="24" width="1.1640625" customWidth="1"/>
+    <col min="25" max="27" width="8.6640625" customWidth="1"/>
+    <col min="28" max="29" width="1.1640625" customWidth="1"/>
+    <col min="30" max="32" width="8.6640625" customWidth="1"/>
+    <col min="33" max="33" width="1.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:28" ht="3.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:33" ht="4" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="4"/>
       <c r="C2" s="5" t="s">
         <v>19</v>
@@ -808,8 +813,15 @@
       <c r="Z2" s="22"/>
       <c r="AA2" s="22"/>
       <c r="AB2" s="7"/>
-    </row>
-    <row r="3" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="AC2" s="6"/>
+      <c r="AD2" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE2" s="22"/>
+      <c r="AF2" s="22"/>
+      <c r="AG2" s="7"/>
+    </row>
+    <row r="3" spans="2:33" ht="16" x14ac:dyDescent="0.2">
       <c r="B3" s="8"/>
       <c r="C3" s="2" t="s">
         <v>21</v>
@@ -848,8 +860,14 @@
       <c r="Z3" s="23"/>
       <c r="AA3" s="23"/>
       <c r="AB3" s="9"/>
-    </row>
-    <row r="4" spans="2:28" ht="30" x14ac:dyDescent="0.25">
+      <c r="AD3" s="23">
+        <v>4</v>
+      </c>
+      <c r="AE3" s="23"/>
+      <c r="AF3" s="23"/>
+      <c r="AG3" s="9"/>
+    </row>
+    <row r="4" spans="2:33" ht="16" x14ac:dyDescent="0.2">
       <c r="B4" s="14"/>
       <c r="C4" s="15" t="s">
         <v>35</v>
@@ -907,8 +925,19 @@
         <v>36</v>
       </c>
       <c r="AB4" s="16"/>
-    </row>
-    <row r="5" spans="2:28" ht="3.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC4" s="18"/>
+      <c r="AD4" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="AE4" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="AF4" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="AG4" s="16"/>
+    </row>
+    <row r="5" spans="2:33" ht="4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="8"/>
       <c r="D5" s="9"/>
       <c r="E5" s="8"/>
@@ -920,8 +949,9 @@
       <c r="S5" s="8"/>
       <c r="W5" s="9"/>
       <c r="AB5" s="9"/>
-    </row>
-    <row r="6" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="AG5" s="9"/>
+    </row>
+    <row r="6" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B6" s="8"/>
       <c r="C6" t="s">
         <v>4</v>
@@ -987,8 +1017,20 @@
         <v>0.53846153846153832</v>
       </c>
       <c r="AB6" s="9"/>
-    </row>
-    <row r="7" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="AD6" s="3">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="AE6" s="3">
+        <f>1/($AD$3*AD6)</f>
+        <v>7.8125</v>
+      </c>
+      <c r="AF6" s="20">
+        <f>(AD6*$AD$3 - $P6*$P$3)/($P6*$P$3)</f>
+        <v>0.36752136752136749</v>
+      </c>
+      <c r="AG6" s="9"/>
+    </row>
+    <row r="7" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B7" s="8"/>
       <c r="C7" t="s">
         <v>5</v>
@@ -1054,8 +1096,20 @@
         <v>-0.1297591297591297</v>
       </c>
       <c r="AB7" s="9"/>
-    </row>
-    <row r="8" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="AD7" s="3">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="AE7" s="3">
+        <f t="shared" ref="AE7:AE32" si="8">1/($AD$3*AD7)</f>
+        <v>6.5789473684210531</v>
+      </c>
+      <c r="AF7" s="20">
+        <f t="shared" ref="AF7:AF32" si="9">(AD7*$AD$3 - $P7*$P$3)/($P7*$P$3)</f>
+        <v>-0.40947940947940953</v>
+      </c>
+      <c r="AG7" s="9"/>
+    </row>
+    <row r="8" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B8" s="8"/>
       <c r="C8" t="s">
         <v>6</v>
@@ -1092,7 +1146,7 @@
         <v>9.9000000000000005E-2</v>
       </c>
       <c r="Q8" s="3">
-        <f t="shared" ref="Q8:Q36" si="8">1/($P$3*P8)</f>
+        <f t="shared" ref="Q8:Q36" si="10">1/($P$3*P8)</f>
         <v>3.8850038850038846</v>
       </c>
       <c r="R8" s="9"/>
@@ -1121,8 +1175,20 @@
         <v>0.34265734265734266</v>
       </c>
       <c r="AB8" s="9"/>
-    </row>
-    <row r="9" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="AD8" s="3">
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="AE8" s="3">
+        <f t="shared" si="8"/>
+        <v>3.6764705882352939</v>
+      </c>
+      <c r="AF8" s="20">
+        <f t="shared" si="9"/>
+        <v>5.6721056721056727E-2</v>
+      </c>
+      <c r="AG8" s="9"/>
+    </row>
+    <row r="9" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B9" s="8"/>
       <c r="C9" t="s">
         <v>7</v>
@@ -1159,7 +1225,7 @@
         <v>0.13100000000000001</v>
       </c>
       <c r="Q9" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>2.935995302407516</v>
       </c>
       <c r="R9" s="9"/>
@@ -1188,8 +1254,20 @@
         <v>5.2847915443335986E-3</v>
       </c>
       <c r="AB9" s="9"/>
-    </row>
-    <row r="10" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="AD9" s="3">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AE9" s="3">
+        <f t="shared" si="8"/>
+        <v>3.5714285714285712</v>
+      </c>
+      <c r="AF9" s="20">
+        <f t="shared" si="9"/>
+        <v>-0.17792131532589545</v>
+      </c>
+      <c r="AG9" s="9"/>
+    </row>
+    <row r="10" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B10" s="8"/>
       <c r="C10" t="s">
         <v>8</v>
@@ -1226,7 +1304,7 @@
         <v>0.38800000000000001</v>
       </c>
       <c r="Q10" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.99127676447264057</v>
       </c>
       <c r="R10" s="9"/>
@@ -1255,8 +1333,20 @@
         <v>-7.137192704203107E-3</v>
       </c>
       <c r="AB10" s="9"/>
-    </row>
-    <row r="11" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="AD10" s="3">
+        <v>0.253</v>
+      </c>
+      <c r="AE10" s="3">
+        <f t="shared" si="8"/>
+        <v>0.98814229249011853</v>
+      </c>
+      <c r="AF10" s="20">
+        <f t="shared" si="9"/>
+        <v>3.1720856463123208E-3</v>
+      </c>
+      <c r="AG10" s="9"/>
+    </row>
+    <row r="11" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B11" s="8"/>
       <c r="C11" t="s">
         <v>9</v>
@@ -1293,7 +1383,7 @@
         <v>0.193</v>
       </c>
       <c r="Q11" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1.9928258270227182</v>
       </c>
       <c r="R11" s="9"/>
@@ -1322,8 +1412,20 @@
         <v>-5.1813471502590493E-3</v>
       </c>
       <c r="AB11" s="9"/>
-    </row>
-    <row r="12" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="AD11" s="19">
+        <v>0.129</v>
+      </c>
+      <c r="AE11" s="3">
+        <f t="shared" si="8"/>
+        <v>1.9379844961240309</v>
+      </c>
+      <c r="AF11" s="20">
+        <f t="shared" si="9"/>
+        <v>2.829812674372258E-2</v>
+      </c>
+      <c r="AG11" s="9"/>
+    </row>
+    <row r="12" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B12" s="8"/>
       <c r="C12" t="s">
         <v>10</v>
@@ -1360,7 +1462,7 @@
         <v>0.193</v>
       </c>
       <c r="Q12" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1.9928258270227182</v>
       </c>
       <c r="R12" s="9"/>
@@ -1389,8 +1491,20 @@
         <v>-5.1813471502590493E-3</v>
       </c>
       <c r="AB12" s="9"/>
-    </row>
-    <row r="13" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="AD12" s="19">
+        <v>0.126</v>
+      </c>
+      <c r="AE12" s="3">
+        <f t="shared" si="8"/>
+        <v>1.9841269841269842</v>
+      </c>
+      <c r="AF12" s="20">
+        <f t="shared" si="9"/>
+        <v>4.3842168194499391E-3</v>
+      </c>
+      <c r="AG12" s="9"/>
+    </row>
+    <row r="13" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B13" s="8"/>
       <c r="C13" t="s">
         <v>23</v>
@@ -1427,7 +1541,7 @@
         <v>2.3109999999999999</v>
       </c>
       <c r="Q13" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.16642811969510368</v>
       </c>
       <c r="R13" s="9"/>
@@ -1456,8 +1570,20 @@
         <v>-0.66714376060979264</v>
       </c>
       <c r="AB13" s="9"/>
-    </row>
-    <row r="14" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="AD13" s="3">
+        <v>0.496</v>
+      </c>
+      <c r="AE13" s="3">
+        <f t="shared" si="8"/>
+        <v>0.50403225806451613</v>
+      </c>
+      <c r="AF13" s="20">
+        <f t="shared" si="9"/>
+        <v>-0.6698066105249143</v>
+      </c>
+      <c r="AG13" s="9"/>
+    </row>
+    <row r="14" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B14" s="8"/>
       <c r="C14" t="s">
         <v>11</v>
@@ -1494,7 +1620,7 @@
         <v>0.193</v>
       </c>
       <c r="Q14" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1.9928258270227182</v>
       </c>
       <c r="R14" s="9"/>
@@ -1523,8 +1649,20 @@
         <v>-5.1813471502590493E-3</v>
       </c>
       <c r="AB14" s="9"/>
-    </row>
-    <row r="15" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="AD14" s="3">
+        <v>0.124</v>
+      </c>
+      <c r="AE14" s="3">
+        <f t="shared" si="8"/>
+        <v>2.0161290322580645</v>
+      </c>
+      <c r="AF14" s="20">
+        <f t="shared" si="9"/>
+        <v>-1.155838979673182E-2</v>
+      </c>
+      <c r="AG14" s="9"/>
+    </row>
+    <row r="15" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B15" s="8"/>
       <c r="C15" t="s">
         <v>12</v>
@@ -1561,7 +1699,7 @@
         <v>0.29399999999999998</v>
       </c>
       <c r="Q15" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1.3082155939298796</v>
       </c>
       <c r="R15" s="9"/>
@@ -1590,8 +1728,20 @@
         <v>-0.34275248560962834</v>
       </c>
       <c r="AB15" s="9"/>
-    </row>
-    <row r="16" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="AD15" s="3">
+        <v>0.124</v>
+      </c>
+      <c r="AE15" s="3">
+        <f t="shared" si="8"/>
+        <v>2.0161290322580645</v>
+      </c>
+      <c r="AF15" s="20">
+        <f t="shared" si="9"/>
+        <v>-0.3511250654107797</v>
+      </c>
+      <c r="AG15" s="9"/>
+    </row>
+    <row r="16" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B16" s="8"/>
       <c r="C16" t="s">
         <v>24</v>
@@ -1628,7 +1778,7 @@
         <v>0.105</v>
       </c>
       <c r="Q16" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>3.6630036630036629</v>
       </c>
       <c r="R16" s="9"/>
@@ -1657,8 +1807,20 @@
         <v>0.21904761904761891</v>
       </c>
       <c r="AB16" s="9"/>
-    </row>
-    <row r="17" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="AD16" s="3">
+        <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="AE16" s="3">
+        <f t="shared" si="8"/>
+        <v>3.90625</v>
+      </c>
+      <c r="AF16" s="20">
+        <f t="shared" si="9"/>
+        <v>-6.227106227106232E-2</v>
+      </c>
+      <c r="AG16" s="9"/>
+    </row>
+    <row r="17" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B17" s="8"/>
       <c r="C17" t="s">
         <v>25</v>
@@ -1695,7 +1857,7 @@
         <v>0.105</v>
       </c>
       <c r="Q17" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>3.6630036630036629</v>
       </c>
       <c r="R17" s="9"/>
@@ -1724,8 +1886,20 @@
         <v>0.23076923076923075</v>
       </c>
       <c r="AB17" s="9"/>
-    </row>
-    <row r="18" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="AD17" s="3">
+        <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="AE17" s="3">
+        <f t="shared" si="8"/>
+        <v>3.6231884057971011</v>
+      </c>
+      <c r="AF17" s="20">
+        <f t="shared" si="9"/>
+        <v>1.0989010989010999E-2</v>
+      </c>
+      <c r="AG17" s="9"/>
+    </row>
+    <row r="18" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B18" s="8"/>
       <c r="C18" t="s">
         <v>26</v>
@@ -1762,7 +1936,7 @@
         <v>0.10299999999999999</v>
       </c>
       <c r="Q18" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>3.734129947722181</v>
       </c>
       <c r="R18" s="9"/>
@@ -1791,8 +1965,20 @@
         <v>0.24271844660194178</v>
       </c>
       <c r="AB18" s="9"/>
-    </row>
-    <row r="19" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="AD18" s="3">
+        <v>6.7000000000000004E-2</v>
+      </c>
+      <c r="AE18" s="3">
+        <f t="shared" si="8"/>
+        <v>3.7313432835820892</v>
+      </c>
+      <c r="AF18" s="20">
+        <f t="shared" si="9"/>
+        <v>7.4682598954456121E-4</v>
+      </c>
+      <c r="AG18" s="9"/>
+    </row>
+    <row r="19" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B19" s="8"/>
       <c r="C19" t="s">
         <v>13</v>
@@ -1829,7 +2015,7 @@
         <v>0.19600000000000001</v>
       </c>
       <c r="Q19" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1.9623233908948192</v>
       </c>
       <c r="R19" s="9"/>
@@ -1858,8 +2044,20 @@
         <v>-2.0408163265306159E-2</v>
       </c>
       <c r="AB19" s="9"/>
-    </row>
-    <row r="20" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="AD19" s="19">
+        <v>0.13100000000000001</v>
+      </c>
+      <c r="AE19" s="3">
+        <f t="shared" si="8"/>
+        <v>1.9083969465648853</v>
+      </c>
+      <c r="AF19" s="20">
+        <f t="shared" si="9"/>
+        <v>2.8257456828885336E-2</v>
+      </c>
+      <c r="AG19" s="9"/>
+    </row>
+    <row r="20" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B20" s="8"/>
       <c r="C20" t="s">
         <v>27</v>
@@ -1896,7 +2094,7 @@
         <v>0.19500000000000001</v>
       </c>
       <c r="Q20" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1.9723865877712032</v>
       </c>
       <c r="R20" s="9"/>
@@ -1925,8 +2123,20 @@
         <v>-1.5384615384615332E-2</v>
       </c>
       <c r="AB20" s="9"/>
-    </row>
-    <row r="21" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="AD20" s="3">
+        <v>0.126</v>
+      </c>
+      <c r="AE20" s="3">
+        <f t="shared" si="8"/>
+        <v>1.9841269841269842</v>
+      </c>
+      <c r="AF20" s="20">
+        <f t="shared" si="9"/>
+        <v>-5.9171597633136145E-3</v>
+      </c>
+      <c r="AG20" s="9"/>
+    </row>
+    <row r="21" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B21" s="8"/>
       <c r="C21" t="s">
         <v>28</v>
@@ -1963,7 +2173,7 @@
         <v>0.13100000000000001</v>
       </c>
       <c r="Q21" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>2.935995302407516</v>
       </c>
       <c r="R21" s="9"/>
@@ -1992,8 +2202,20 @@
         <v>-1.3505578391074554E-2</v>
       </c>
       <c r="AB21" s="9"/>
-    </row>
-    <row r="22" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="AD21" s="3">
+        <v>6.6000000000000003E-2</v>
+      </c>
+      <c r="AE21" s="3">
+        <f t="shared" si="8"/>
+        <v>3.7878787878787876</v>
+      </c>
+      <c r="AF21" s="20">
+        <f t="shared" si="9"/>
+        <v>-0.22489724016441573</v>
+      </c>
+      <c r="AG21" s="9"/>
+    </row>
+    <row r="22" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B22" s="8"/>
       <c r="C22" t="s">
         <v>29</v>
@@ -2030,7 +2252,7 @@
         <v>0.13100000000000001</v>
       </c>
       <c r="Q22" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>2.935995302407516</v>
       </c>
       <c r="R22" s="9"/>
@@ -2059,8 +2281,20 @@
         <v>-1.3505578391074554E-2</v>
       </c>
       <c r="AB22" s="9"/>
-    </row>
-    <row r="23" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="AD22" s="3">
+        <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="AE22" s="3">
+        <f t="shared" si="8"/>
+        <v>3.90625</v>
+      </c>
+      <c r="AF22" s="20">
+        <f t="shared" si="9"/>
+        <v>-0.24838520258367588</v>
+      </c>
+      <c r="AG22" s="9"/>
+    </row>
+    <row r="23" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>30</v>
@@ -2097,7 +2331,7 @@
         <v>0.14599999999999999</v>
       </c>
       <c r="Q23" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>2.6343519494204428</v>
       </c>
       <c r="R23" s="9"/>
@@ -2126,8 +2360,20 @@
         <v>-0.12328767123287673</v>
       </c>
       <c r="AB23" s="9"/>
-    </row>
-    <row r="24" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="AD23" s="3">
+        <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="AE23" s="3">
+        <f t="shared" si="8"/>
+        <v>3.90625</v>
+      </c>
+      <c r="AF23" s="20">
+        <f t="shared" si="9"/>
+        <v>-0.32560590094836667</v>
+      </c>
+      <c r="AG23" s="9"/>
+    </row>
+    <row r="24" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B24" s="8"/>
       <c r="C24" t="s">
         <v>14</v>
@@ -2164,7 +2410,7 @@
         <v>0.34</v>
       </c>
       <c r="Q24" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1.1312217194570133</v>
       </c>
       <c r="R24" s="9"/>
@@ -2193,8 +2439,20 @@
         <v>-0.43529411764705889</v>
       </c>
       <c r="AB24" s="9"/>
-    </row>
-    <row r="25" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="AD24" s="19">
+        <v>0.124</v>
+      </c>
+      <c r="AE24" s="3">
+        <f t="shared" si="8"/>
+        <v>2.0161290322580645</v>
+      </c>
+      <c r="AF24" s="20">
+        <f t="shared" si="9"/>
+        <v>-0.43891402714932137</v>
+      </c>
+      <c r="AG24" s="9"/>
+    </row>
+    <row r="25" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B25" s="8"/>
       <c r="C25" t="s">
         <v>31</v>
@@ -2231,7 +2489,7 @@
         <v>0.33900000000000002</v>
       </c>
       <c r="Q25" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1.1345586566825503</v>
       </c>
       <c r="R25" s="9"/>
@@ -2260,8 +2518,20 @@
         <v>-0.4336283185840708</v>
       </c>
       <c r="AB25" s="9"/>
-    </row>
-    <row r="26" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="AD25" s="3">
+        <v>0.124</v>
+      </c>
+      <c r="AE25" s="3">
+        <f t="shared" si="8"/>
+        <v>2.0161290322580645</v>
+      </c>
+      <c r="AF25" s="20">
+        <f t="shared" si="9"/>
+        <v>-0.437258906285455</v>
+      </c>
+      <c r="AG25" s="9"/>
+    </row>
+    <row r="26" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B26" s="8"/>
       <c r="C26" t="s">
         <v>38</v>
@@ -2285,11 +2555,11 @@
         <v>0.44500000000000001</v>
       </c>
       <c r="L26" s="3">
-        <f t="shared" ref="L26:L32" si="9">1/($K$3*K26)</f>
+        <f t="shared" ref="L26:L32" si="11">1/($K$3*K26)</f>
         <v>0.74906367041198507</v>
       </c>
       <c r="M26" s="20">
-        <f t="shared" ref="M26:M32" si="10">(K26*$K$3 - $P26*$P$3)/($P26*$P$3)</f>
+        <f t="shared" ref="M26:M32" si="12">(K26*$K$3 - $P26*$P$3)/($P26*$P$3)</f>
         <v>1.2922390109890107</v>
       </c>
       <c r="N26" s="9"/>
@@ -2298,7 +2568,7 @@
         <v>0.224</v>
       </c>
       <c r="Q26" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1.7170329670329669</v>
       </c>
       <c r="R26" s="9"/>
@@ -2319,16 +2589,28 @@
         <v>0.105</v>
       </c>
       <c r="Z26" s="3">
-        <f t="shared" ref="Z26:Z36" si="11">1/($Y$3*Y26)</f>
+        <f t="shared" ref="Z26:Z36" si="13">1/($Y$3*Y26)</f>
         <v>2.9761904761904758</v>
       </c>
       <c r="AA26" s="20">
-        <f t="shared" ref="AA26:AA36" si="12">(Y26*$Y$3 - $P26*$P$3)/($P26*$P$3)</f>
+        <f t="shared" ref="AA26:AA36" si="14">(Y26*$Y$3 - $P26*$P$3)/($P26*$P$3)</f>
         <v>-0.42307692307692307</v>
       </c>
       <c r="AB26" s="9"/>
-    </row>
-    <row r="27" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="AD26" s="3">
+        <v>8.2000000000000003E-2</v>
+      </c>
+      <c r="AE26" s="3">
+        <f t="shared" si="8"/>
+        <v>3.0487804878048781</v>
+      </c>
+      <c r="AF26" s="20">
+        <f t="shared" si="9"/>
+        <v>-0.43681318681318682</v>
+      </c>
+      <c r="AG26" s="9"/>
+    </row>
+    <row r="27" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B27" s="8"/>
       <c r="C27" t="s">
         <v>39</v>
@@ -2352,11 +2634,11 @@
         <v>0.44500000000000001</v>
       </c>
       <c r="L27" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.74906367041198507</v>
       </c>
       <c r="M27" s="20">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1.4450549450549448</v>
       </c>
       <c r="N27" s="9"/>
@@ -2365,7 +2647,7 @@
         <v>0.21</v>
       </c>
       <c r="Q27" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1.8315018315018314</v>
       </c>
       <c r="R27" s="9"/>
@@ -2386,16 +2668,28 @@
         <v>0.105</v>
       </c>
       <c r="Z27" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>2.9761904761904758</v>
       </c>
       <c r="AA27" s="20">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>-0.38461538461538464</v>
       </c>
       <c r="AB27" s="9"/>
-    </row>
-    <row r="28" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="AD27" s="3">
+        <v>8.2000000000000003E-2</v>
+      </c>
+      <c r="AE27" s="3">
+        <f t="shared" si="8"/>
+        <v>3.0487804878048781</v>
+      </c>
+      <c r="AF27" s="20">
+        <f t="shared" si="9"/>
+        <v>-0.39926739926739929</v>
+      </c>
+      <c r="AG27" s="9"/>
+    </row>
+    <row r="28" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B28" s="8"/>
       <c r="C28" t="s">
         <v>40</v>
@@ -2419,11 +2713,11 @@
         <v>0.44500000000000001</v>
       </c>
       <c r="L28" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.74906367041198507</v>
       </c>
       <c r="M28" s="20">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>2.5657051282051277</v>
       </c>
       <c r="N28" s="9"/>
@@ -2432,7 +2726,7 @@
         <v>0.14399999999999999</v>
       </c>
       <c r="Q28" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>2.6709401709401708</v>
       </c>
       <c r="R28" s="9"/>
@@ -2453,16 +2747,28 @@
         <v>0.11700000000000001</v>
       </c>
       <c r="Z28" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>2.6709401709401703</v>
       </c>
       <c r="AA28" s="20">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1.4826696375870145E-16</v>
       </c>
       <c r="AB28" s="9"/>
-    </row>
-    <row r="29" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="AD28" s="3">
+        <v>4.7E-2</v>
+      </c>
+      <c r="AE28" s="3">
+        <f t="shared" si="8"/>
+        <v>5.3191489361702127</v>
+      </c>
+      <c r="AF28" s="20">
+        <f t="shared" si="9"/>
+        <v>-0.49786324786324787</v>
+      </c>
+      <c r="AG28" s="9"/>
+    </row>
+    <row r="29" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B29" s="8"/>
       <c r="C29" t="s">
         <v>41</v>
@@ -2486,11 +2792,11 @@
         <v>0.44500000000000001</v>
       </c>
       <c r="L29" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.74906367041198507</v>
       </c>
       <c r="M29" s="20">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.4223311314724057</v>
       </c>
       <c r="N29" s="9"/>
@@ -2499,7 +2805,7 @@
         <v>0.36099999999999999</v>
       </c>
       <c r="Q29" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1.0654165778819518</v>
       </c>
       <c r="R29" s="9"/>
@@ -2520,16 +2826,28 @@
         <v>0.21</v>
       </c>
       <c r="Z29" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1.4880952380952379</v>
       </c>
       <c r="AA29" s="20">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>-0.28404005966332829</v>
       </c>
       <c r="AB29" s="9"/>
-    </row>
-    <row r="30" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="AD29" s="3">
+        <v>0.16800000000000001</v>
+      </c>
+      <c r="AE29" s="3">
+        <f t="shared" si="8"/>
+        <v>1.4880952380952379</v>
+      </c>
+      <c r="AF29" s="20">
+        <f t="shared" si="9"/>
+        <v>-0.28404005966332829</v>
+      </c>
+      <c r="AG29" s="9"/>
+    </row>
+    <row r="30" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B30" s="8"/>
       <c r="C30" t="s">
         <v>42</v>
@@ -2553,11 +2871,11 @@
         <v>0.44500000000000001</v>
       </c>
       <c r="L30" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.74906367041198507</v>
       </c>
       <c r="M30" s="20">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>3.5439074200136145</v>
       </c>
       <c r="N30" s="9"/>
@@ -2566,7 +2884,7 @@
         <v>0.113</v>
       </c>
       <c r="Q30" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>3.4036759700476513</v>
       </c>
       <c r="R30" s="9"/>
@@ -2587,16 +2905,28 @@
         <v>9.8000000000000004E-2</v>
       </c>
       <c r="Z30" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>3.1887755102040813</v>
       </c>
       <c r="AA30" s="20">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>6.739278420694364E-2</v>
       </c>
       <c r="AB30" s="9"/>
-    </row>
-    <row r="31" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="AD30" s="3">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="AE30" s="3">
+        <f t="shared" si="8"/>
+        <v>5.5555555555555554</v>
+      </c>
+      <c r="AF30" s="20">
+        <f t="shared" si="9"/>
+        <v>-0.38733832539142277</v>
+      </c>
+      <c r="AG30" s="9"/>
+    </row>
+    <row r="31" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B31" s="8"/>
       <c r="C31" t="s">
         <v>43</v>
@@ -2620,11 +2950,11 @@
         <v>0.44500000000000001</v>
       </c>
       <c r="L31" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.74906367041198507</v>
       </c>
       <c r="M31" s="20">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.52362474320931274</v>
       </c>
       <c r="N31" s="9"/>
@@ -2633,7 +2963,7 @@
         <v>0.33700000000000002</v>
       </c>
       <c r="Q31" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1.1412919424788859</v>
       </c>
       <c r="R31" s="9"/>
@@ -2654,16 +2984,28 @@
         <v>0.21</v>
       </c>
       <c r="Z31" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1.4880952380952379</v>
       </c>
       <c r="AA31" s="20">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>-0.23305181465418856</v>
       </c>
       <c r="AB31" s="9"/>
-    </row>
-    <row r="32" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="AD31" s="3">
+        <v>0.17299999999999999</v>
+      </c>
+      <c r="AE31" s="3">
+        <f t="shared" si="8"/>
+        <v>1.4450867052023122</v>
+      </c>
+      <c r="AF31" s="20">
+        <f t="shared" si="9"/>
+        <v>-0.21022597580461097</v>
+      </c>
+      <c r="AG31" s="9"/>
+    </row>
+    <row r="32" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B32" s="8"/>
       <c r="C32" t="s">
         <v>15</v>
@@ -2687,11 +3029,11 @@
         <v>0.58399999999999996</v>
       </c>
       <c r="L32" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.57077625570776258</v>
       </c>
       <c r="M32" s="20">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>4.4784240150093799</v>
       </c>
       <c r="N32" s="9"/>
@@ -2700,7 +3042,7 @@
         <v>0.123</v>
       </c>
       <c r="Q32" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>3.1269543464665412</v>
       </c>
       <c r="R32" s="9"/>
@@ -2721,16 +3063,28 @@
         <v>0.104</v>
       </c>
       <c r="Z32" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>3.0048076923076925</v>
       </c>
       <c r="AA32" s="20">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>4.0650406504064901E-2</v>
       </c>
       <c r="AB32" s="9"/>
-    </row>
-    <row r="33" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="AD32" s="3">
+        <v>6.7000000000000004E-2</v>
+      </c>
+      <c r="AE32" s="3">
+        <f t="shared" si="8"/>
+        <v>3.7313432835820892</v>
+      </c>
+      <c r="AF32" s="20">
+        <f t="shared" si="9"/>
+        <v>-0.16197623514696688</v>
+      </c>
+      <c r="AG32" s="9"/>
+    </row>
+    <row r="33" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B33" s="8"/>
       <c r="C33" t="s">
         <v>16</v>
@@ -2751,7 +3105,7 @@
         <v>0.38500000000000001</v>
       </c>
       <c r="Q33" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.99900099900099892</v>
       </c>
       <c r="R33" s="9"/>
@@ -2764,16 +3118,20 @@
         <v>0.313</v>
       </c>
       <c r="Z33" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0.99840255591054305</v>
       </c>
       <c r="AA33" s="20">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>5.9940059940053337E-4</v>
       </c>
       <c r="AB33" s="9"/>
-    </row>
-    <row r="34" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="AD33" s="3"/>
+      <c r="AE33" s="3"/>
+      <c r="AF33" s="20"/>
+      <c r="AG33" s="9"/>
+    </row>
+    <row r="34" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B34" s="8"/>
       <c r="C34" t="s">
         <v>17</v>
@@ -2790,7 +3148,7 @@
         <v>0.38500000000000001</v>
       </c>
       <c r="Q34" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.99900099900099892</v>
       </c>
       <c r="R34" s="9"/>
@@ -2801,16 +3159,20 @@
         <v>0.313</v>
       </c>
       <c r="Z34" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0.99840255591054305</v>
       </c>
       <c r="AA34" s="20">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>5.9940059940053337E-4</v>
       </c>
       <c r="AB34" s="9"/>
-    </row>
-    <row r="35" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="AD34" s="3"/>
+      <c r="AE34" s="3"/>
+      <c r="AF34" s="20"/>
+      <c r="AG34" s="9"/>
+    </row>
+    <row r="35" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B35" s="8"/>
       <c r="C35" t="s">
         <v>32</v>
@@ -2827,7 +3189,7 @@
         <v>0.38500000000000001</v>
       </c>
       <c r="Q35" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.99900099900099892</v>
       </c>
       <c r="R35" s="9"/>
@@ -2838,16 +3200,20 @@
         <v>0.313</v>
       </c>
       <c r="Z35" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0.99840255591054305</v>
       </c>
       <c r="AA35" s="20">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>5.9940059940053337E-4</v>
       </c>
       <c r="AB35" s="9"/>
-    </row>
-    <row r="36" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="AD35" s="3"/>
+      <c r="AE35" s="3"/>
+      <c r="AF35" s="20"/>
+      <c r="AG35" s="9"/>
+    </row>
+    <row r="36" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B36" s="8"/>
       <c r="C36" t="s">
         <v>18</v>
@@ -2864,7 +3230,7 @@
         <v>0.38500000000000001</v>
       </c>
       <c r="Q36" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.99900099900099892</v>
       </c>
       <c r="R36" s="9"/>
@@ -2875,16 +3241,20 @@
         <v>0.314</v>
       </c>
       <c r="Z36" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0.99522292993630557</v>
       </c>
       <c r="AA36" s="20">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>3.7962037962038214E-3</v>
       </c>
       <c r="AB36" s="9"/>
-    </row>
-    <row r="37" spans="2:28" ht="3.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD36" s="3"/>
+      <c r="AE36" s="3"/>
+      <c r="AF36" s="20"/>
+      <c r="AG36" s="9"/>
+    </row>
+    <row r="37" spans="2:33" ht="4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="10"/>
       <c r="C37" s="11"/>
       <c r="D37" s="13"/>
@@ -2912,8 +3282,13 @@
       <c r="Z37" s="12"/>
       <c r="AA37" s="12"/>
       <c r="AB37" s="13"/>
-    </row>
-    <row r="39" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="AC37" s="12"/>
+      <c r="AD37" s="12"/>
+      <c r="AE37" s="12"/>
+      <c r="AF37" s="12"/>
+      <c r="AG37" s="13"/>
+    </row>
+    <row r="39" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>33</v>
       </c>
@@ -2937,8 +3312,12 @@
         <f>(Y12-Y11)/Y11</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="AD39" s="21">
+        <f>(AD12-AD11)/AD11</f>
+        <v>-2.3255813953488393E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>34</v>
       </c>
@@ -2962,14 +3341,20 @@
         <f>(Y24-Y19)/Y19</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="AD40" s="21">
+        <f>(AD24-AD19)/AD19</f>
+        <v>-5.3435114503816841E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>37</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="12">
+    <mergeCell ref="AD2:AF2"/>
+    <mergeCell ref="AD3:AF3"/>
     <mergeCell ref="Y2:AA2"/>
     <mergeCell ref="Y3:AA3"/>
     <mergeCell ref="P2:Q2"/>
@@ -2982,7 +3367,7 @@
     <mergeCell ref="T3:V3"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="78" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="68" orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;A</oddHeader>
   </headerFooter>

--- a/analysis.xlsx
+++ b/analysis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thierry/Devel/arm-instruction-time/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6406F677-0B02-1841-A6BB-163769D744F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5912B1FF-8964-A943-BA87-00750432447E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11040" yWindow="3040" windowWidth="29000" windowHeight="18740" xr2:uid="{D46DF09C-373D-4B8F-933A-76CBCC1CC5EF}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="45">
   <si>
     <t>Apple M1</t>
   </si>
@@ -87,9 +87,6 @@
   </si>
   <si>
     <t>PACIA</t>
-  </si>
-  <si>
-    <t>AUTIA</t>
   </si>
   <si>
     <t>PACIA ... AUTIA ...</t>
@@ -747,10 +744,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:AG42"/>
+  <dimension ref="B1:AG41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AD4" sqref="AD4"/>
+      <selection activeCell="AD24" sqref="AD24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -776,7 +773,7 @@
     <row r="2" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="4"/>
       <c r="C2" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D2" s="7"/>
       <c r="E2" s="4"/>
@@ -801,7 +798,7 @@
       <c r="R2" s="7"/>
       <c r="S2" s="4"/>
       <c r="T2" s="22" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="U2" s="22"/>
       <c r="V2" s="22"/>
@@ -815,7 +812,7 @@
       <c r="AB2" s="7"/>
       <c r="AC2" s="6"/>
       <c r="AD2" s="22" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AE2" s="22"/>
       <c r="AF2" s="22"/>
@@ -824,7 +821,7 @@
     <row r="3" spans="2:33" ht="16" x14ac:dyDescent="0.2">
       <c r="B3" s="8"/>
       <c r="C3" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D3" s="9"/>
       <c r="E3" s="8"/>
@@ -870,70 +867,70 @@
     <row r="4" spans="2:33" ht="16" x14ac:dyDescent="0.2">
       <c r="B4" s="14"/>
       <c r="C4" s="15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D4" s="16"/>
       <c r="E4" s="14"/>
       <c r="F4" s="17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G4" s="17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H4" s="17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I4" s="16"/>
       <c r="J4" s="14"/>
       <c r="K4" s="17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L4" s="17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M4" s="17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N4" s="16"/>
       <c r="O4" s="14"/>
       <c r="P4" s="17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q4" s="17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R4" s="16"/>
       <c r="S4" s="14"/>
       <c r="T4" s="17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="U4" s="17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="V4" s="17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="W4" s="16"/>
       <c r="X4" s="18"/>
       <c r="Y4" s="17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Z4" s="17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AA4" s="17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AB4" s="16"/>
       <c r="AC4" s="18"/>
       <c r="AD4" s="17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AE4" s="17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AF4" s="17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AG4" s="16"/>
     </row>
@@ -1018,15 +1015,15 @@
       </c>
       <c r="AB6" s="9"/>
       <c r="AD6" s="3">
-        <v>3.2000000000000001E-2</v>
+        <v>3.3000000000000002E-2</v>
       </c>
       <c r="AE6" s="3">
         <f>1/($AD$3*AD6)</f>
-        <v>7.8125</v>
+        <v>7.5757575757575752</v>
       </c>
       <c r="AF6" s="20">
         <f>(AD6*$AD$3 - $P6*$P$3)/($P6*$P$3)</f>
-        <v>0.36752136752136749</v>
+        <v>0.4102564102564103</v>
       </c>
       <c r="AG6" s="9"/>
     </row>
@@ -1097,15 +1094,15 @@
       </c>
       <c r="AB7" s="9"/>
       <c r="AD7" s="3">
-        <v>3.7999999999999999E-2</v>
+        <v>3.5999999999999997E-2</v>
       </c>
       <c r="AE7" s="3">
         <f t="shared" ref="AE7:AE32" si="8">1/($AD$3*AD7)</f>
-        <v>6.5789473684210531</v>
+        <v>6.9444444444444446</v>
       </c>
       <c r="AF7" s="20">
         <f t="shared" ref="AF7:AF32" si="9">(AD7*$AD$3 - $P7*$P$3)/($P7*$P$3)</f>
-        <v>-0.40947940947940953</v>
+        <v>-0.44055944055944063</v>
       </c>
       <c r="AG7" s="9"/>
     </row>
@@ -1146,7 +1143,7 @@
         <v>9.9000000000000005E-2</v>
       </c>
       <c r="Q8" s="3">
-        <f t="shared" ref="Q8:Q36" si="10">1/($P$3*P8)</f>
+        <f t="shared" ref="Q8:Q35" si="10">1/($P$3*P8)</f>
         <v>3.8850038850038846</v>
       </c>
       <c r="R8" s="9"/>
@@ -1176,15 +1173,15 @@
       </c>
       <c r="AB8" s="9"/>
       <c r="AD8" s="3">
-        <v>6.8000000000000005E-2</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="AE8" s="3">
         <f t="shared" si="8"/>
-        <v>3.6764705882352939</v>
+        <v>3.8461538461538458</v>
       </c>
       <c r="AF8" s="20">
         <f t="shared" si="9"/>
-        <v>5.6721056721056727E-2</v>
+        <v>1.0101010101010065E-2</v>
       </c>
       <c r="AG8" s="9"/>
     </row>
@@ -1255,15 +1252,15 @@
       </c>
       <c r="AB9" s="9"/>
       <c r="AD9" s="3">
-        <v>7.0000000000000007E-2</v>
+        <v>6.6000000000000003E-2</v>
       </c>
       <c r="AE9" s="3">
         <f t="shared" si="8"/>
-        <v>3.5714285714285712</v>
+        <v>3.7878787878787876</v>
       </c>
       <c r="AF9" s="20">
         <f t="shared" si="9"/>
-        <v>-0.17792131532589545</v>
+        <v>-0.22489724016441573</v>
       </c>
       <c r="AG9" s="9"/>
     </row>
@@ -1334,15 +1331,15 @@
       </c>
       <c r="AB10" s="9"/>
       <c r="AD10" s="3">
-        <v>0.253</v>
+        <v>0.249</v>
       </c>
       <c r="AE10" s="3">
         <f t="shared" si="8"/>
-        <v>0.98814229249011853</v>
+        <v>1.0040160642570282</v>
       </c>
       <c r="AF10" s="20">
         <f t="shared" si="9"/>
-        <v>3.1720856463123208E-3</v>
+        <v>-1.2688342585249944E-2</v>
       </c>
       <c r="AG10" s="9"/>
     </row>
@@ -1413,15 +1410,15 @@
       </c>
       <c r="AB11" s="9"/>
       <c r="AD11" s="19">
-        <v>0.129</v>
+        <v>0.126</v>
       </c>
       <c r="AE11" s="3">
         <f t="shared" si="8"/>
-        <v>1.9379844961240309</v>
+        <v>1.9841269841269842</v>
       </c>
       <c r="AF11" s="20">
         <f t="shared" si="9"/>
-        <v>2.829812674372258E-2</v>
+        <v>4.3842168194499391E-3</v>
       </c>
       <c r="AG11" s="9"/>
     </row>
@@ -1507,7 +1504,7 @@
     <row r="13" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B13" s="8"/>
       <c r="C13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D13" s="9"/>
       <c r="E13" s="8"/>
@@ -1571,15 +1568,15 @@
       </c>
       <c r="AB13" s="9"/>
       <c r="AD13" s="3">
-        <v>0.496</v>
+        <v>0.498</v>
       </c>
       <c r="AE13" s="3">
         <f t="shared" si="8"/>
-        <v>0.50403225806451613</v>
+        <v>0.50200803212851408</v>
       </c>
       <c r="AF13" s="20">
         <f t="shared" si="9"/>
-        <v>-0.6698066105249143</v>
+        <v>-0.66847518556735352</v>
       </c>
       <c r="AG13" s="9"/>
     </row>
@@ -1650,15 +1647,15 @@
       </c>
       <c r="AB14" s="9"/>
       <c r="AD14" s="3">
-        <v>0.124</v>
+        <v>0.125</v>
       </c>
       <c r="AE14" s="3">
         <f t="shared" si="8"/>
-        <v>2.0161290322580645</v>
+        <v>2</v>
       </c>
       <c r="AF14" s="20">
         <f t="shared" si="9"/>
-        <v>-1.155838979673182E-2</v>
+        <v>-3.58708648864094E-3</v>
       </c>
       <c r="AG14" s="9"/>
     </row>
@@ -1729,22 +1726,22 @@
       </c>
       <c r="AB15" s="9"/>
       <c r="AD15" s="3">
-        <v>0.124</v>
+        <v>0.125</v>
       </c>
       <c r="AE15" s="3">
         <f t="shared" si="8"/>
-        <v>2.0161290322580645</v>
+        <v>2</v>
       </c>
       <c r="AF15" s="20">
         <f t="shared" si="9"/>
-        <v>-0.3511250654107797</v>
+        <v>-0.34589220303506013</v>
       </c>
       <c r="AG15" s="9"/>
     </row>
     <row r="16" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B16" s="8"/>
       <c r="C16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D16" s="9"/>
       <c r="E16" s="8"/>
@@ -1808,22 +1805,22 @@
       </c>
       <c r="AB16" s="9"/>
       <c r="AD16" s="3">
-        <v>6.4000000000000001E-2</v>
+        <v>6.3E-2</v>
       </c>
       <c r="AE16" s="3">
         <f t="shared" si="8"/>
-        <v>3.90625</v>
+        <v>3.9682539682539684</v>
       </c>
       <c r="AF16" s="20">
         <f t="shared" si="9"/>
-        <v>-6.227106227106232E-2</v>
+        <v>-7.6923076923076983E-2</v>
       </c>
       <c r="AG16" s="9"/>
     </row>
     <row r="17" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B17" s="8"/>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D17" s="9"/>
       <c r="E17" s="8"/>
@@ -1887,22 +1884,22 @@
       </c>
       <c r="AB17" s="9"/>
       <c r="AD17" s="3">
-        <v>6.9000000000000006E-2</v>
+        <v>6.4000000000000001E-2</v>
       </c>
       <c r="AE17" s="3">
         <f t="shared" si="8"/>
-        <v>3.6231884057971011</v>
+        <v>3.90625</v>
       </c>
       <c r="AF17" s="20">
         <f t="shared" si="9"/>
-        <v>1.0989010989010999E-2</v>
+        <v>-6.227106227106232E-2</v>
       </c>
       <c r="AG17" s="9"/>
     </row>
     <row r="18" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B18" s="8"/>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D18" s="9"/>
       <c r="E18" s="8"/>
@@ -1966,15 +1963,15 @@
       </c>
       <c r="AB18" s="9"/>
       <c r="AD18" s="3">
-        <v>6.7000000000000004E-2</v>
+        <v>6.3E-2</v>
       </c>
       <c r="AE18" s="3">
         <f t="shared" si="8"/>
-        <v>3.7313432835820892</v>
+        <v>3.9682539682539684</v>
       </c>
       <c r="AF18" s="20">
         <f t="shared" si="9"/>
-        <v>7.4682598954456121E-4</v>
+        <v>-5.8999253174010384E-2</v>
       </c>
       <c r="AG18" s="9"/>
     </row>
@@ -2045,22 +2042,22 @@
       </c>
       <c r="AB19" s="9"/>
       <c r="AD19" s="19">
-        <v>0.13100000000000001</v>
+        <v>0.124</v>
       </c>
       <c r="AE19" s="3">
         <f t="shared" si="8"/>
-        <v>1.9083969465648853</v>
+        <v>2.0161290322580645</v>
       </c>
       <c r="AF19" s="20">
         <f t="shared" si="9"/>
-        <v>2.8257456828885336E-2</v>
+        <v>-2.6687598116169654E-2</v>
       </c>
       <c r="AG19" s="9"/>
     </row>
     <row r="20" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B20" s="8"/>
       <c r="C20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D20" s="9"/>
       <c r="E20" s="8"/>
@@ -2124,22 +2121,22 @@
       </c>
       <c r="AB20" s="9"/>
       <c r="AD20" s="3">
-        <v>0.126</v>
+        <v>0.125</v>
       </c>
       <c r="AE20" s="3">
         <f t="shared" si="8"/>
-        <v>1.9841269841269842</v>
+        <v>2</v>
       </c>
       <c r="AF20" s="20">
         <f t="shared" si="9"/>
-        <v>-5.9171597633136145E-3</v>
+        <v>-1.3806706114398434E-2</v>
       </c>
       <c r="AG20" s="9"/>
     </row>
     <row r="21" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B21" s="8"/>
       <c r="C21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D21" s="9"/>
       <c r="E21" s="8"/>
@@ -2203,22 +2200,22 @@
       </c>
       <c r="AB21" s="9"/>
       <c r="AD21" s="3">
-        <v>6.6000000000000003E-2</v>
+        <v>6.2E-2</v>
       </c>
       <c r="AE21" s="3">
         <f t="shared" si="8"/>
-        <v>3.7878787878787876</v>
+        <v>4.032258064516129</v>
       </c>
       <c r="AF21" s="20">
         <f t="shared" si="9"/>
-        <v>-0.22489724016441573</v>
+        <v>-0.27187316500293601</v>
       </c>
       <c r="AG21" s="9"/>
     </row>
     <row r="22" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B22" s="8"/>
       <c r="C22" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D22" s="9"/>
       <c r="E22" s="8"/>
@@ -2282,22 +2279,22 @@
       </c>
       <c r="AB22" s="9"/>
       <c r="AD22" s="3">
-        <v>6.4000000000000001E-2</v>
+        <v>6.2E-2</v>
       </c>
       <c r="AE22" s="3">
         <f t="shared" si="8"/>
-        <v>3.90625</v>
+        <v>4.032258064516129</v>
       </c>
       <c r="AF22" s="20">
         <f t="shared" si="9"/>
-        <v>-0.24838520258367588</v>
+        <v>-0.27187316500293601</v>
       </c>
       <c r="AG22" s="9"/>
     </row>
     <row r="23" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D23" s="9"/>
       <c r="E23" s="8"/>
@@ -2361,15 +2358,15 @@
       </c>
       <c r="AB23" s="9"/>
       <c r="AD23" s="3">
-        <v>6.4000000000000001E-2</v>
+        <v>6.3E-2</v>
       </c>
       <c r="AE23" s="3">
         <f t="shared" si="8"/>
-        <v>3.90625</v>
+        <v>3.9682539682539684</v>
       </c>
       <c r="AF23" s="20">
         <f t="shared" si="9"/>
-        <v>-0.32560590094836667</v>
+        <v>-0.33614330874604847</v>
       </c>
       <c r="AG23" s="9"/>
     </row>
@@ -2455,7 +2452,7 @@
     <row r="25" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B25" s="8"/>
       <c r="C25" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D25" s="9"/>
       <c r="E25" s="8"/>
@@ -2519,22 +2516,22 @@
       </c>
       <c r="AB25" s="9"/>
       <c r="AD25" s="3">
-        <v>0.124</v>
+        <v>0.125</v>
       </c>
       <c r="AE25" s="3">
         <f t="shared" si="8"/>
-        <v>2.0161290322580645</v>
+        <v>2</v>
       </c>
       <c r="AF25" s="20">
         <f t="shared" si="9"/>
-        <v>-0.437258906285455</v>
+        <v>-0.4327206716587248</v>
       </c>
       <c r="AG25" s="9"/>
     </row>
     <row r="26" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B26" s="8"/>
       <c r="C26" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D26" s="9"/>
       <c r="E26" s="8"/>
@@ -2589,31 +2586,31 @@
         <v>0.105</v>
       </c>
       <c r="Z26" s="3">
-        <f t="shared" ref="Z26:Z36" si="13">1/($Y$3*Y26)</f>
+        <f t="shared" ref="Z26:Z35" si="13">1/($Y$3*Y26)</f>
         <v>2.9761904761904758</v>
       </c>
       <c r="AA26" s="20">
-        <f t="shared" ref="AA26:AA36" si="14">(Y26*$Y$3 - $P26*$P$3)/($P26*$P$3)</f>
+        <f t="shared" ref="AA26:AA35" si="14">(Y26*$Y$3 - $P26*$P$3)/($P26*$P$3)</f>
         <v>-0.42307692307692307</v>
       </c>
       <c r="AB26" s="9"/>
       <c r="AD26" s="3">
-        <v>8.2000000000000003E-2</v>
+        <v>8.3000000000000004E-2</v>
       </c>
       <c r="AE26" s="3">
         <f t="shared" si="8"/>
-        <v>3.0487804878048781</v>
+        <v>3.012048192771084</v>
       </c>
       <c r="AF26" s="20">
         <f t="shared" si="9"/>
-        <v>-0.43681318681318682</v>
+        <v>-0.42994505494505492</v>
       </c>
       <c r="AG26" s="9"/>
     </row>
     <row r="27" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B27" s="8"/>
       <c r="C27" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D27" s="9"/>
       <c r="E27" s="8"/>
@@ -2677,22 +2674,22 @@
       </c>
       <c r="AB27" s="9"/>
       <c r="AD27" s="3">
-        <v>8.2000000000000003E-2</v>
+        <v>8.3000000000000004E-2</v>
       </c>
       <c r="AE27" s="3">
         <f t="shared" si="8"/>
-        <v>3.0487804878048781</v>
+        <v>3.012048192771084</v>
       </c>
       <c r="AF27" s="20">
         <f t="shared" si="9"/>
-        <v>-0.39926739926739929</v>
+        <v>-0.39194139194139194</v>
       </c>
       <c r="AG27" s="9"/>
     </row>
     <row r="28" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B28" s="8"/>
       <c r="C28" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D28" s="9"/>
       <c r="E28" s="8"/>
@@ -2756,22 +2753,22 @@
       </c>
       <c r="AB28" s="9"/>
       <c r="AD28" s="3">
-        <v>4.7E-2</v>
+        <v>4.5999999999999999E-2</v>
       </c>
       <c r="AE28" s="3">
         <f t="shared" si="8"/>
-        <v>5.3191489361702127</v>
+        <v>5.4347826086956523</v>
       </c>
       <c r="AF28" s="20">
         <f t="shared" si="9"/>
-        <v>-0.49786324786324787</v>
+        <v>-0.50854700854700852</v>
       </c>
       <c r="AG28" s="9"/>
     </row>
     <row r="29" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B29" s="8"/>
       <c r="C29" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D29" s="9"/>
       <c r="E29" s="8"/>
@@ -2835,22 +2832,22 @@
       </c>
       <c r="AB29" s="9"/>
       <c r="AD29" s="3">
-        <v>0.16800000000000001</v>
+        <v>0.16600000000000001</v>
       </c>
       <c r="AE29" s="3">
         <f t="shared" si="8"/>
-        <v>1.4880952380952379</v>
+        <v>1.506024096385542</v>
       </c>
       <c r="AF29" s="20">
         <f t="shared" si="9"/>
-        <v>-0.28404005966332829</v>
+        <v>-0.29256339228638395</v>
       </c>
       <c r="AG29" s="9"/>
     </row>
     <row r="30" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B30" s="8"/>
       <c r="C30" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D30" s="9"/>
       <c r="E30" s="8"/>
@@ -2929,7 +2926,7 @@
     <row r="31" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B31" s="8"/>
       <c r="C31" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D31" s="9"/>
       <c r="E31" s="8"/>
@@ -2993,15 +2990,15 @@
       </c>
       <c r="AB31" s="9"/>
       <c r="AD31" s="3">
-        <v>0.17299999999999999</v>
+        <v>0.16700000000000001</v>
       </c>
       <c r="AE31" s="3">
         <f t="shared" si="8"/>
-        <v>1.4450867052023122</v>
+        <v>1.4970059880239519</v>
       </c>
       <c r="AF31" s="20">
         <f t="shared" si="9"/>
-        <v>-0.21022597580461097</v>
+        <v>-0.23761698242410412</v>
       </c>
       <c r="AG31" s="9"/>
     </row>
@@ -3072,15 +3069,15 @@
       </c>
       <c r="AB32" s="9"/>
       <c r="AD32" s="3">
-        <v>6.7000000000000004E-2</v>
+        <v>6.3E-2</v>
       </c>
       <c r="AE32" s="3">
         <f t="shared" si="8"/>
-        <v>3.7313432835820892</v>
+        <v>3.9682539682539684</v>
       </c>
       <c r="AF32" s="20">
         <f t="shared" si="9"/>
-        <v>-0.16197623514696688</v>
+        <v>-0.21200750469043159</v>
       </c>
       <c r="AG32" s="9"/>
     </row>
@@ -3126,15 +3123,23 @@
         <v>5.9940059940053337E-4</v>
       </c>
       <c r="AB33" s="9"/>
-      <c r="AD33" s="3"/>
-      <c r="AE33" s="3"/>
-      <c r="AF33" s="20"/>
+      <c r="AD33" s="3">
+        <v>0.248</v>
+      </c>
+      <c r="AE33" s="3">
+        <f t="shared" ref="AE33:AE35" si="15">1/($AD$3*AD33)</f>
+        <v>1.0080645161290323</v>
+      </c>
+      <c r="AF33" s="20">
+        <f t="shared" ref="AF33:AF35" si="16">(AD33*$AD$3 - $P33*$P$3)/($P33*$P$3)</f>
+        <v>-8.9910089910091081E-3</v>
+      </c>
       <c r="AG33" s="9"/>
     </row>
     <row r="34" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B34" s="8"/>
       <c r="C34" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="D34" s="9"/>
       <c r="E34" s="8"/>
@@ -3167,15 +3172,23 @@
         <v>5.9940059940053337E-4</v>
       </c>
       <c r="AB34" s="9"/>
-      <c r="AD34" s="3"/>
-      <c r="AE34" s="3"/>
-      <c r="AF34" s="20"/>
+      <c r="AD34" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="AE34" s="3">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="AF34" s="20">
+        <f t="shared" si="16"/>
+        <v>-9.9900099900111067E-4</v>
+      </c>
       <c r="AG34" s="9"/>
     </row>
     <row r="35" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B35" s="8"/>
       <c r="C35" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="D35" s="9"/>
       <c r="E35" s="8"/>
@@ -3197,174 +3210,141 @@
       <c r="T35" s="3"/>
       <c r="W35" s="9"/>
       <c r="Y35" s="3">
-        <v>0.313</v>
+        <v>0.314</v>
       </c>
       <c r="Z35" s="3">
         <f t="shared" si="13"/>
-        <v>0.99840255591054305</v>
+        <v>0.99522292993630557</v>
       </c>
       <c r="AA35" s="20">
         <f t="shared" si="14"/>
-        <v>5.9940059940053337E-4</v>
+        <v>3.7962037962038214E-3</v>
       </c>
       <c r="AB35" s="9"/>
-      <c r="AD35" s="3"/>
-      <c r="AE35" s="3"/>
-      <c r="AF35" s="20"/>
+      <c r="AD35" s="3">
+        <v>0.251</v>
+      </c>
+      <c r="AE35" s="3">
+        <f t="shared" si="15"/>
+        <v>0.99601593625498008</v>
+      </c>
+      <c r="AF35" s="20">
+        <f t="shared" si="16"/>
+        <v>2.9970029970028886E-3</v>
+      </c>
       <c r="AG35" s="9"/>
     </row>
-    <row r="36" spans="2:33" x14ac:dyDescent="0.2">
-      <c r="B36" s="8"/>
-      <c r="C36" t="s">
-        <v>18</v>
-      </c>
-      <c r="D36" s="9"/>
-      <c r="E36" s="8"/>
-      <c r="F36" s="3"/>
-      <c r="I36" s="9"/>
-      <c r="J36" s="8"/>
-      <c r="K36" s="3"/>
-      <c r="N36" s="9"/>
-      <c r="O36" s="8"/>
-      <c r="P36" s="3">
-        <v>0.38500000000000001</v>
-      </c>
-      <c r="Q36" s="3">
-        <f t="shared" si="10"/>
-        <v>0.99900099900099892</v>
-      </c>
-      <c r="R36" s="9"/>
-      <c r="S36" s="8"/>
-      <c r="T36" s="3"/>
-      <c r="W36" s="9"/>
-      <c r="Y36" s="3">
-        <v>0.314</v>
-      </c>
-      <c r="Z36" s="3">
-        <f t="shared" si="13"/>
-        <v>0.99522292993630557</v>
-      </c>
-      <c r="AA36" s="20">
-        <f t="shared" si="14"/>
-        <v>3.7962037962038214E-3</v>
-      </c>
-      <c r="AB36" s="9"/>
-      <c r="AD36" s="3"/>
-      <c r="AE36" s="3"/>
-      <c r="AF36" s="20"/>
-      <c r="AG36" s="9"/>
-    </row>
-    <row r="37" spans="2:33" ht="4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B37" s="10"/>
-      <c r="C37" s="11"/>
-      <c r="D37" s="13"/>
-      <c r="E37" s="10"/>
-      <c r="F37" s="12"/>
-      <c r="G37" s="12"/>
-      <c r="H37" s="12"/>
-      <c r="I37" s="13"/>
-      <c r="J37" s="10"/>
-      <c r="K37" s="12"/>
-      <c r="L37" s="12"/>
-      <c r="M37" s="12"/>
-      <c r="N37" s="13"/>
-      <c r="O37" s="10"/>
-      <c r="P37" s="12"/>
-      <c r="Q37" s="12"/>
-      <c r="R37" s="13"/>
-      <c r="S37" s="10"/>
-      <c r="T37" s="12"/>
-      <c r="U37" s="12"/>
-      <c r="V37" s="12"/>
-      <c r="W37" s="13"/>
-      <c r="X37" s="12"/>
-      <c r="Y37" s="12"/>
-      <c r="Z37" s="12"/>
-      <c r="AA37" s="12"/>
-      <c r="AB37" s="13"/>
-      <c r="AC37" s="12"/>
-      <c r="AD37" s="12"/>
-      <c r="AE37" s="12"/>
-      <c r="AF37" s="12"/>
-      <c r="AG37" s="13"/>
+    <row r="36" spans="2:33" ht="4" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B36" s="10"/>
+      <c r="C36" s="11"/>
+      <c r="D36" s="13"/>
+      <c r="E36" s="10"/>
+      <c r="F36" s="12"/>
+      <c r="G36" s="12"/>
+      <c r="H36" s="12"/>
+      <c r="I36" s="13"/>
+      <c r="J36" s="10"/>
+      <c r="K36" s="12"/>
+      <c r="L36" s="12"/>
+      <c r="M36" s="12"/>
+      <c r="N36" s="13"/>
+      <c r="O36" s="10"/>
+      <c r="P36" s="12"/>
+      <c r="Q36" s="12"/>
+      <c r="R36" s="13"/>
+      <c r="S36" s="10"/>
+      <c r="T36" s="12"/>
+      <c r="U36" s="12"/>
+      <c r="V36" s="12"/>
+      <c r="W36" s="13"/>
+      <c r="X36" s="12"/>
+      <c r="Y36" s="12"/>
+      <c r="Z36" s="12"/>
+      <c r="AA36" s="12"/>
+      <c r="AB36" s="13"/>
+      <c r="AC36" s="12"/>
+      <c r="AD36" s="12"/>
+      <c r="AE36" s="12"/>
+      <c r="AF36" s="12"/>
+      <c r="AG36" s="13"/>
+    </row>
+    <row r="38" spans="2:33" x14ac:dyDescent="0.2">
+      <c r="C38" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F38" s="21">
+        <f>(F12-F11)/F11</f>
+        <v>0.33333333333333343</v>
+      </c>
+      <c r="K38" s="21">
+        <f>(K12-K11)/K11</f>
+        <v>0.33333333333333343</v>
+      </c>
+      <c r="P38" s="21">
+        <f>(P12-P11)/P11</f>
+        <v>0</v>
+      </c>
+      <c r="T38" s="21">
+        <f>(T12-T11)/T11</f>
+        <v>0</v>
+      </c>
+      <c r="Y38" s="21">
+        <f>(Y12-Y11)/Y11</f>
+        <v>0</v>
+      </c>
+      <c r="AD38" s="21">
+        <f>(AD12-AD11)/AD11</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="39" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>33</v>
       </c>
       <c r="F39" s="21">
-        <f>(F12-F11)/F11</f>
-        <v>0.33333333333333343</v>
-      </c>
-      <c r="K39" s="21">
-        <f>(K12-K11)/K11</f>
-        <v>0.33333333333333343</v>
-      </c>
-      <c r="P39" s="21">
-        <f>(P12-P11)/P11</f>
-        <v>0</v>
-      </c>
-      <c r="T39" s="21">
-        <f>(T12-T11)/T11</f>
-        <v>0</v>
-      </c>
-      <c r="Y39" s="21">
-        <f>(Y12-Y11)/Y11</f>
-        <v>0</v>
-      </c>
-      <c r="AD39" s="21">
-        <f>(AD12-AD11)/AD11</f>
-        <v>-2.3255813953488393E-2</v>
-      </c>
-    </row>
-    <row r="40" spans="2:33" x14ac:dyDescent="0.2">
-      <c r="C40" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F40" s="21">
         <f>(F24-F19)/F19</f>
         <v>0.33253873659118016</v>
       </c>
-      <c r="K40" s="21">
+      <c r="K39" s="21">
         <f>(K24-K19)/K19</f>
         <v>0.33333333333333343</v>
       </c>
-      <c r="P40" s="21">
+      <c r="P39" s="21">
         <f>(P24-P19)/P19</f>
         <v>0.73469387755102045</v>
       </c>
-      <c r="T40" s="21">
+      <c r="T39" s="21">
         <f>(T24-T19)/T19</f>
         <v>0.43617021276595752</v>
       </c>
-      <c r="Y40" s="21">
+      <c r="Y39" s="21">
         <f>(Y24-Y19)/Y19</f>
         <v>0</v>
       </c>
-      <c r="AD40" s="21">
+      <c r="AD39" s="21">
         <f>(AD24-AD19)/AD19</f>
-        <v>-5.3435114503816841E-2</v>
-      </c>
-    </row>
-    <row r="42" spans="2:33" x14ac:dyDescent="0.2">
-      <c r="C42" s="1" t="s">
-        <v>37</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="2:33" x14ac:dyDescent="0.2">
+      <c r="C41" s="1" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="K3:M3"/>
+    <mergeCell ref="T2:V2"/>
+    <mergeCell ref="T3:V3"/>
     <mergeCell ref="AD2:AF2"/>
     <mergeCell ref="AD3:AF3"/>
     <mergeCell ref="Y2:AA2"/>
     <mergeCell ref="Y3:AA3"/>
     <mergeCell ref="P2:Q2"/>
     <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="K2:M2"/>
-    <mergeCell ref="K3:M3"/>
-    <mergeCell ref="T2:V2"/>
-    <mergeCell ref="T3:V3"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="68" orientation="landscape" r:id="rId1"/>

--- a/analysis.xlsx
+++ b/analysis.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thierry/Devel/arm-instruction-time/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\shared\arm-instruction-time\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5912B1FF-8964-A943-BA87-00750432447E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1D96C56-BFB5-45F1-B1E4-4B1A1075A6EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11040" yWindow="3040" windowWidth="29000" windowHeight="18740" xr2:uid="{D46DF09C-373D-4B8F-933A-76CBCC1CC5EF}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="28800" windowHeight="20295" xr2:uid="{D46DF09C-373D-4B8F-933A-76CBCC1CC5EF}"/>
   </bookViews>
   <sheets>
     <sheet name="Ignoring empty loop time" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="46">
   <si>
     <t>Apple M1</t>
   </si>
@@ -184,6 +184,9 @@
   <si>
     <t>Apple M3</t>
   </si>
+  <si>
+    <t>Apple M4</t>
+  </si>
 </sst>
 </file>
 
@@ -195,7 +198,7 @@
     <numFmt numFmtId="166" formatCode="\+0%;\-0%"/>
     <numFmt numFmtId="167" formatCode="\+0.0%;\-0.0%"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -206,6 +209,13 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
@@ -355,7 +365,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -406,6 +416,18 @@
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -744,33 +766,34 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:AG41"/>
+  <dimension ref="B1:AL41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AD24" sqref="AD24"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="1.1640625" customWidth="1"/>
-    <col min="3" max="3" width="29.83203125" style="1" customWidth="1"/>
-    <col min="4" max="5" width="1.1640625" customWidth="1"/>
-    <col min="6" max="8" width="8.6640625" customWidth="1"/>
-    <col min="9" max="10" width="1.1640625" customWidth="1"/>
-    <col min="11" max="13" width="8.6640625" customWidth="1"/>
-    <col min="14" max="15" width="1.1640625" customWidth="1"/>
-    <col min="16" max="17" width="8.6640625" customWidth="1"/>
-    <col min="18" max="19" width="1.1640625" customWidth="1"/>
-    <col min="20" max="22" width="8.6640625" customWidth="1"/>
-    <col min="23" max="24" width="1.1640625" customWidth="1"/>
-    <col min="25" max="27" width="8.6640625" customWidth="1"/>
-    <col min="28" max="29" width="1.1640625" customWidth="1"/>
-    <col min="30" max="32" width="8.6640625" customWidth="1"/>
-    <col min="33" max="33" width="1.1640625" customWidth="1"/>
+    <col min="1" max="2" width="1.140625" customWidth="1"/>
+    <col min="3" max="3" width="29.85546875" style="1" customWidth="1"/>
+    <col min="4" max="5" width="1.140625" customWidth="1"/>
+    <col min="6" max="8" width="8.7109375" customWidth="1"/>
+    <col min="9" max="10" width="1.140625" customWidth="1"/>
+    <col min="11" max="13" width="8.7109375" customWidth="1"/>
+    <col min="14" max="15" width="1.140625" customWidth="1"/>
+    <col min="16" max="17" width="8.7109375" customWidth="1"/>
+    <col min="18" max="19" width="1.140625" customWidth="1"/>
+    <col min="20" max="22" width="8.7109375" customWidth="1"/>
+    <col min="23" max="24" width="1.140625" customWidth="1"/>
+    <col min="25" max="27" width="8.7109375" customWidth="1"/>
+    <col min="28" max="29" width="1.140625" customWidth="1"/>
+    <col min="30" max="32" width="8.7109375" customWidth="1"/>
+    <col min="33" max="34" width="1.140625" customWidth="1"/>
+    <col min="35" max="35" width="8.7109375" style="25" customWidth="1"/>
+    <col min="36" max="37" width="8.7109375" customWidth="1"/>
+    <col min="38" max="38" width="1.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:33" ht="4" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:38" ht="3.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="4"/>
       <c r="C2" s="5" t="s">
         <v>18</v>
@@ -817,8 +840,15 @@
       <c r="AE2" s="22"/>
       <c r="AF2" s="22"/>
       <c r="AG2" s="7"/>
+      <c r="AH2" s="6"/>
+      <c r="AI2" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="AJ2" s="22"/>
+      <c r="AK2" s="22"/>
+      <c r="AL2" s="7"/>
     </row>
-    <row r="3" spans="2:33" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B3" s="8"/>
       <c r="C3" s="2" t="s">
         <v>20</v>
@@ -863,8 +893,14 @@
       <c r="AE3" s="23"/>
       <c r="AF3" s="23"/>
       <c r="AG3" s="9"/>
+      <c r="AI3" s="23">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="AJ3" s="23"/>
+      <c r="AK3" s="23"/>
+      <c r="AL3" s="9"/>
     </row>
-    <row r="4" spans="2:33" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B4" s="14"/>
       <c r="C4" s="15" t="s">
         <v>34</v>
@@ -874,7 +910,7 @@
       <c r="F4" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="G4" s="17" t="s">
+      <c r="G4" s="27" t="s">
         <v>21</v>
       </c>
       <c r="H4" s="17" t="s">
@@ -885,7 +921,7 @@
       <c r="K4" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="L4" s="17" t="s">
+      <c r="L4" s="27" t="s">
         <v>21</v>
       </c>
       <c r="M4" s="17" t="s">
@@ -896,7 +932,7 @@
       <c r="P4" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="Q4" s="17" t="s">
+      <c r="Q4" s="27" t="s">
         <v>21</v>
       </c>
       <c r="R4" s="16"/>
@@ -904,7 +940,7 @@
       <c r="T4" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="U4" s="17" t="s">
+      <c r="U4" s="27" t="s">
         <v>21</v>
       </c>
       <c r="V4" s="17" t="s">
@@ -915,7 +951,7 @@
       <c r="Y4" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="Z4" s="17" t="s">
+      <c r="Z4" s="27" t="s">
         <v>21</v>
       </c>
       <c r="AA4" s="17" t="s">
@@ -926,15 +962,26 @@
       <c r="AD4" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="AE4" s="17" t="s">
+      <c r="AE4" s="27" t="s">
         <v>21</v>
       </c>
       <c r="AF4" s="17" t="s">
         <v>35</v>
       </c>
       <c r="AG4" s="16"/>
+      <c r="AH4" s="18"/>
+      <c r="AI4" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="AJ4" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="AK4" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL4" s="16"/>
     </row>
-    <row r="5" spans="2:33" ht="4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:38" ht="3.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="8"/>
       <c r="D5" s="9"/>
       <c r="E5" s="8"/>
@@ -947,8 +994,9 @@
       <c r="W5" s="9"/>
       <c r="AB5" s="9"/>
       <c r="AG5" s="9"/>
+      <c r="AL5" s="9"/>
     </row>
-    <row r="6" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B6" s="8"/>
       <c r="C6" t="s">
         <v>4</v>
@@ -1026,8 +1074,20 @@
         <v>0.4102564102564103</v>
       </c>
       <c r="AG6" s="9"/>
+      <c r="AI6" s="25">
+        <v>2.7E-2</v>
+      </c>
+      <c r="AJ6" s="3">
+        <f>1/($AI$3*AI6)</f>
+        <v>8.4175084175084169</v>
+      </c>
+      <c r="AK6" s="20">
+        <f>(AI6*$AI$3 - $P6*$P$3)/($P6*$P$3)</f>
+        <v>0.26923076923076922</v>
+      </c>
+      <c r="AL6" s="9"/>
     </row>
-    <row r="7" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B7" s="8"/>
       <c r="C7" t="s">
         <v>5</v>
@@ -1105,8 +1165,20 @@
         <v>-0.44055944055944063</v>
       </c>
       <c r="AG7" s="9"/>
+      <c r="AI7" s="25">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="AJ7" s="3">
+        <f t="shared" ref="AJ7:AJ35" si="10">1/($AI$3*AI7)</f>
+        <v>6.6844919786096249</v>
+      </c>
+      <c r="AK7" s="20">
+        <f t="shared" ref="AK7:AK35" si="11">(AI7*$AI$3 - $P7*$P$3)/($P7*$P$3)</f>
+        <v>-0.41880341880341881</v>
+      </c>
+      <c r="AL7" s="9"/>
     </row>
-    <row r="8" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B8" s="8"/>
       <c r="C8" t="s">
         <v>6</v>
@@ -1143,7 +1215,7 @@
         <v>9.9000000000000005E-2</v>
       </c>
       <c r="Q8" s="3">
-        <f t="shared" ref="Q8:Q35" si="10">1/($P$3*P8)</f>
+        <f t="shared" ref="Q8:Q35" si="12">1/($P$3*P8)</f>
         <v>3.8850038850038846</v>
       </c>
       <c r="R8" s="9"/>
@@ -1184,8 +1256,20 @@
         <v>1.0101010101010065E-2</v>
       </c>
       <c r="AG8" s="9"/>
+      <c r="AI8" s="25">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="AJ8" s="3">
+        <f t="shared" si="10"/>
+        <v>3.918495297805642</v>
+      </c>
+      <c r="AK8" s="20">
+        <f t="shared" si="11"/>
+        <v>-8.5470085470084681E-3</v>
+      </c>
+      <c r="AL8" s="9"/>
     </row>
-    <row r="9" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B9" s="8"/>
       <c r="C9" t="s">
         <v>7</v>
@@ -1222,7 +1306,7 @@
         <v>0.13100000000000001</v>
       </c>
       <c r="Q9" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>2.935995302407516</v>
       </c>
       <c r="R9" s="9"/>
@@ -1263,8 +1347,20 @@
         <v>-0.22489724016441573</v>
       </c>
       <c r="AG9" s="9"/>
+      <c r="AI9" s="25">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="AJ9" s="3">
+        <f t="shared" si="10"/>
+        <v>3.918495297805642</v>
+      </c>
+      <c r="AK9" s="20">
+        <f t="shared" si="11"/>
+        <v>-0.25073399882560182</v>
+      </c>
+      <c r="AL9" s="9"/>
     </row>
-    <row r="10" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B10" s="8"/>
       <c r="C10" t="s">
         <v>8</v>
@@ -1301,7 +1397,7 @@
         <v>0.38800000000000001</v>
       </c>
       <c r="Q10" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.99127676447264057</v>
       </c>
       <c r="R10" s="9"/>
@@ -1342,8 +1438,20 @@
         <v>-1.2688342585249944E-2</v>
       </c>
       <c r="AG10" s="9"/>
+      <c r="AI10" s="25">
+        <v>0.22700000000000001</v>
+      </c>
+      <c r="AJ10" s="3">
+        <f t="shared" si="10"/>
+        <v>1.0012014417300759</v>
+      </c>
+      <c r="AK10" s="20">
+        <f t="shared" si="11"/>
+        <v>-9.9127676447264158E-3</v>
+      </c>
+      <c r="AL10" s="9"/>
     </row>
-    <row r="11" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B11" s="8"/>
       <c r="C11" t="s">
         <v>9</v>
@@ -1380,7 +1488,7 @@
         <v>0.193</v>
       </c>
       <c r="Q11" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1.9928258270227182</v>
       </c>
       <c r="R11" s="9"/>
@@ -1421,8 +1529,20 @@
         <v>4.3842168194499391E-3</v>
       </c>
       <c r="AG11" s="9"/>
+      <c r="AI11" s="28">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="AJ11" s="3">
+        <f t="shared" si="10"/>
+        <v>3.0303030303030303</v>
+      </c>
+      <c r="AK11" s="20">
+        <f t="shared" si="11"/>
+        <v>-0.34236747708250298</v>
+      </c>
+      <c r="AL11" s="9"/>
     </row>
-    <row r="12" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B12" s="8"/>
       <c r="C12" t="s">
         <v>10</v>
@@ -1459,7 +1579,7 @@
         <v>0.193</v>
       </c>
       <c r="Q12" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1.9928258270227182</v>
       </c>
       <c r="R12" s="9"/>
@@ -1500,8 +1620,20 @@
         <v>4.3842168194499391E-3</v>
       </c>
       <c r="AG12" s="9"/>
+      <c r="AI12" s="28">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="AJ12" s="3">
+        <f t="shared" si="10"/>
+        <v>3.0303030303030303</v>
+      </c>
+      <c r="AK12" s="20">
+        <f t="shared" si="11"/>
+        <v>-0.34236747708250298</v>
+      </c>
+      <c r="AL12" s="9"/>
     </row>
-    <row r="13" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B13" s="8"/>
       <c r="C13" t="s">
         <v>22</v>
@@ -1538,7 +1670,7 @@
         <v>2.3109999999999999</v>
       </c>
       <c r="Q13" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.16642811969510368</v>
       </c>
       <c r="R13" s="9"/>
@@ -1579,8 +1711,20 @@
         <v>-0.66847518556735352</v>
       </c>
       <c r="AG13" s="9"/>
+      <c r="AI13" s="25">
+        <v>0.45400000000000001</v>
+      </c>
+      <c r="AJ13" s="3">
+        <f t="shared" si="10"/>
+        <v>0.50060072086503793</v>
+      </c>
+      <c r="AK13" s="20">
+        <f t="shared" si="11"/>
+        <v>-0.66754318809706081</v>
+      </c>
+      <c r="AL13" s="9"/>
     </row>
-    <row r="14" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B14" s="8"/>
       <c r="C14" t="s">
         <v>11</v>
@@ -1617,7 +1761,7 @@
         <v>0.193</v>
       </c>
       <c r="Q14" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1.9928258270227182</v>
       </c>
       <c r="R14" s="9"/>
@@ -1658,8 +1802,20 @@
         <v>-3.58708648864094E-3</v>
       </c>
       <c r="AG14" s="9"/>
+      <c r="AI14" s="25">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="AJ14" s="3">
+        <f t="shared" si="10"/>
+        <v>3.0303030303030303</v>
+      </c>
+      <c r="AK14" s="20">
+        <f t="shared" si="11"/>
+        <v>-0.34236747708250298</v>
+      </c>
+      <c r="AL14" s="9"/>
     </row>
-    <row r="15" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B15" s="8"/>
       <c r="C15" t="s">
         <v>12</v>
@@ -1696,7 +1852,7 @@
         <v>0.29399999999999998</v>
       </c>
       <c r="Q15" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1.3082155939298796</v>
       </c>
       <c r="R15" s="9"/>
@@ -1737,8 +1893,20 @@
         <v>-0.34589220303506013</v>
       </c>
       <c r="AG15" s="9"/>
+      <c r="AI15" s="25">
+        <v>0.112</v>
+      </c>
+      <c r="AJ15" s="3">
+        <f t="shared" si="10"/>
+        <v>2.029220779220779</v>
+      </c>
+      <c r="AK15" s="20">
+        <f t="shared" si="11"/>
+        <v>-0.35531135531135521</v>
+      </c>
+      <c r="AL15" s="9"/>
     </row>
-    <row r="16" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B16" s="8"/>
       <c r="C16" t="s">
         <v>23</v>
@@ -1775,7 +1943,7 @@
         <v>0.105</v>
       </c>
       <c r="Q16" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>3.6630036630036629</v>
       </c>
       <c r="R16" s="9"/>
@@ -1816,8 +1984,20 @@
         <v>-7.6923076923076983E-2</v>
       </c>
       <c r="AG16" s="9"/>
+      <c r="AI16" s="25">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="AJ16" s="3">
+        <f t="shared" si="10"/>
+        <v>5.9808612440191382</v>
+      </c>
+      <c r="AK16" s="20">
+        <f t="shared" si="11"/>
+        <v>-0.38754578754578756</v>
+      </c>
+      <c r="AL16" s="9"/>
     </row>
-    <row r="17" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B17" s="8"/>
       <c r="C17" t="s">
         <v>24</v>
@@ -1854,7 +2034,7 @@
         <v>0.105</v>
       </c>
       <c r="Q17" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>3.6630036630036629</v>
       </c>
       <c r="R17" s="9"/>
@@ -1895,8 +2075,20 @@
         <v>-6.227106227106232E-2</v>
       </c>
       <c r="AG17" s="9"/>
+      <c r="AI17" s="25">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="AJ17" s="3">
+        <f t="shared" si="10"/>
+        <v>6.1425061425061429</v>
+      </c>
+      <c r="AK17" s="20">
+        <f t="shared" si="11"/>
+        <v>-0.40366300366300373</v>
+      </c>
+      <c r="AL17" s="9"/>
     </row>
-    <row r="18" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B18" s="8"/>
       <c r="C18" t="s">
         <v>25</v>
@@ -1933,7 +2125,7 @@
         <v>0.10299999999999999</v>
       </c>
       <c r="Q18" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>3.734129947722181</v>
       </c>
       <c r="R18" s="9"/>
@@ -1974,8 +2166,20 @@
         <v>-5.8999253174010384E-2</v>
       </c>
       <c r="AG18" s="9"/>
+      <c r="AI18" s="25">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="AJ18" s="3">
+        <f t="shared" si="10"/>
+        <v>5.9808612440191382</v>
+      </c>
+      <c r="AK18" s="20">
+        <f t="shared" si="11"/>
+        <v>-0.37565347274085126</v>
+      </c>
+      <c r="AL18" s="9"/>
     </row>
-    <row r="19" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B19" s="8"/>
       <c r="C19" t="s">
         <v>13</v>
@@ -2012,7 +2216,7 @@
         <v>0.19600000000000001</v>
       </c>
       <c r="Q19" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1.9623233908948192</v>
       </c>
       <c r="R19" s="9"/>
@@ -2053,8 +2257,20 @@
         <v>-2.6687598116169654E-2</v>
       </c>
       <c r="AG19" s="9"/>
+      <c r="AI19" s="28">
+        <v>0.112</v>
+      </c>
+      <c r="AJ19" s="3">
+        <f t="shared" si="10"/>
+        <v>2.029220779220779</v>
+      </c>
+      <c r="AK19" s="20">
+        <f t="shared" si="11"/>
+        <v>-3.2967032967032926E-2</v>
+      </c>
+      <c r="AL19" s="9"/>
     </row>
-    <row r="20" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B20" s="8"/>
       <c r="C20" t="s">
         <v>26</v>
@@ -2091,7 +2307,7 @@
         <v>0.19500000000000001</v>
       </c>
       <c r="Q20" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1.9723865877712032</v>
       </c>
       <c r="R20" s="9"/>
@@ -2132,8 +2348,20 @@
         <v>-1.3806706114398434E-2</v>
       </c>
       <c r="AG20" s="9"/>
+      <c r="AI20" s="25">
+        <v>0.113</v>
+      </c>
+      <c r="AJ20" s="3">
+        <f t="shared" si="10"/>
+        <v>2.0112630732099759</v>
+      </c>
+      <c r="AK20" s="20">
+        <f t="shared" si="11"/>
+        <v>-1.9329388560157743E-2</v>
+      </c>
+      <c r="AL20" s="9"/>
     </row>
-    <row r="21" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B21" s="8"/>
       <c r="C21" t="s">
         <v>27</v>
@@ -2170,7 +2398,7 @@
         <v>0.13100000000000001</v>
       </c>
       <c r="Q21" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>2.935995302407516</v>
       </c>
       <c r="R21" s="9"/>
@@ -2211,8 +2439,20 @@
         <v>-0.27187316500293601</v>
       </c>
       <c r="AG21" s="9"/>
+      <c r="AI21" s="25">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="AJ21" s="3">
+        <f t="shared" si="10"/>
+        <v>5.9808612440191382</v>
+      </c>
+      <c r="AK21" s="20">
+        <f t="shared" si="11"/>
+        <v>-0.50910158543746331</v>
+      </c>
+      <c r="AL21" s="9"/>
     </row>
-    <row r="22" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B22" s="8"/>
       <c r="C22" t="s">
         <v>28</v>
@@ -2249,7 +2489,7 @@
         <v>0.13100000000000001</v>
       </c>
       <c r="Q22" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>2.935995302407516</v>
       </c>
       <c r="R22" s="9"/>
@@ -2290,8 +2530,20 @@
         <v>-0.27187316500293601</v>
       </c>
       <c r="AG22" s="9"/>
+      <c r="AI22" s="25">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="AJ22" s="3">
+        <f t="shared" si="10"/>
+        <v>6.1425061425061429</v>
+      </c>
+      <c r="AK22" s="20">
+        <f t="shared" si="11"/>
+        <v>-0.52201996476805634</v>
+      </c>
+      <c r="AL22" s="9"/>
     </row>
-    <row r="23" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>29</v>
@@ -2328,7 +2580,7 @@
         <v>0.14599999999999999</v>
       </c>
       <c r="Q23" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>2.6343519494204428</v>
       </c>
       <c r="R23" s="9"/>
@@ -2369,8 +2621,20 @@
         <v>-0.33614330874604847</v>
       </c>
       <c r="AG23" s="9"/>
+      <c r="AI23" s="25">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="AJ23" s="3">
+        <f t="shared" si="10"/>
+        <v>6.1425061425061429</v>
+      </c>
+      <c r="AK23" s="20">
+        <f t="shared" si="11"/>
+        <v>-0.57112750263435197</v>
+      </c>
+      <c r="AL23" s="9"/>
     </row>
-    <row r="24" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B24" s="8"/>
       <c r="C24" t="s">
         <v>14</v>
@@ -2407,7 +2671,7 @@
         <v>0.34</v>
       </c>
       <c r="Q24" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1.1312217194570133</v>
       </c>
       <c r="R24" s="9"/>
@@ -2448,8 +2712,20 @@
         <v>-0.43891402714932137</v>
       </c>
       <c r="AG24" s="9"/>
+      <c r="AI24" s="28">
+        <v>0.112</v>
+      </c>
+      <c r="AJ24" s="3">
+        <f t="shared" si="10"/>
+        <v>2.029220779220779</v>
+      </c>
+      <c r="AK24" s="20">
+        <f t="shared" si="11"/>
+        <v>-0.44253393665158369</v>
+      </c>
+      <c r="AL24" s="9"/>
     </row>
-    <row r="25" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B25" s="8"/>
       <c r="C25" t="s">
         <v>30</v>
@@ -2486,7 +2762,7 @@
         <v>0.33900000000000002</v>
       </c>
       <c r="Q25" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1.1345586566825503</v>
       </c>
       <c r="R25" s="9"/>
@@ -2527,8 +2803,20 @@
         <v>-0.4327206716587248</v>
       </c>
       <c r="AG25" s="9"/>
+      <c r="AI25" s="25">
+        <v>0.112</v>
+      </c>
+      <c r="AJ25" s="3">
+        <f t="shared" si="10"/>
+        <v>2.029220779220779</v>
+      </c>
+      <c r="AK25" s="20">
+        <f t="shared" si="11"/>
+        <v>-0.44088949398683908</v>
+      </c>
+      <c r="AL25" s="9"/>
     </row>
-    <row r="26" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B26" s="8"/>
       <c r="C26" t="s">
         <v>37</v>
@@ -2552,11 +2840,11 @@
         <v>0.44500000000000001</v>
       </c>
       <c r="L26" s="3">
-        <f t="shared" ref="L26:L32" si="11">1/($K$3*K26)</f>
+        <f t="shared" ref="L26:L32" si="13">1/($K$3*K26)</f>
         <v>0.74906367041198507</v>
       </c>
       <c r="M26" s="20">
-        <f t="shared" ref="M26:M32" si="12">(K26*$K$3 - $P26*$P$3)/($P26*$P$3)</f>
+        <f t="shared" ref="M26:M32" si="14">(K26*$K$3 - $P26*$P$3)/($P26*$P$3)</f>
         <v>1.2922390109890107</v>
       </c>
       <c r="N26" s="9"/>
@@ -2565,7 +2853,7 @@
         <v>0.224</v>
       </c>
       <c r="Q26" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1.7170329670329669</v>
       </c>
       <c r="R26" s="9"/>
@@ -2586,11 +2874,11 @@
         <v>0.105</v>
       </c>
       <c r="Z26" s="3">
-        <f t="shared" ref="Z26:Z35" si="13">1/($Y$3*Y26)</f>
+        <f t="shared" ref="Z26:Z35" si="15">1/($Y$3*Y26)</f>
         <v>2.9761904761904758</v>
       </c>
       <c r="AA26" s="20">
-        <f t="shared" ref="AA26:AA35" si="14">(Y26*$Y$3 - $P26*$P$3)/($P26*$P$3)</f>
+        <f t="shared" ref="AA26:AA35" si="16">(Y26*$Y$3 - $P26*$P$3)/($P26*$P$3)</f>
         <v>-0.42307692307692307</v>
       </c>
       <c r="AB26" s="9"/>
@@ -2606,8 +2894,20 @@
         <v>-0.42994505494505492</v>
       </c>
       <c r="AG26" s="9"/>
+      <c r="AI26" s="25">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="AJ26" s="3">
+        <f t="shared" si="10"/>
+        <v>3.0303030303030303</v>
+      </c>
+      <c r="AK26" s="20">
+        <f t="shared" si="11"/>
+        <v>-0.43337912087912089</v>
+      </c>
+      <c r="AL26" s="9"/>
     </row>
-    <row r="27" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B27" s="8"/>
       <c r="C27" t="s">
         <v>38</v>
@@ -2631,11 +2931,11 @@
         <v>0.44500000000000001</v>
       </c>
       <c r="L27" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0.74906367041198507</v>
       </c>
       <c r="M27" s="20">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1.4450549450549448</v>
       </c>
       <c r="N27" s="9"/>
@@ -2644,7 +2944,7 @@
         <v>0.21</v>
       </c>
       <c r="Q27" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1.8315018315018314</v>
       </c>
       <c r="R27" s="9"/>
@@ -2665,11 +2965,11 @@
         <v>0.105</v>
       </c>
       <c r="Z27" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>2.9761904761904758</v>
       </c>
       <c r="AA27" s="20">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>-0.38461538461538464</v>
       </c>
       <c r="AB27" s="9"/>
@@ -2685,8 +2985,20 @@
         <v>-0.39194139194139194</v>
       </c>
       <c r="AG27" s="9"/>
+      <c r="AI27" s="25">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="AJ27" s="3">
+        <f t="shared" si="10"/>
+        <v>3.0303030303030303</v>
+      </c>
+      <c r="AK27" s="20">
+        <f t="shared" si="11"/>
+        <v>-0.39560439560439564</v>
+      </c>
+      <c r="AL27" s="9"/>
     </row>
-    <row r="28" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B28" s="8"/>
       <c r="C28" t="s">
         <v>39</v>
@@ -2710,11 +3022,11 @@
         <v>0.44500000000000001</v>
       </c>
       <c r="L28" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0.74906367041198507</v>
       </c>
       <c r="M28" s="20">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>2.5657051282051277</v>
       </c>
       <c r="N28" s="9"/>
@@ -2723,7 +3035,7 @@
         <v>0.14399999999999999</v>
       </c>
       <c r="Q28" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>2.6709401709401708</v>
       </c>
       <c r="R28" s="9"/>
@@ -2744,11 +3056,11 @@
         <v>0.11700000000000001</v>
       </c>
       <c r="Z28" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>2.6709401709401703</v>
       </c>
       <c r="AA28" s="20">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1.4826696375870145E-16</v>
       </c>
       <c r="AB28" s="9"/>
@@ -2764,8 +3076,20 @@
         <v>-0.50854700854700852</v>
       </c>
       <c r="AG28" s="9"/>
+      <c r="AI28" s="25">
+        <v>3.9E-2</v>
+      </c>
+      <c r="AJ28" s="3">
+        <f t="shared" si="10"/>
+        <v>5.8275058275058278</v>
+      </c>
+      <c r="AK28" s="20">
+        <f t="shared" si="11"/>
+        <v>-0.54166666666666663</v>
+      </c>
+      <c r="AL28" s="9"/>
     </row>
-    <row r="29" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B29" s="8"/>
       <c r="C29" t="s">
         <v>40</v>
@@ -2789,11 +3113,11 @@
         <v>0.44500000000000001</v>
       </c>
       <c r="L29" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0.74906367041198507</v>
       </c>
       <c r="M29" s="20">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.4223311314724057</v>
       </c>
       <c r="N29" s="9"/>
@@ -2802,7 +3126,7 @@
         <v>0.36099999999999999</v>
       </c>
       <c r="Q29" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1.0654165778819518</v>
       </c>
       <c r="R29" s="9"/>
@@ -2823,11 +3147,11 @@
         <v>0.21</v>
       </c>
       <c r="Z29" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1.4880952380952379</v>
       </c>
       <c r="AA29" s="20">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>-0.28404005966332829</v>
       </c>
       <c r="AB29" s="9"/>
@@ -2843,8 +3167,20 @@
         <v>-0.29256339228638395</v>
       </c>
       <c r="AG29" s="9"/>
+      <c r="AI29" s="25">
+        <v>0.15</v>
+      </c>
+      <c r="AJ29" s="3">
+        <f t="shared" si="10"/>
+        <v>1.5151515151515151</v>
+      </c>
+      <c r="AK29" s="20">
+        <f t="shared" si="11"/>
+        <v>-0.29682505859791175</v>
+      </c>
+      <c r="AL29" s="9"/>
     </row>
-    <row r="30" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B30" s="8"/>
       <c r="C30" t="s">
         <v>41</v>
@@ -2868,11 +3204,11 @@
         <v>0.44500000000000001</v>
       </c>
       <c r="L30" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0.74906367041198507</v>
       </c>
       <c r="M30" s="20">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>3.5439074200136145</v>
       </c>
       <c r="N30" s="9"/>
@@ -2881,7 +3217,7 @@
         <v>0.113</v>
       </c>
       <c r="Q30" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>3.4036759700476513</v>
       </c>
       <c r="R30" s="9"/>
@@ -2902,11 +3238,11 @@
         <v>9.8000000000000004E-2</v>
       </c>
       <c r="Z30" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>3.1887755102040813</v>
       </c>
       <c r="AA30" s="20">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>6.739278420694364E-2</v>
       </c>
       <c r="AB30" s="9"/>
@@ -2922,8 +3258,20 @@
         <v>-0.38733832539142277</v>
       </c>
       <c r="AG30" s="9"/>
+      <c r="AI30" s="25">
+        <v>3.9E-2</v>
+      </c>
+      <c r="AJ30" s="3">
+        <f t="shared" si="10"/>
+        <v>5.8275058275058278</v>
+      </c>
+      <c r="AK30" s="20">
+        <f t="shared" si="11"/>
+        <v>-0.41592920353982299</v>
+      </c>
+      <c r="AL30" s="9"/>
     </row>
-    <row r="31" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B31" s="8"/>
       <c r="C31" t="s">
         <v>42</v>
@@ -2947,11 +3295,11 @@
         <v>0.44500000000000001</v>
       </c>
       <c r="L31" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0.74906367041198507</v>
       </c>
       <c r="M31" s="20">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.52362474320931274</v>
       </c>
       <c r="N31" s="9"/>
@@ -2960,7 +3308,7 @@
         <v>0.33700000000000002</v>
       </c>
       <c r="Q31" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1.1412919424788859</v>
       </c>
       <c r="R31" s="9"/>
@@ -2981,11 +3329,11 @@
         <v>0.21</v>
       </c>
       <c r="Z31" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1.4880952380952379</v>
       </c>
       <c r="AA31" s="20">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>-0.23305181465418856</v>
       </c>
       <c r="AB31" s="9"/>
@@ -3001,8 +3349,20 @@
         <v>-0.23761698242410412</v>
       </c>
       <c r="AG31" s="9"/>
+      <c r="AI31" s="25">
+        <v>0.15</v>
+      </c>
+      <c r="AJ31" s="3">
+        <f t="shared" si="10"/>
+        <v>1.5151515151515151</v>
+      </c>
+      <c r="AK31" s="20">
+        <f t="shared" si="11"/>
+        <v>-0.2467473179639352</v>
+      </c>
+      <c r="AL31" s="9"/>
     </row>
-    <row r="32" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B32" s="8"/>
       <c r="C32" t="s">
         <v>15</v>
@@ -3026,11 +3386,11 @@
         <v>0.58399999999999996</v>
       </c>
       <c r="L32" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0.57077625570776258</v>
       </c>
       <c r="M32" s="20">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>4.4784240150093799</v>
       </c>
       <c r="N32" s="9"/>
@@ -3039,7 +3399,7 @@
         <v>0.123</v>
       </c>
       <c r="Q32" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>3.1269543464665412</v>
       </c>
       <c r="R32" s="9"/>
@@ -3060,11 +3420,11 @@
         <v>0.104</v>
       </c>
       <c r="Z32" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>3.0048076923076925</v>
       </c>
       <c r="AA32" s="20">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>4.0650406504064901E-2</v>
       </c>
       <c r="AB32" s="9"/>
@@ -3080,8 +3440,20 @@
         <v>-0.21200750469043159</v>
       </c>
       <c r="AG32" s="9"/>
+      <c r="AI32" s="25">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="AJ32" s="3">
+        <f t="shared" si="10"/>
+        <v>5.9808612440191382</v>
+      </c>
+      <c r="AK32" s="20">
+        <f t="shared" si="11"/>
+        <v>-0.47717323327079425</v>
+      </c>
+      <c r="AL32" s="9"/>
     </row>
-    <row r="33" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B33" s="8"/>
       <c r="C33" t="s">
         <v>16</v>
@@ -3102,7 +3474,7 @@
         <v>0.38500000000000001</v>
       </c>
       <c r="Q33" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.99900099900099892</v>
       </c>
       <c r="R33" s="9"/>
@@ -3115,11 +3487,11 @@
         <v>0.313</v>
       </c>
       <c r="Z33" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0.99840255591054305</v>
       </c>
       <c r="AA33" s="20">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>5.9940059940053337E-4</v>
       </c>
       <c r="AB33" s="9"/>
@@ -3127,16 +3499,28 @@
         <v>0.248</v>
       </c>
       <c r="AE33" s="3">
-        <f t="shared" ref="AE33:AE35" si="15">1/($AD$3*AD33)</f>
+        <f t="shared" ref="AE33:AE35" si="17">1/($AD$3*AD33)</f>
         <v>1.0080645161290323</v>
       </c>
       <c r="AF33" s="20">
-        <f t="shared" ref="AF33:AF35" si="16">(AD33*$AD$3 - $P33*$P$3)/($P33*$P$3)</f>
+        <f t="shared" ref="AF33:AF35" si="18">(AD33*$AD$3 - $P33*$P$3)/($P33*$P$3)</f>
         <v>-8.9910089910091081E-3</v>
       </c>
       <c r="AG33" s="9"/>
+      <c r="AI33" s="25">
+        <v>0.22700000000000001</v>
+      </c>
+      <c r="AJ33" s="3">
+        <f t="shared" si="10"/>
+        <v>1.0012014417300759</v>
+      </c>
+      <c r="AK33" s="20">
+        <f t="shared" si="11"/>
+        <v>-2.1978021978021774E-3</v>
+      </c>
+      <c r="AL33" s="9"/>
     </row>
-    <row r="34" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B34" s="8"/>
       <c r="C34" t="s">
         <v>31</v>
@@ -3153,7 +3537,7 @@
         <v>0.38500000000000001</v>
       </c>
       <c r="Q34" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.99900099900099892</v>
       </c>
       <c r="R34" s="9"/>
@@ -3164,11 +3548,11 @@
         <v>0.313</v>
       </c>
       <c r="Z34" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0.99840255591054305</v>
       </c>
       <c r="AA34" s="20">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>5.9940059940053337E-4</v>
       </c>
       <c r="AB34" s="9"/>
@@ -3176,16 +3560,28 @@
         <v>0.25</v>
       </c>
       <c r="AE34" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="AF34" s="20">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>-9.9900099900111067E-4</v>
       </c>
       <c r="AG34" s="9"/>
+      <c r="AI34" s="25">
+        <v>0.22700000000000001</v>
+      </c>
+      <c r="AJ34" s="3">
+        <f t="shared" si="10"/>
+        <v>1.0012014417300759</v>
+      </c>
+      <c r="AK34" s="20">
+        <f t="shared" si="11"/>
+        <v>-2.1978021978021774E-3</v>
+      </c>
+      <c r="AL34" s="9"/>
     </row>
-    <row r="35" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B35" s="8"/>
       <c r="C35" t="s">
         <v>17</v>
@@ -3202,7 +3598,7 @@
         <v>0.38500000000000001</v>
       </c>
       <c r="Q35" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.99900099900099892</v>
       </c>
       <c r="R35" s="9"/>
@@ -3213,11 +3609,11 @@
         <v>0.314</v>
       </c>
       <c r="Z35" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0.99522292993630557</v>
       </c>
       <c r="AA35" s="20">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>3.7962037962038214E-3</v>
       </c>
       <c r="AB35" s="9"/>
@@ -3225,16 +3621,28 @@
         <v>0.251</v>
       </c>
       <c r="AE35" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0.99601593625498008</v>
       </c>
       <c r="AF35" s="20">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>2.9970029970028886E-3</v>
       </c>
       <c r="AG35" s="9"/>
+      <c r="AI35" s="25">
+        <v>0.22800000000000001</v>
+      </c>
+      <c r="AJ35" s="3">
+        <f t="shared" si="10"/>
+        <v>0.99681020733652304</v>
+      </c>
+      <c r="AK35" s="20">
+        <f t="shared" si="11"/>
+        <v>2.1978021978021774E-3</v>
+      </c>
+      <c r="AL35" s="9"/>
     </row>
-    <row r="36" spans="2:33" ht="4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:38" ht="3.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="10"/>
       <c r="C36" s="11"/>
       <c r="D36" s="13"/>
@@ -3267,8 +3675,13 @@
       <c r="AE36" s="12"/>
       <c r="AF36" s="12"/>
       <c r="AG36" s="13"/>
+      <c r="AH36" s="12"/>
+      <c r="AI36" s="26"/>
+      <c r="AJ36" s="12"/>
+      <c r="AK36" s="12"/>
+      <c r="AL36" s="13"/>
     </row>
-    <row r="38" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:38" x14ac:dyDescent="0.25">
       <c r="C38" s="1" t="s">
         <v>32</v>
       </c>
@@ -3296,8 +3709,12 @@
         <f>(AD12-AD11)/AD11</f>
         <v>0</v>
       </c>
+      <c r="AI38" s="21">
+        <f>(AI12-AI11)/AI11</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="39" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:38" x14ac:dyDescent="0.25">
       <c r="C39" s="1" t="s">
         <v>33</v>
       </c>
@@ -3325,26 +3742,32 @@
         <f>(AD24-AD19)/AD19</f>
         <v>0</v>
       </c>
+      <c r="AI39" s="21">
+        <f>(AI24-AI19)/AI19</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="41" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:38" x14ac:dyDescent="0.25">
       <c r="C41" s="1" t="s">
         <v>36</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="14">
+    <mergeCell ref="AI2:AK2"/>
+    <mergeCell ref="AI3:AK3"/>
+    <mergeCell ref="AD2:AF2"/>
+    <mergeCell ref="AD3:AF3"/>
+    <mergeCell ref="Y2:AA2"/>
+    <mergeCell ref="Y3:AA3"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="P3:Q3"/>
     <mergeCell ref="F2:H2"/>
     <mergeCell ref="F3:H3"/>
     <mergeCell ref="K2:M2"/>
     <mergeCell ref="K3:M3"/>
     <mergeCell ref="T2:V2"/>
     <mergeCell ref="T3:V3"/>
-    <mergeCell ref="AD2:AF2"/>
-    <mergeCell ref="AD3:AF3"/>
-    <mergeCell ref="Y2:AA2"/>
-    <mergeCell ref="Y3:AA3"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="P3:Q3"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="68" orientation="landscape" r:id="rId1"/>
